--- a/Units.xlsx
+++ b/Units.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="57">
   <si>
     <t>Stats</t>
   </si>
@@ -160,6 +160,36 @@
   </si>
   <si>
     <t>Golem</t>
+  </si>
+  <si>
+    <t>T2 transport</t>
+  </si>
+  <si>
+    <t>Scalestoria</t>
+  </si>
+  <si>
+    <t>Spit fire</t>
+  </si>
+  <si>
+    <t>T2 bomber</t>
+  </si>
+  <si>
+    <t>add bombard mode, as default work in snipe mode</t>
+  </si>
+  <si>
+    <t>T3 Air</t>
+  </si>
+  <si>
+    <t>Beholder</t>
+  </si>
+  <si>
+    <t>T3 spy plane</t>
+  </si>
+  <si>
+    <t>T3 gunship</t>
+  </si>
+  <si>
+    <t>Hornet</t>
   </si>
 </sst>
 </file>
@@ -323,7 +353,61 @@
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="50">
+  <dxfs count="68">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -784,10 +868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:J64"/>
+  <dimension ref="A3:N65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="E37" workbookViewId="0">
+      <selection activeCell="N55" sqref="N55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1432,7 +1516,7 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="8" t="s">
         <v>15</v>
@@ -1448,7 +1532,7 @@
       </c>
       <c r="F33" s="8"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="8" t="s">
         <v>19</v>
@@ -1464,12 +1548,12 @@
       </c>
       <c r="F34" s="8"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="12" t="s">
         <v>20</v>
@@ -1478,8 +1562,20 @@
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
       <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>26</v>
       </c>
@@ -1498,8 +1594,24 @@
       <c r="F38" s="9" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>0</v>
       </c>
@@ -1518,8 +1630,24 @@
       <c r="F39" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>1</v>
       </c>
@@ -1538,8 +1666,18 @@
       <c r="F40" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" s="5">
+        <v>300</v>
+      </c>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="7"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>2</v>
       </c>
@@ -1558,8 +1696,18 @@
       <c r="F41" s="7">
         <v>2500</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" s="5">
+        <v>12000</v>
+      </c>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="7"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1578,8 +1726,18 @@
       <c r="F42" s="7">
         <v>500</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" s="5">
+        <v>2400</v>
+      </c>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="7"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>4</v>
       </c>
@@ -1600,11 +1758,40 @@
         <v>40</v>
       </c>
       <c r="F43" s="7">
-        <f t="shared" ref="F43" si="8">F42/$C$34</f>
+        <f t="shared" ref="F43:J43" si="8">F42/$C$34</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" s="7">
+        <f t="shared" si="8"/>
+        <v>120</v>
+      </c>
+      <c r="H43" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7">
+        <f t="shared" ref="K43:N43" si="9">L42/$C$34</f>
+        <v>0</v>
+      </c>
+      <c r="M43" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N43" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>5</v>
       </c>
@@ -1613,56 +1800,122 @@
         <v>5.5172413793103452</v>
       </c>
       <c r="C44" s="7">
-        <f t="shared" ref="C44:F44" si="9">C40/C43</f>
+        <f t="shared" ref="C44:J44" si="10">C40/C43</f>
         <v>2</v>
       </c>
       <c r="D44" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="E44" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="F44" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" s="7">
+        <f t="shared" si="10"/>
+        <v>2.5</v>
+      </c>
+      <c r="H44" s="7" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I44" s="7" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J44" s="7" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7" t="e">
+        <f t="shared" ref="K44:N44" si="11">L40/L43</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M44" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N44" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B45" s="7">
-        <f t="shared" ref="B45:F45" si="10">B41/B43</f>
+        <f t="shared" ref="B45:J45" si="12">B41/B43</f>
         <v>57.931034482758619</v>
       </c>
       <c r="C45" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>90</v>
       </c>
       <c r="D45" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>70</v>
       </c>
       <c r="E45" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>120</v>
       </c>
       <c r="F45" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" s="7">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="H45" s="7" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I45" s="7" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J45" s="7" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7" t="e">
+        <f t="shared" ref="K45:N45" si="13">L41/L43</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M45" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N45" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>7</v>
       </c>
@@ -1681,8 +1934,20 @@
       <c r="F47" s="7">
         <v>400</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" s="7">
+        <v>1500</v>
+      </c>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>8</v>
       </c>
@@ -1701,8 +1966,16 @@
       <c r="F48" s="7">
         <v>300</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>9</v>
       </c>
@@ -1721,16 +1994,34 @@
       <c r="F49" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" s="7">
+        <v>16</v>
+      </c>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>10</v>
       </c>
@@ -1745,8 +2036,16 @@
       <c r="F51" s="7">
         <v>16</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>11</v>
       </c>
@@ -1761,8 +2060,16 @@
       <c r="F52" s="7">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>12</v>
       </c>
@@ -1773,8 +2080,16 @@
       <c r="F53" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>34</v>
       </c>
@@ -1785,8 +2100,16 @@
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>35</v>
       </c>
@@ -1801,8 +2124,18 @@
       <c r="F55" s="7">
         <v>16</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>13</v>
       </c>
@@ -1813,8 +2146,18 @@
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56" s="7">
+        <v>3</v>
+      </c>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>28</v>
       </c>
@@ -1833,8 +2176,16 @@
       <c r="F57" s="7">
         <v>32</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>29</v>
       </c>
@@ -1849,8 +2200,16 @@
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>30</v>
       </c>
@@ -1869,8 +2228,16 @@
       <c r="F59" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>31</v>
       </c>
@@ -1889,8 +2256,16 @@
       <c r="F60" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>33</v>
       </c>
@@ -1905,8 +2280,16 @@
       <c r="F61" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>14</v>
       </c>
@@ -1919,8 +2302,16 @@
       <c r="F62" s="10" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>14</v>
       </c>
@@ -1931,8 +2322,16 @@
         <v>39</v>
       </c>
       <c r="F63" s="7"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="7"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>14</v>
       </c>
@@ -1941,211 +2340,298 @@
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+    </row>
+    <row r="65" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H65" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="B37:E37"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="K37:N37"/>
   </mergeCells>
   <conditionalFormatting sqref="B13:F28 B29:C29 E29:F29 B30:F31">
+    <cfRule type="expression" dxfId="67" priority="67" stopIfTrue="1">
+      <formula>B13&gt;9999</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="68" stopIfTrue="1">
+      <formula>MOD(B13,1)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:J10">
+    <cfRule type="expression" dxfId="65" priority="61" stopIfTrue="1">
+      <formula>B10&gt;9999</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="62" stopIfTrue="1">
+      <formula>MOD(B10,1)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:F19">
+    <cfRule type="expression" dxfId="63" priority="65" stopIfTrue="1">
+      <formula>B18&gt;9999</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="66" stopIfTrue="1">
+      <formula>MOD(B18,1)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:F20">
+    <cfRule type="expression" dxfId="61" priority="63" stopIfTrue="1">
+      <formula>B20&gt;9999</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="64" stopIfTrue="1">
+      <formula>MOD(B20,1)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:F21">
+    <cfRule type="expression" dxfId="59" priority="59" stopIfTrue="1">
+      <formula>B21&gt;9999</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="60" stopIfTrue="1">
+      <formula>MOD(B21,1)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:F9 B10:J12 B31:C31 E31:F31">
+    <cfRule type="expression" dxfId="57" priority="69" stopIfTrue="1">
+      <formula>B7&gt;9999</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="70" stopIfTrue="1">
+      <formula>MOD(B7,1)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33:F34">
+    <cfRule type="expression" dxfId="55" priority="57" stopIfTrue="1">
+      <formula>B33&gt;9999</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="58" stopIfTrue="1">
+      <formula>MOD(B33,1)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:F13">
+    <cfRule type="expression" dxfId="53" priority="55" stopIfTrue="1">
+      <formula>E13&gt;9999</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="56" stopIfTrue="1">
+      <formula>MOD(E13,1)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:F14">
+    <cfRule type="expression" dxfId="51" priority="53" stopIfTrue="1">
+      <formula>E14&gt;9999</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="54" stopIfTrue="1">
+      <formula>MOD(E14,1)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23:J31">
     <cfRule type="expression" dxfId="49" priority="49" stopIfTrue="1">
-      <formula>B13&gt;9999</formula>
+      <formula>G23&gt;9999</formula>
     </cfRule>
     <cfRule type="expression" dxfId="48" priority="50" stopIfTrue="1">
-      <formula>MOD(B13,1)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10:J10">
-    <cfRule type="expression" dxfId="47" priority="43" stopIfTrue="1">
-      <formula>B10&gt;9999</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="44" stopIfTrue="1">
-      <formula>MOD(B10,1)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18:F19">
+      <formula>MOD(G23,1)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43:F43">
+    <cfRule type="expression" dxfId="47" priority="27" stopIfTrue="1">
+      <formula>B43&gt;9999</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="28" stopIfTrue="1">
+      <formula>MOD(B43,1)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:J19">
     <cfRule type="expression" dxfId="45" priority="47" stopIfTrue="1">
-      <formula>B18&gt;9999</formula>
+      <formula>G18&gt;9999</formula>
     </cfRule>
     <cfRule type="expression" dxfId="44" priority="48" stopIfTrue="1">
-      <formula>MOD(B18,1)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20:F20">
+      <formula>MOD(G18,1)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20:J20">
     <cfRule type="expression" dxfId="43" priority="45" stopIfTrue="1">
-      <formula>B20&gt;9999</formula>
+      <formula>G20&gt;9999</formula>
     </cfRule>
     <cfRule type="expression" dxfId="42" priority="46" stopIfTrue="1">
-      <formula>MOD(B20,1)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B21:F21">
+      <formula>MOD(G20,1)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21:J21">
     <cfRule type="expression" dxfId="41" priority="41" stopIfTrue="1">
-      <formula>B21&gt;9999</formula>
+      <formula>G21&gt;9999</formula>
     </cfRule>
     <cfRule type="expression" dxfId="40" priority="42" stopIfTrue="1">
-      <formula>MOD(B21,1)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:F9 B10:J12 B31:C31 E31:F31">
+      <formula>MOD(G21,1)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:J9 G13:J31">
     <cfRule type="expression" dxfId="39" priority="51" stopIfTrue="1">
-      <formula>B7&gt;9999</formula>
+      <formula>G7&gt;9999</formula>
     </cfRule>
     <cfRule type="expression" dxfId="38" priority="52" stopIfTrue="1">
-      <formula>MOD(B7,1)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33:F34">
+      <formula>MOD(G7,1)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
     <cfRule type="expression" dxfId="37" priority="39" stopIfTrue="1">
-      <formula>B33&gt;9999</formula>
+      <formula>J13&gt;9999</formula>
     </cfRule>
     <cfRule type="expression" dxfId="36" priority="40" stopIfTrue="1">
-      <formula>MOD(B33,1)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:F13">
+      <formula>MOD(J13,1)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14">
     <cfRule type="expression" dxfId="35" priority="37" stopIfTrue="1">
-      <formula>E13&gt;9999</formula>
+      <formula>J14&gt;9999</formula>
     </cfRule>
     <cfRule type="expression" dxfId="34" priority="38" stopIfTrue="1">
-      <formula>MOD(E13,1)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14:F14">
-    <cfRule type="expression" dxfId="33" priority="35" stopIfTrue="1">
-      <formula>E14&gt;9999</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="36" stopIfTrue="1">
-      <formula>MOD(E14,1)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23:J31">
+      <formula>MOD(J14,1)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B56:F64">
+    <cfRule type="expression" dxfId="33" priority="33" stopIfTrue="1">
+      <formula>B56&gt;9999</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="34" stopIfTrue="1">
+      <formula>MOD(B56,1)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B51:F52">
     <cfRule type="expression" dxfId="31" priority="31" stopIfTrue="1">
-      <formula>G23&gt;9999</formula>
+      <formula>B51&gt;9999</formula>
     </cfRule>
     <cfRule type="expression" dxfId="30" priority="32" stopIfTrue="1">
-      <formula>MOD(G23,1)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B43:F43">
-    <cfRule type="expression" dxfId="29" priority="9" stopIfTrue="1">
-      <formula>B43&gt;9999</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="10" stopIfTrue="1">
-      <formula>MOD(B43,1)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18:J19">
-    <cfRule type="expression" dxfId="27" priority="29" stopIfTrue="1">
-      <formula>G18&gt;9999</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="30" stopIfTrue="1">
-      <formula>MOD(G18,1)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20:J20">
-    <cfRule type="expression" dxfId="25" priority="27" stopIfTrue="1">
-      <formula>G20&gt;9999</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="28" stopIfTrue="1">
-      <formula>MOD(G20,1)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G21:J21">
+      <formula>MOD(B51,1)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B53:F53">
+    <cfRule type="expression" dxfId="29" priority="29" stopIfTrue="1">
+      <formula>B53&gt;9999</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="30" stopIfTrue="1">
+      <formula>MOD(B53,1)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54:F54">
+    <cfRule type="expression" dxfId="27" priority="25" stopIfTrue="1">
+      <formula>B54&gt;9999</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="26" stopIfTrue="1">
+      <formula>MOD(B54,1)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40:F64">
+    <cfRule type="expression" dxfId="25" priority="35" stopIfTrue="1">
+      <formula>B40&gt;9999</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="36" stopIfTrue="1">
+      <formula>MOD(B40,1)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46:F46">
     <cfRule type="expression" dxfId="23" priority="23" stopIfTrue="1">
-      <formula>G21&gt;9999</formula>
+      <formula>E46&gt;9999</formula>
     </cfRule>
     <cfRule type="expression" dxfId="22" priority="24" stopIfTrue="1">
-      <formula>MOD(G21,1)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7:J9 G13:J31">
-    <cfRule type="expression" dxfId="21" priority="33" stopIfTrue="1">
-      <formula>G7&gt;9999</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="34" stopIfTrue="1">
-      <formula>MOD(G7,1)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
-    <cfRule type="expression" dxfId="19" priority="21" stopIfTrue="1">
-      <formula>J13&gt;9999</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="22" stopIfTrue="1">
-      <formula>MOD(J13,1)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14">
-    <cfRule type="expression" dxfId="17" priority="19" stopIfTrue="1">
-      <formula>J14&gt;9999</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="20" stopIfTrue="1">
-      <formula>MOD(J14,1)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B56:F64">
-    <cfRule type="expression" dxfId="15" priority="15" stopIfTrue="1">
-      <formula>B56&gt;9999</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="16" stopIfTrue="1">
-      <formula>MOD(B56,1)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B51:F52">
-    <cfRule type="expression" dxfId="13" priority="13" stopIfTrue="1">
-      <formula>B51&gt;9999</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
-      <formula>MOD(B51,1)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B53:F53">
-    <cfRule type="expression" dxfId="11" priority="11" stopIfTrue="1">
-      <formula>B53&gt;9999</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12" stopIfTrue="1">
-      <formula>MOD(B53,1)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B54:F54">
+      <formula>MOD(E46,1)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47:F47">
+    <cfRule type="expression" dxfId="21" priority="21" stopIfTrue="1">
+      <formula>E47&gt;9999</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="22" stopIfTrue="1">
+      <formula>MOD(E47,1)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="expression" dxfId="19" priority="19" stopIfTrue="1">
+      <formula>D29&gt;9999</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="20" stopIfTrue="1">
+      <formula>MOD(D29,1)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G43:N43">
+    <cfRule type="expression" dxfId="17" priority="15" stopIfTrue="1">
+      <formula>G43&gt;9999</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="16" stopIfTrue="1">
+      <formula>MOD(G43,1)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G43:N45">
+    <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
+      <formula>G43&gt;9999</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="18" stopIfTrue="1">
+      <formula>MOD(G43,1)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G56:N64">
+    <cfRule type="expression" dxfId="13" priority="11" stopIfTrue="1">
+      <formula>G56&gt;9999</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="12" stopIfTrue="1">
+      <formula>MOD(G56,1)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G51:N52">
+    <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
+      <formula>G51&gt;9999</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="10" stopIfTrue="1">
+      <formula>MOD(G51,1)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G53:N53">
     <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
-      <formula>B54&gt;9999</formula>
+      <formula>G53&gt;9999</formula>
     </cfRule>
     <cfRule type="expression" dxfId="8" priority="8" stopIfTrue="1">
-      <formula>MOD(B54,1)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B40:F64">
-    <cfRule type="expression" dxfId="7" priority="17" stopIfTrue="1">
-      <formula>B40&gt;9999</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="18" stopIfTrue="1">
-      <formula>MOD(B40,1)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46:F46">
-    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
-      <formula>E46&gt;9999</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
-      <formula>MOD(E46,1)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47:F47">
+      <formula>MOD(G53,1)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G54:N54">
+    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
+      <formula>G54&gt;9999</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
+      <formula>MOD(G54,1)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G40:N42 G46:N64">
+    <cfRule type="expression" dxfId="5" priority="13" stopIfTrue="1">
+      <formula>G40&gt;9999</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="14" stopIfTrue="1">
+      <formula>MOD(G40,1)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J46 N46">
     <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
-      <formula>E47&gt;9999</formula>
+      <formula>J46&gt;9999</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
-      <formula>MOD(E47,1)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
+      <formula>MOD(J46,1)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J47 N47">
     <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
-      <formula>D29&gt;9999</formula>
+      <formula>J47&gt;9999</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>MOD(D29,1)&gt;0</formula>
+      <formula>MOD(J47,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Units.xlsx
+++ b/Units.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="100">
   <si>
     <t>Stats</t>
   </si>
@@ -150,12 +150,6 @@
     <t>Titmouse</t>
   </si>
   <si>
-    <t>ALREADY</t>
-  </si>
-  <si>
-    <t>How it should be</t>
-  </si>
-  <si>
     <t>single shot kill t1 unit</t>
   </si>
   <si>
@@ -168,9 +162,6 @@
     <t>Scalestoria</t>
   </si>
   <si>
-    <t>Spit fire</t>
-  </si>
-  <si>
     <t>T2 bomber</t>
   </si>
   <si>
@@ -190,13 +181,151 @@
   </si>
   <si>
     <t>Hornet</t>
+  </si>
+  <si>
+    <t>Spitfire</t>
+  </si>
+  <si>
+    <t>t2torp gunship</t>
+  </si>
+  <si>
+    <t>Was</t>
+  </si>
+  <si>
+    <t>Already is</t>
+  </si>
+  <si>
+    <t>Thunder</t>
+  </si>
+  <si>
+    <t>T3 ASF</t>
+  </si>
+  <si>
+    <t>Red Rage</t>
+  </si>
+  <si>
+    <t>T3 bomber</t>
+  </si>
+  <si>
+    <t>1000+1500</t>
+  </si>
+  <si>
+    <t>1500dmg ower 2 sec</t>
+  </si>
+  <si>
+    <t>TECH</t>
+  </si>
+  <si>
+    <t>Units name</t>
+  </si>
+  <si>
+    <t>Mas cost</t>
+  </si>
+  <si>
+    <t>E cost</t>
+  </si>
+  <si>
+    <t>Build Time</t>
+  </si>
+  <si>
+    <t>Real time</t>
+  </si>
+  <si>
+    <t>Mas/sec</t>
+  </si>
+  <si>
+    <t>Ene/sec</t>
+  </si>
+  <si>
+    <t>Energy maintaince</t>
+  </si>
+  <si>
+    <t>DPS 1st weapon</t>
+  </si>
+  <si>
+    <t>DPS 2th weapon</t>
+  </si>
+  <si>
+    <t>DPS 3rd weapon</t>
+  </si>
+  <si>
+    <t>shot/second</t>
+  </si>
+  <si>
+    <t>Area efect</t>
+  </si>
+  <si>
+    <t>Minimal range/lower</t>
+  </si>
+  <si>
+    <t>Other weapon range</t>
+  </si>
+  <si>
+    <t>Maximal range</t>
+  </si>
+  <si>
+    <t>Ability</t>
+  </si>
+  <si>
+    <t>Ability 2</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Vangard</t>
+  </si>
+  <si>
+    <t>hover</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>lab</t>
+  </si>
+  <si>
+    <t>aa/arty</t>
+  </si>
+  <si>
+    <t>tank</t>
+  </si>
+  <si>
+    <t>tank destroyer</t>
+  </si>
+  <si>
+    <t>Enginer</t>
+  </si>
+  <si>
+    <t>Silhouette</t>
+  </si>
+  <si>
+    <t>45 radar 24 vision</t>
+  </si>
+  <si>
+    <t>Bandit</t>
+  </si>
+  <si>
+    <t>Intel</t>
+  </si>
+  <si>
+    <t>T2 enginer</t>
+  </si>
+  <si>
+    <t>Barrager</t>
+  </si>
+  <si>
+    <t>Assasin</t>
+  </si>
+  <si>
+    <t>anchor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,8 +367,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="52"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="7" tint="0.59999389629810485"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,10 +450,64 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="60"/>
+        <bgColor indexed="37"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="34"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="28"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="24"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -313,7 +517,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -349,53 +553,55 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="68">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
+  <dxfs count="54">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -868,24 +1074,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:N65"/>
+  <dimension ref="A3:M92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E37" workbookViewId="0">
-      <selection activeCell="N55" sqref="N55"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="12" t="s">
         <v>20</v>
@@ -899,9 +1106,8 @@
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -923,9 +1129,8 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -947,9 +1152,8 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -971,9 +1175,8 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -995,9 +1198,8 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -1019,9 +1221,8 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="7"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
@@ -1030,7 +1231,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <f t="shared" ref="C10:J10" si="0">C9/$C$34</f>
+        <f t="shared" ref="C10:I10" si="0">C9/$C$34</f>
         <v>25</v>
       </c>
       <c r="D10" s="7">
@@ -1057,12 +1258,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J10" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>5</v>
       </c>
@@ -1071,7 +1268,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="7">
-        <f t="shared" ref="C11:J11" si="1">C7/C10</f>
+        <f t="shared" ref="C11:I11" si="1">C7/C10</f>
         <v>2</v>
       </c>
       <c r="D11" s="7">
@@ -1098,17 +1295,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J11" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="7">
-        <f t="shared" ref="B12:J12" si="3">B8/B10</f>
+        <f t="shared" ref="B12:I12" si="3">B8/B10</f>
         <v>80</v>
       </c>
       <c r="C12" s="7">
@@ -1139,12 +1332,8 @@
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J12" s="7" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -1154,9 +1343,8 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
@@ -1178,9 +1366,8 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
@@ -1202,9 +1389,8 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
@@ -1226,9 +1412,8 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1238,9 +1423,8 @@
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
@@ -1258,9 +1442,8 @@
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
@@ -1278,9 +1461,8 @@
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>12</v>
       </c>
@@ -1292,9 +1474,8 @@
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>34</v>
       </c>
@@ -1308,9 +1489,8 @@
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>35</v>
       </c>
@@ -1328,9 +1508,8 @@
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>13</v>
       </c>
@@ -1344,9 +1523,8 @@
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
@@ -1368,9 +1546,8 @@
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>29</v>
       </c>
@@ -1388,9 +1565,8 @@
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>30</v>
       </c>
@@ -1412,9 +1588,8 @@
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>31</v>
       </c>
@@ -1436,9 +1611,8 @@
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>33</v>
       </c>
@@ -1456,9 +1630,8 @@
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>14</v>
       </c>
@@ -1474,9 +1647,8 @@
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>14</v>
       </c>
@@ -1490,25 +1662,23 @@
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1516,7 +1686,7 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="8" t="s">
         <v>15</v>
@@ -1532,7 +1702,7 @@
       </c>
       <c r="F33" s="8"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="8" t="s">
         <v>19</v>
@@ -1548,12 +1718,12 @@
       </c>
       <c r="F34" s="8"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="12" t="s">
         <v>20</v>
@@ -1567,15 +1737,14 @@
       </c>
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12" t="s">
-        <v>52</v>
-      </c>
+      <c r="J37" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K37" s="12"/>
       <c r="L37" s="12"/>
       <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>26</v>
       </c>
@@ -1592,26 +1761,31 @@
         <v>37</v>
       </c>
       <c r="F38" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G38" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G38" s="9" t="s">
-        <v>48</v>
-      </c>
       <c r="H38" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
+        <v>54</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="K38" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="M38" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>0</v>
       </c>
@@ -1631,23 +1805,28 @@
         <v>41</v>
       </c>
       <c r="G39" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H39" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
+      <c r="I39" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="K39" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>1</v>
       </c>
@@ -1669,15 +1848,22 @@
       <c r="G40" s="5">
         <v>300</v>
       </c>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="7"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H40" s="5">
+        <v>420</v>
+      </c>
+      <c r="I40" s="5">
+        <v>300</v>
+      </c>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5">
+        <v>350</v>
+      </c>
+      <c r="L40" s="5">
+        <v>2100</v>
+      </c>
+      <c r="M40" s="7"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>2</v>
       </c>
@@ -1699,15 +1885,22 @@
       <c r="G41" s="5">
         <v>12000</v>
       </c>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="7"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H41" s="5">
+        <v>8400</v>
+      </c>
+      <c r="I41" s="5">
+        <v>6000</v>
+      </c>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5">
+        <v>40000</v>
+      </c>
+      <c r="L41" s="5">
+        <v>14400</v>
+      </c>
+      <c r="M41" s="7"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1729,15 +1922,22 @@
       <c r="G42" s="5">
         <v>2400</v>
       </c>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="7"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H42" s="5">
+        <v>2400</v>
+      </c>
+      <c r="I42" s="5">
+        <v>2000</v>
+      </c>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5">
+        <v>3000</v>
+      </c>
+      <c r="L42" s="5">
+        <v>9600</v>
+      </c>
+      <c r="M42" s="7"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>4</v>
       </c>
@@ -1758,40 +1958,39 @@
         <v>40</v>
       </c>
       <c r="F43" s="7">
-        <f t="shared" ref="F43:J43" si="8">F42/$C$34</f>
+        <f t="shared" ref="F43" si="8">F42/$C$34</f>
         <v>25</v>
       </c>
       <c r="G43" s="7">
-        <f t="shared" si="8"/>
-        <v>120</v>
+        <f>G42/$D$34</f>
+        <v>60</v>
       </c>
       <c r="H43" s="7">
-        <f t="shared" si="8"/>
+        <f>H42/$D$34</f>
+        <v>60</v>
+      </c>
+      <c r="I43" s="7">
+        <f>I42/$D$34</f>
+        <v>50</v>
+      </c>
+      <c r="J43" s="7">
+        <f>J42/$E$34</f>
         <v>0</v>
       </c>
-      <c r="I43" s="7">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J43" s="7">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="7"/>
+      <c r="K43" s="7">
+        <f t="shared" ref="K43:M43" si="9">K42/$E$34</f>
+        <v>25</v>
+      </c>
       <c r="L43" s="7">
-        <f t="shared" ref="K43:N43" si="9">L42/$C$34</f>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>80</v>
       </c>
       <c r="M43" s="7">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N43" s="7">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>5</v>
       </c>
@@ -1800,7 +1999,7 @@
         <v>5.5172413793103452</v>
       </c>
       <c r="C44" s="7">
-        <f t="shared" ref="C44:J44" si="10">C40/C43</f>
+        <f t="shared" ref="C44:I44" si="10">C40/C43</f>
         <v>2</v>
       </c>
       <c r="D44" s="7">
@@ -1817,40 +2016,39 @@
       </c>
       <c r="G44" s="7">
         <f t="shared" si="10"/>
-        <v>2.5</v>
-      </c>
-      <c r="H44" s="7" t="e">
+        <v>5</v>
+      </c>
+      <c r="H44" s="7">
         <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="I44" s="7">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="J44" s="7" t="e">
+        <f t="shared" ref="J44:M44" si="11">J40/J43</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I44" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J44" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7" t="e">
-        <f t="shared" ref="K44:N44" si="11">L40/L43</f>
-        <v>#DIV/0!</v>
+      <c r="K44" s="7">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="L44" s="7">
+        <f t="shared" si="11"/>
+        <v>26.25</v>
       </c>
       <c r="M44" s="7" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N44" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B45" s="7">
-        <f t="shared" ref="B45:J45" si="12">B41/B43</f>
+        <f t="shared" ref="B45:I45" si="12">B41/B43</f>
         <v>57.931034482758619</v>
       </c>
       <c r="C45" s="7">
@@ -1871,35 +2069,34 @@
       </c>
       <c r="G45" s="7">
         <f t="shared" si="12"/>
-        <v>100</v>
-      </c>
-      <c r="H45" s="7" t="e">
+        <v>200</v>
+      </c>
+      <c r="H45" s="7">
         <f t="shared" si="12"/>
+        <v>140</v>
+      </c>
+      <c r="I45" s="7">
+        <f t="shared" si="12"/>
+        <v>120</v>
+      </c>
+      <c r="J45" s="7" t="e">
+        <f t="shared" ref="J45:M45" si="13">J41/J43</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I45" s="7" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J45" s="7" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7" t="e">
-        <f t="shared" ref="K45:N45" si="13">L41/L43</f>
-        <v>#DIV/0!</v>
+      <c r="K45" s="7">
+        <f t="shared" si="13"/>
+        <v>1600</v>
+      </c>
+      <c r="L45" s="7">
+        <f t="shared" si="13"/>
+        <v>180</v>
       </c>
       <c r="M45" s="7" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N45" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -1913,9 +2110,8 @@
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
       <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>7</v>
       </c>
@@ -1937,17 +2133,22 @@
       <c r="G47" s="7">
         <v>1500</v>
       </c>
-      <c r="H47" s="7"/>
+      <c r="H47" s="7">
+        <v>1000</v>
+      </c>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7">
-        <v>5100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K47" s="7">
+        <v>1700</v>
+      </c>
+      <c r="L47" s="7">
+        <v>3600</v>
+      </c>
+      <c r="M47" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>8</v>
       </c>
@@ -1970,12 +2171,15 @@
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
+      <c r="K48" s="7">
+        <v>1000</v>
+      </c>
+      <c r="L48" s="7">
+        <v>1500</v>
+      </c>
       <c r="M48" s="7"/>
-      <c r="N48" s="7"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>9</v>
       </c>
@@ -1997,15 +2201,18 @@
       <c r="G49" s="7">
         <v>16</v>
       </c>
-      <c r="H49" s="7"/>
+      <c r="H49" s="7">
+        <v>16</v>
+      </c>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
+      <c r="K49" s="7">
+        <v>25</v>
+      </c>
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
-      <c r="N49" s="7"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -2019,9 +2226,8 @@
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
-      <c r="N50" s="7"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>10</v>
       </c>
@@ -2040,12 +2246,15 @@
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7"/>
+      <c r="K51" s="7">
+        <v>360</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="M51" s="7"/>
-      <c r="N51" s="7"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>11</v>
       </c>
@@ -2064,12 +2273,13 @@
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
+      <c r="K52" s="7">
+        <v>0.9</v>
+      </c>
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
-      <c r="N52" s="7"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>12</v>
       </c>
@@ -2084,12 +2294,15 @@
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
+      <c r="K53" s="7">
+        <v>327</v>
+      </c>
       <c r="L53" s="7"/>
-      <c r="M53" s="7"/>
-      <c r="N53" s="7"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M53" s="7">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>34</v>
       </c>
@@ -2107,9 +2320,8 @@
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
       <c r="M54" s="7"/>
-      <c r="N54" s="7"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>35</v>
       </c>
@@ -2128,14 +2340,13 @@
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
+      <c r="K55" s="7">
+        <v>30</v>
+      </c>
       <c r="L55" s="7"/>
       <c r="M55" s="7"/>
-      <c r="N55" s="7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>13</v>
       </c>
@@ -2153,11 +2364,12 @@
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
       <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
+      <c r="L56" s="7">
+        <v>8</v>
+      </c>
       <c r="M56" s="7"/>
-      <c r="N56" s="7"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>28</v>
       </c>
@@ -2177,15 +2389,16 @@
         <v>32</v>
       </c>
       <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
+      <c r="H57" s="7">
+        <v>32</v>
+      </c>
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
       <c r="M57" s="7"/>
-      <c r="N57" s="7"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>29</v>
       </c>
@@ -2196,20 +2409,21 @@
         <v>0</v>
       </c>
       <c r="D58" s="7">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
+      <c r="H58" s="7">
+        <v>65</v>
+      </c>
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
       <c r="M58" s="7"/>
-      <c r="N58" s="7"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>30</v>
       </c>
@@ -2235,9 +2449,8 @@
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
       <c r="M59" s="7"/>
-      <c r="N59" s="7"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>31</v>
       </c>
@@ -2263,9 +2476,8 @@
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
       <c r="M60" s="7"/>
-      <c r="N60" s="7"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>33</v>
       </c>
@@ -2287,9 +2499,8 @@
       <c r="K61" s="7"/>
       <c r="L61" s="7"/>
       <c r="M61" s="7"/>
-      <c r="N61" s="7"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>14</v>
       </c>
@@ -2307,11 +2518,12 @@
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
-      <c r="L62" s="7"/>
+      <c r="L62" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="M62" s="7"/>
-      <c r="N62" s="7"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>14</v>
       </c>
@@ -2329,9 +2541,8 @@
       <c r="K63" s="7"/>
       <c r="L63" s="7"/>
       <c r="M63" s="7"/>
-      <c r="N63" s="7"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>14</v>
       </c>
@@ -2347,291 +2558,840 @@
       <c r="K64" s="7"/>
       <c r="L64" s="7"/>
       <c r="M64" s="7"/>
-      <c r="N64" s="7"/>
-    </row>
-    <row r="65" spans="8:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H65" t="s">
-        <v>51</v>
-      </c>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" s="8"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67" s="8">
+        <v>20</v>
+      </c>
+      <c r="C67" s="8">
+        <v>40</v>
+      </c>
+      <c r="D67" s="8">
+        <v>100</v>
+      </c>
+      <c r="E67" s="8"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B69" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B70" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C70" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D70" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E70" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="F70" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="G70" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="H70" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="I70" s="15"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="15"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B71" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C71" s="27"/>
+      <c r="D71" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="E71" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="F71" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="G71" s="27"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="28"/>
+      <c r="K71" s="28"/>
+      <c r="L71" s="28"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B72" s="18">
+        <v>12</v>
+      </c>
+      <c r="C72" s="18">
+        <v>35</v>
+      </c>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18">
+        <v>54</v>
+      </c>
+      <c r="F72" s="19">
+        <v>66</v>
+      </c>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19">
+        <v>130</v>
+      </c>
+      <c r="I72" s="20"/>
+      <c r="J72" s="20"/>
+      <c r="K72" s="20"/>
+      <c r="L72" s="21"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B73" s="18">
+        <v>40</v>
+      </c>
+      <c r="C73" s="18">
+        <v>140</v>
+      </c>
+      <c r="D73" s="18"/>
+      <c r="E73" s="19">
+        <v>270</v>
+      </c>
+      <c r="F73" s="19">
+        <v>330</v>
+      </c>
+      <c r="G73" s="19"/>
+      <c r="H73" s="19">
+        <v>650</v>
+      </c>
+      <c r="I73" s="20"/>
+      <c r="J73" s="20"/>
+      <c r="K73" s="20"/>
+      <c r="L73" s="22"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B74" s="18">
+        <v>80</v>
+      </c>
+      <c r="C74" s="18">
+        <v>120</v>
+      </c>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18">
+        <v>270</v>
+      </c>
+      <c r="F74" s="19">
+        <v>330</v>
+      </c>
+      <c r="G74" s="19"/>
+      <c r="H74" s="19">
+        <v>650</v>
+      </c>
+      <c r="I74" s="20"/>
+      <c r="J74" s="20"/>
+      <c r="K74" s="20"/>
+      <c r="L74" s="21"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B75" s="18">
+        <f>B74/$B$67</f>
+        <v>4</v>
+      </c>
+      <c r="C75" s="18">
+        <f t="shared" ref="C75:L75" si="14">C74/$B$67</f>
+        <v>6</v>
+      </c>
+      <c r="D75" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E75" s="18">
+        <f t="shared" si="14"/>
+        <v>13.5</v>
+      </c>
+      <c r="F75" s="18">
+        <f t="shared" ref="F75" si="15">F74/$B$67</f>
+        <v>16.5</v>
+      </c>
+      <c r="G75" s="18">
+        <f t="shared" ref="G75" si="16">G74/$B$67</f>
+        <v>0</v>
+      </c>
+      <c r="H75" s="18">
+        <f t="shared" ref="H75" si="17">H74/$B$67</f>
+        <v>32.5</v>
+      </c>
+      <c r="I75" s="18">
+        <f t="shared" ref="I75" si="18">I74/$B$67</f>
+        <v>0</v>
+      </c>
+      <c r="J75" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K75" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L75" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B76" s="18">
+        <f>B72/$B$75</f>
+        <v>3</v>
+      </c>
+      <c r="C76" s="18">
+        <f t="shared" ref="C76:L76" si="19">C72/$B$75</f>
+        <v>8.75</v>
+      </c>
+      <c r="D76" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E76" s="18">
+        <f>E72/$E$75</f>
+        <v>4</v>
+      </c>
+      <c r="F76" s="18">
+        <f t="shared" ref="F76:I76" si="20">F72/$E$75</f>
+        <v>4.8888888888888893</v>
+      </c>
+      <c r="G76" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="H76" s="18">
+        <f t="shared" si="20"/>
+        <v>9.6296296296296298</v>
+      </c>
+      <c r="I76" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J76" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="K76" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L76" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B77" s="18">
+        <f>B73/$B$75</f>
+        <v>10</v>
+      </c>
+      <c r="C77" s="18">
+        <f t="shared" ref="C77:L77" si="21">C73/$B$75</f>
+        <v>35</v>
+      </c>
+      <c r="D77" s="18">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E77" s="18">
+        <f>E73/$E$75</f>
+        <v>20</v>
+      </c>
+      <c r="F77" s="18">
+        <f t="shared" ref="F77:I77" si="22">F73/$E$75</f>
+        <v>24.444444444444443</v>
+      </c>
+      <c r="G77" s="18">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H77" s="18">
+        <f t="shared" si="22"/>
+        <v>48.148148148148145</v>
+      </c>
+      <c r="I77" s="18">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="J77" s="18">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="K77" s="18">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L77" s="18">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="19"/>
+      <c r="H78" s="19"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="20"/>
+      <c r="K78" s="20"/>
+      <c r="L78" s="22"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" s="18">
+        <v>23</v>
+      </c>
+      <c r="C79" s="18">
+        <v>65</v>
+      </c>
+      <c r="D79" s="18">
+        <v>280</v>
+      </c>
+      <c r="E79" s="18">
+        <v>265</v>
+      </c>
+      <c r="F79" s="19">
+        <v>150</v>
+      </c>
+      <c r="G79" s="19"/>
+      <c r="H79" s="19">
+        <v>375</v>
+      </c>
+      <c r="I79" s="20"/>
+      <c r="J79" s="20"/>
+      <c r="K79" s="20"/>
+      <c r="L79" s="21"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" s="18">
+        <v>5</v>
+      </c>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="19">
+        <v>3.6</v>
+      </c>
+      <c r="F80" s="19">
+        <v>2.6</v>
+      </c>
+      <c r="G80" s="19"/>
+      <c r="H80" s="19"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="20"/>
+      <c r="K80" s="20"/>
+      <c r="L80" s="22"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B81" s="18"/>
+      <c r="C81" s="18">
+        <v>20</v>
+      </c>
+      <c r="D81" s="18">
+        <v>35</v>
+      </c>
+      <c r="E81" s="18">
+        <v>25</v>
+      </c>
+      <c r="F81" s="19">
+        <v>33</v>
+      </c>
+      <c r="G81" s="19"/>
+      <c r="H81" s="19"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="20"/>
+      <c r="K81" s="20"/>
+      <c r="L81" s="21"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B82" s="18"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="20"/>
+      <c r="K82" s="20"/>
+      <c r="L82" s="21"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="20"/>
+      <c r="K83" s="20"/>
+      <c r="L83" s="20"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="19">
+        <v>9</v>
+      </c>
+      <c r="G84" s="19"/>
+      <c r="H84" s="19"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="20"/>
+      <c r="K84" s="20"/>
+      <c r="L84" s="22"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B85" s="18"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="G85" s="18"/>
+      <c r="H85" s="18"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="20"/>
+      <c r="K85" s="20"/>
+      <c r="L85" s="20"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B86" s="18"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="18">
+        <v>5</v>
+      </c>
+      <c r="G86" s="18"/>
+      <c r="H86" s="18"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="20"/>
+      <c r="K86" s="20"/>
+      <c r="L86" s="20"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B87" s="18"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="18"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="20"/>
+      <c r="K87" s="20"/>
+      <c r="L87" s="21"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B88" s="18"/>
+      <c r="C88" s="18">
+        <v>14</v>
+      </c>
+      <c r="D88" s="18"/>
+      <c r="E88" s="19">
+        <v>18</v>
+      </c>
+      <c r="F88" s="19">
+        <v>28</v>
+      </c>
+      <c r="G88" s="19"/>
+      <c r="H88" s="19"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="20"/>
+      <c r="K88" s="20"/>
+      <c r="L88" s="22"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B89" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C89" s="18"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="19">
+        <v>20</v>
+      </c>
+      <c r="F89" s="19">
+        <v>20</v>
+      </c>
+      <c r="G89" s="19"/>
+      <c r="H89" s="19"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="20"/>
+      <c r="K89" s="20"/>
+      <c r="L89" s="26"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B90" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C90" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D90" s="16"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G90" s="17"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="17"/>
+      <c r="J90" s="17"/>
+      <c r="K90" s="17"/>
+      <c r="L90" s="17"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B91" s="16"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="17"/>
+      <c r="H91" s="17"/>
+      <c r="I91" s="17"/>
+      <c r="J91" s="17"/>
+      <c r="K91" s="17"/>
+      <c r="L91" s="17"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="17"/>
+      <c r="I92" s="17"/>
+      <c r="J92" s="17"/>
+      <c r="K92" s="17"/>
+      <c r="L92" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="I70:L70"/>
+    <mergeCell ref="B69:G69"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G4:I4"/>
     <mergeCell ref="B37:E37"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:M37"/>
   </mergeCells>
-  <conditionalFormatting sqref="B13:F28 B29:C29 E29:F29 B30:F31">
-    <cfRule type="expression" dxfId="67" priority="67" stopIfTrue="1">
+  <conditionalFormatting sqref="B13:F28 B29:C29 E29:F29 B30:F31 G40:M64">
+    <cfRule type="expression" dxfId="53" priority="71" stopIfTrue="1">
       <formula>B13&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="72" stopIfTrue="1">
       <formula>MOD(B13,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:J10">
-    <cfRule type="expression" dxfId="65" priority="61" stopIfTrue="1">
+  <conditionalFormatting sqref="B10:I10">
+    <cfRule type="expression" dxfId="51" priority="65" stopIfTrue="1">
       <formula>B10&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="66" stopIfTrue="1">
       <formula>MOD(B10,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:F19">
-    <cfRule type="expression" dxfId="63" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="69" stopIfTrue="1">
       <formula>B18&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="70" stopIfTrue="1">
       <formula>MOD(B18,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:F20">
-    <cfRule type="expression" dxfId="61" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="67" stopIfTrue="1">
       <formula>B20&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="68" stopIfTrue="1">
       <formula>MOD(B20,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:F21">
-    <cfRule type="expression" dxfId="59" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="63" stopIfTrue="1">
       <formula>B21&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="64" stopIfTrue="1">
       <formula>MOD(B21,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:F9 B10:J12 B31:C31 E31:F31">
-    <cfRule type="expression" dxfId="57" priority="69" stopIfTrue="1">
+  <conditionalFormatting sqref="B7:F9 B10:I12 B31:C31 E31:F31">
+    <cfRule type="expression" dxfId="43" priority="73" stopIfTrue="1">
       <formula>B7&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="74" stopIfTrue="1">
       <formula>MOD(B7,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:F34">
-    <cfRule type="expression" dxfId="55" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="61" stopIfTrue="1">
       <formula>B33&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="62" stopIfTrue="1">
       <formula>MOD(B33,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:F13">
-    <cfRule type="expression" dxfId="53" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="59" stopIfTrue="1">
       <formula>E13&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="60" stopIfTrue="1">
       <formula>MOD(E13,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:F14">
-    <cfRule type="expression" dxfId="51" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="57" stopIfTrue="1">
       <formula>E14&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="58" stopIfTrue="1">
       <formula>MOD(E14,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23:J31">
-    <cfRule type="expression" dxfId="49" priority="49" stopIfTrue="1">
+  <conditionalFormatting sqref="G23:I31">
+    <cfRule type="expression" dxfId="35" priority="53" stopIfTrue="1">
       <formula>G23&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="54" stopIfTrue="1">
       <formula>MOD(G23,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:F43">
-    <cfRule type="expression" dxfId="47" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="31" stopIfTrue="1">
       <formula>B43&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="32" stopIfTrue="1">
       <formula>MOD(B43,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G18:J19">
-    <cfRule type="expression" dxfId="45" priority="47" stopIfTrue="1">
+  <conditionalFormatting sqref="G18:I19">
+    <cfRule type="expression" dxfId="31" priority="51" stopIfTrue="1">
       <formula>G18&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="52" stopIfTrue="1">
       <formula>MOD(G18,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G20:J20">
-    <cfRule type="expression" dxfId="43" priority="45" stopIfTrue="1">
+  <conditionalFormatting sqref="G20:I20">
+    <cfRule type="expression" dxfId="29" priority="49" stopIfTrue="1">
       <formula>G20&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="50" stopIfTrue="1">
       <formula>MOD(G20,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G21:J21">
-    <cfRule type="expression" dxfId="41" priority="41" stopIfTrue="1">
+  <conditionalFormatting sqref="G21:I21">
+    <cfRule type="expression" dxfId="27" priority="45" stopIfTrue="1">
       <formula>G21&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="46" stopIfTrue="1">
       <formula>MOD(G21,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:J9 G13:J31">
-    <cfRule type="expression" dxfId="39" priority="51" stopIfTrue="1">
+  <conditionalFormatting sqref="G7:I9 G13:I31">
+    <cfRule type="expression" dxfId="25" priority="55" stopIfTrue="1">
       <formula>G7&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="56" stopIfTrue="1">
       <formula>MOD(G7,1)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
-    <cfRule type="expression" dxfId="37" priority="39" stopIfTrue="1">
-      <formula>J13&gt;9999</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="40" stopIfTrue="1">
-      <formula>MOD(J13,1)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14">
-    <cfRule type="expression" dxfId="35" priority="37" stopIfTrue="1">
-      <formula>J14&gt;9999</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="38" stopIfTrue="1">
-      <formula>MOD(J14,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B56:F64">
-    <cfRule type="expression" dxfId="33" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="37" stopIfTrue="1">
       <formula>B56&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="38" stopIfTrue="1">
       <formula>MOD(B56,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51:F52">
-    <cfRule type="expression" dxfId="31" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="35" stopIfTrue="1">
       <formula>B51&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="36" stopIfTrue="1">
       <formula>MOD(B51,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53:F53">
-    <cfRule type="expression" dxfId="29" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="33" stopIfTrue="1">
       <formula>B53&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="34" stopIfTrue="1">
       <formula>MOD(B53,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:F54">
-    <cfRule type="expression" dxfId="27" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="29" stopIfTrue="1">
       <formula>B54&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="30" stopIfTrue="1">
       <formula>MOD(B54,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40:F64">
-    <cfRule type="expression" dxfId="25" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="39" stopIfTrue="1">
       <formula>B40&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="40" stopIfTrue="1">
       <formula>MOD(B40,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46:F46">
-    <cfRule type="expression" dxfId="23" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="27" stopIfTrue="1">
       <formula>E46&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="28" stopIfTrue="1">
       <formula>MOD(E46,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47:F47">
-    <cfRule type="expression" dxfId="21" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="25" stopIfTrue="1">
       <formula>E47&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="26" stopIfTrue="1">
       <formula>MOD(E47,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="19" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="23" stopIfTrue="1">
       <formula>D29&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="24" stopIfTrue="1">
       <formula>MOD(D29,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G43:N43">
-    <cfRule type="expression" dxfId="17" priority="15" stopIfTrue="1">
-      <formula>G43&gt;9999</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="16" stopIfTrue="1">
-      <formula>MOD(G43,1)&gt;0</formula>
+  <conditionalFormatting sqref="M46">
+    <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
+      <formula>M46&gt;9999</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
+      <formula>MOD(M46,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G43:N45">
-    <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
-      <formula>G43&gt;9999</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="18" stopIfTrue="1">
-      <formula>MOD(G43,1)&gt;0</formula>
+  <conditionalFormatting sqref="M47">
+    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
+      <formula>M47&gt;9999</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
+      <formula>MOD(M47,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G56:N64">
-    <cfRule type="expression" dxfId="13" priority="11" stopIfTrue="1">
-      <formula>G56&gt;9999</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="12" stopIfTrue="1">
-      <formula>MOD(G56,1)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G51:N52">
-    <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
-      <formula>G51&gt;9999</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="10" stopIfTrue="1">
-      <formula>MOD(G51,1)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G53:N53">
-    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
-      <formula>G53&gt;9999</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="8" stopIfTrue="1">
-      <formula>MOD(G53,1)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G54:N54">
-    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
-      <formula>G54&gt;9999</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
-      <formula>MOD(G54,1)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G40:N42 G46:N64">
-    <cfRule type="expression" dxfId="5" priority="13" stopIfTrue="1">
-      <formula>G40&gt;9999</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="14" stopIfTrue="1">
-      <formula>MOD(G40,1)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J46 N46">
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
-      <formula>J46&gt;9999</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
-      <formula>MOD(J46,1)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J47 N47">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
-      <formula>J47&gt;9999</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>MOD(J47,1)&gt;0</formula>
+  <conditionalFormatting sqref="A66:E67">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+      <formula>A66&gt;9999</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+      <formula>MOD(A66,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Units.xlsx
+++ b/Units.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="134">
   <si>
     <t>Stats</t>
   </si>
@@ -319,6 +319,108 @@
   </si>
   <si>
     <t>anchor</t>
+  </si>
+  <si>
+    <t>inu201</t>
+  </si>
+  <si>
+    <t>t3 engie</t>
+  </si>
+  <si>
+    <t>inu2002</t>
+  </si>
+  <si>
+    <t>t2 hoover</t>
+  </si>
+  <si>
+    <t>Rouge</t>
+  </si>
+  <si>
+    <t>inu2003</t>
+  </si>
+  <si>
+    <t>mml</t>
+  </si>
+  <si>
+    <t>Avalanche</t>
+  </si>
+  <si>
+    <t>inu2004</t>
+  </si>
+  <si>
+    <t>flak</t>
+  </si>
+  <si>
+    <t>SkyShell</t>
+  </si>
+  <si>
+    <t>inu2005</t>
+  </si>
+  <si>
+    <t>t2 tank</t>
+  </si>
+  <si>
+    <t>Brute</t>
+  </si>
+  <si>
+    <t>inu2007</t>
+  </si>
+  <si>
+    <t>T4 tank</t>
+  </si>
+  <si>
+    <t>Beamer</t>
+  </si>
+  <si>
+    <t>artilery suport</t>
+  </si>
+  <si>
+    <t>transportable</t>
+  </si>
+  <si>
+    <t>inu3001</t>
+  </si>
+  <si>
+    <t>Sacu</t>
+  </si>
+  <si>
+    <t>inu3002</t>
+  </si>
+  <si>
+    <t>T3 hover</t>
+  </si>
+  <si>
+    <t>Nova</t>
+  </si>
+  <si>
+    <t>arti suport</t>
+  </si>
+  <si>
+    <t>inu3003</t>
+  </si>
+  <si>
+    <t>T2 EMP</t>
+  </si>
+  <si>
+    <t>Dominator</t>
+  </si>
+  <si>
+    <t>inu3004</t>
+  </si>
+  <si>
+    <t>T3 arty</t>
+  </si>
+  <si>
+    <t>Mauler</t>
+  </si>
+  <si>
+    <t>inu3009</t>
+  </si>
+  <si>
+    <t>T3 tank</t>
+  </si>
+  <si>
+    <t>Slugger</t>
   </si>
 </sst>
 </file>
@@ -389,7 +491,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -486,6 +588,12 @@
         <bgColor indexed="24"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -517,7 +625,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -550,14 +658,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -585,9 +687,6 @@
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -597,17 +696,22 @@
     <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="54">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
+  <dxfs count="52">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1074,10 +1178,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:M92"/>
+  <dimension ref="A3:S92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="F89" sqref="F89"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A73" sqref="A73"/>
+      <selection pane="topRight" activeCell="Q83" sqref="Q83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1094,18 +1200,18 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -1725,24 +1831,24 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="12" t="s">
+      <c r="G37" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12" t="s">
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -2559,12 +2665,12 @@
       <c r="L64" s="7"/>
       <c r="M64" s="7"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H65" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>15</v>
       </c>
@@ -2579,7 +2685,7 @@
       </c>
       <c r="E66" s="8"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>19</v>
       </c>
@@ -2594,592 +2700,920 @@
       </c>
       <c r="E67" s="8"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="13" t="s">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A69" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B69" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="13" t="s">
+      <c r="B69" s="27"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="27"/>
+      <c r="I69" t="s">
+        <v>100</v>
+      </c>
+      <c r="J69" t="s">
+        <v>102</v>
+      </c>
+      <c r="K69" t="s">
+        <v>105</v>
+      </c>
+      <c r="L69" t="s">
+        <v>108</v>
+      </c>
+      <c r="M69" t="s">
+        <v>111</v>
+      </c>
+      <c r="N69" t="s">
+        <v>114</v>
+      </c>
+      <c r="O69" t="s">
+        <v>119</v>
+      </c>
+      <c r="P69" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>125</v>
+      </c>
+      <c r="R69" t="s">
+        <v>128</v>
+      </c>
+      <c r="S69" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A70" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B70" s="23" t="s">
+      <c r="B70" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C70" s="23" t="s">
+      <c r="C70" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="D70" s="23" t="s">
+      <c r="D70" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="E70" s="24" t="s">
+      <c r="E70" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="F70" s="24" t="s">
+      <c r="F70" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="G70" s="24" t="s">
+      <c r="G70" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="H70" s="24" t="s">
+      <c r="H70" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="I70" s="15"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="15"/>
-      <c r="L70" s="15"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="13" t="s">
+      <c r="I70" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="J70" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="K70" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="L70" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="M70" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="N70" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="O70" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="P70" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q70" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="R70" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="S70" s="22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A71" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B71" s="27" t="s">
+      <c r="B71" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="C71" s="27"/>
-      <c r="D71" s="27" t="s">
+      <c r="C71" s="24"/>
+      <c r="D71" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="E71" s="27" t="s">
+      <c r="E71" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="F71" s="27" t="s">
+      <c r="F71" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="G71" s="27"/>
-      <c r="H71" s="27"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="28"/>
-      <c r="K71" s="28"/>
-      <c r="L71" s="28"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="13" t="s">
+      <c r="G71" s="24"/>
+      <c r="H71" s="24"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="K71" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="L71" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="M71" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="N71" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="P71" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q71" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="R71" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="S71" s="29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A72" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B72" s="18">
+      <c r="B72" s="16">
         <v>12</v>
       </c>
-      <c r="C72" s="18">
+      <c r="C72" s="16">
         <v>35</v>
       </c>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18">
+      <c r="D72" s="16"/>
+      <c r="E72" s="16">
         <v>54</v>
       </c>
-      <c r="F72" s="19">
+      <c r="F72" s="17">
         <v>66</v>
       </c>
-      <c r="G72" s="19"/>
-      <c r="H72" s="19">
+      <c r="G72" s="17"/>
+      <c r="H72" s="17">
         <v>130</v>
       </c>
-      <c r="I72" s="20"/>
-      <c r="J72" s="20"/>
-      <c r="K72" s="20"/>
-      <c r="L72" s="21"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="13" t="s">
+      <c r="I72" s="18"/>
+      <c r="J72" s="18">
+        <v>100</v>
+      </c>
+      <c r="K72" s="18">
+        <v>220</v>
+      </c>
+      <c r="L72" s="19"/>
+      <c r="M72" s="23">
+        <v>197</v>
+      </c>
+      <c r="N72" s="23">
+        <v>12500</v>
+      </c>
+      <c r="O72" s="30"/>
+      <c r="P72" s="23">
+        <v>640</v>
+      </c>
+      <c r="Q72" s="23">
+        <v>360</v>
+      </c>
+      <c r="R72" s="23">
+        <v>960</v>
+      </c>
+      <c r="S72" s="23">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A73" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B73" s="18">
+      <c r="B73" s="16">
         <v>40</v>
       </c>
-      <c r="C73" s="18">
+      <c r="C73" s="16">
         <v>140</v>
       </c>
-      <c r="D73" s="18"/>
-      <c r="E73" s="19">
+      <c r="D73" s="16"/>
+      <c r="E73" s="17">
         <v>270</v>
       </c>
-      <c r="F73" s="19">
+      <c r="F73" s="17">
         <v>330</v>
       </c>
-      <c r="G73" s="19"/>
-      <c r="H73" s="19">
+      <c r="G73" s="17"/>
+      <c r="H73" s="17">
         <v>650</v>
       </c>
-      <c r="I73" s="20"/>
-      <c r="J73" s="20"/>
-      <c r="K73" s="20"/>
-      <c r="L73" s="22"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="13" t="s">
+      <c r="I73" s="18"/>
+      <c r="J73" s="18">
+        <v>750</v>
+      </c>
+      <c r="K73" s="18">
+        <v>1650</v>
+      </c>
+      <c r="L73" s="20"/>
+      <c r="M73" s="23">
+        <v>990</v>
+      </c>
+      <c r="N73" s="23">
+        <v>240000</v>
+      </c>
+      <c r="O73" s="30"/>
+      <c r="P73" s="23">
+        <v>8000</v>
+      </c>
+      <c r="Q73" s="23">
+        <v>1800</v>
+      </c>
+      <c r="R73" s="23">
+        <v>9600</v>
+      </c>
+      <c r="S73" s="23">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A74" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B74" s="18">
+      <c r="B74" s="16">
         <v>80</v>
       </c>
-      <c r="C74" s="18">
+      <c r="C74" s="16">
         <v>120</v>
       </c>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18">
+      <c r="D74" s="16"/>
+      <c r="E74" s="16">
         <v>270</v>
       </c>
-      <c r="F74" s="19">
+      <c r="F74" s="17">
         <v>330</v>
       </c>
-      <c r="G74" s="19"/>
-      <c r="H74" s="19">
+      <c r="G74" s="17"/>
+      <c r="H74" s="17">
         <v>650</v>
       </c>
-      <c r="I74" s="20"/>
-      <c r="J74" s="20"/>
-      <c r="K74" s="20"/>
-      <c r="L74" s="21"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="14" t="s">
+      <c r="I74" s="18"/>
+      <c r="J74" s="18">
+        <v>500</v>
+      </c>
+      <c r="K74" s="18">
+        <v>1100</v>
+      </c>
+      <c r="L74" s="19"/>
+      <c r="M74" s="23">
+        <v>880</v>
+      </c>
+      <c r="N74" s="23">
+        <v>12000</v>
+      </c>
+      <c r="O74" s="30"/>
+      <c r="P74" s="23">
+        <v>640</v>
+      </c>
+      <c r="Q74" s="23">
+        <v>1600</v>
+      </c>
+      <c r="R74" s="23">
+        <v>5000</v>
+      </c>
+      <c r="S74" s="23">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A75" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B75" s="18">
+      <c r="B75" s="16">
         <f>B74/$B$67</f>
         <v>4</v>
       </c>
-      <c r="C75" s="18">
+      <c r="C75" s="16">
         <f t="shared" ref="C75:L75" si="14">C74/$B$67</f>
         <v>6</v>
       </c>
-      <c r="D75" s="18">
+      <c r="D75" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E75" s="18">
+      <c r="E75" s="16">
         <f t="shared" si="14"/>
         <v>13.5</v>
       </c>
-      <c r="F75" s="18">
+      <c r="F75" s="16">
         <f t="shared" ref="F75" si="15">F74/$B$67</f>
         <v>16.5</v>
       </c>
-      <c r="G75" s="18">
+      <c r="G75" s="16">
         <f t="shared" ref="G75" si="16">G74/$B$67</f>
         <v>0</v>
       </c>
-      <c r="H75" s="18">
-        <f t="shared" ref="H75" si="17">H74/$B$67</f>
+      <c r="H75" s="16">
+        <f>H74/$B$67</f>
         <v>32.5</v>
       </c>
-      <c r="I75" s="18">
-        <f t="shared" ref="I75" si="18">I74/$B$67</f>
+      <c r="I75" s="16">
+        <f t="shared" ref="I75" si="17">I74/$B$67</f>
         <v>0</v>
       </c>
-      <c r="J75" s="18">
+      <c r="J75" s="16">
+        <f>J74/$C$67</f>
+        <v>12.5</v>
+      </c>
+      <c r="K75" s="16">
+        <f t="shared" si="14"/>
+        <v>55</v>
+      </c>
+      <c r="L75" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K75" s="18">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="L75" s="18">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="14" t="s">
+      <c r="M75" s="30"/>
+      <c r="N75" s="30"/>
+      <c r="O75" s="30"/>
+      <c r="P75" s="30"/>
+      <c r="Q75" s="30"/>
+      <c r="R75" s="30"/>
+      <c r="S75" s="30"/>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A76" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B76" s="18">
+      <c r="B76" s="16">
         <f>B72/$B$75</f>
         <v>3</v>
       </c>
-      <c r="C76" s="18">
-        <f t="shared" ref="C76:L76" si="19">C72/$B$75</f>
+      <c r="C76" s="16">
+        <f t="shared" ref="C76:L76" si="18">C72/$B$75</f>
         <v>8.75</v>
       </c>
-      <c r="D76" s="18">
+      <c r="D76" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E76" s="16">
+        <f>E72/$E$75</f>
+        <v>4</v>
+      </c>
+      <c r="F76" s="16">
+        <f t="shared" ref="F76:I76" si="19">F72/$E$75</f>
+        <v>4.8888888888888893</v>
+      </c>
+      <c r="G76" s="16">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="E76" s="18">
-        <f>E72/$E$75</f>
-        <v>4</v>
-      </c>
-      <c r="F76" s="18">
-        <f t="shared" ref="F76:I76" si="20">F72/$E$75</f>
-        <v>4.8888888888888893</v>
-      </c>
-      <c r="G76" s="18">
+      <c r="H76" s="16">
+        <f t="shared" si="19"/>
+        <v>9.6296296296296298</v>
+      </c>
+      <c r="I76" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J76" s="16">
+        <f>J72/$J$75</f>
+        <v>8</v>
+      </c>
+      <c r="K76" s="16">
+        <f t="shared" si="18"/>
+        <v>55</v>
+      </c>
+      <c r="L76" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M76" s="30"/>
+      <c r="N76" s="30"/>
+      <c r="O76" s="30"/>
+      <c r="P76" s="30"/>
+      <c r="Q76" s="30"/>
+      <c r="R76" s="30"/>
+      <c r="S76" s="30"/>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A77" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B77" s="16">
+        <f>B73/$B$75</f>
+        <v>10</v>
+      </c>
+      <c r="C77" s="16">
+        <f t="shared" ref="C77:L77" si="20">C73/$B$75</f>
+        <v>35</v>
+      </c>
+      <c r="D77" s="16">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="H76" s="18">
+      <c r="E77" s="16">
+        <f>E73/$E$75</f>
+        <v>20</v>
+      </c>
+      <c r="F77" s="16">
+        <f t="shared" ref="F77:I77" si="21">F73/$E$75</f>
+        <v>24.444444444444443</v>
+      </c>
+      <c r="G77" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="H77" s="16">
+        <f t="shared" si="21"/>
+        <v>48.148148148148145</v>
+      </c>
+      <c r="I77" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="J77" s="16">
+        <f>J73/$J$75</f>
+        <v>60</v>
+      </c>
+      <c r="K77" s="16">
         <f t="shared" si="20"/>
-        <v>9.6296296296296298</v>
-      </c>
-      <c r="I76" s="18">
+        <v>412.5</v>
+      </c>
+      <c r="L77" s="16">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="J76" s="18">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="K76" s="18">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="L76" s="18">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B77" s="18">
-        <f>B73/$B$75</f>
-        <v>10</v>
-      </c>
-      <c r="C77" s="18">
-        <f t="shared" ref="C77:L77" si="21">C73/$B$75</f>
+      <c r="M77" s="30"/>
+      <c r="N77" s="30"/>
+      <c r="O77" s="30"/>
+      <c r="P77" s="30"/>
+      <c r="Q77" s="30"/>
+      <c r="R77" s="30"/>
+      <c r="S77" s="30"/>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A78" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="18"/>
+      <c r="J78" s="18"/>
+      <c r="K78" s="18"/>
+      <c r="L78" s="20"/>
+      <c r="M78" s="30"/>
+      <c r="N78" s="30"/>
+      <c r="O78" s="30"/>
+      <c r="P78" s="30"/>
+      <c r="Q78" s="30"/>
+      <c r="R78" s="30"/>
+      <c r="S78" s="30"/>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A79" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" s="16">
+        <v>23</v>
+      </c>
+      <c r="C79" s="16">
+        <v>65</v>
+      </c>
+      <c r="D79" s="16">
+        <v>280</v>
+      </c>
+      <c r="E79" s="16">
+        <v>265</v>
+      </c>
+      <c r="F79" s="17">
+        <v>150</v>
+      </c>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17">
+        <v>375</v>
+      </c>
+      <c r="I79" s="18">
+        <v>640</v>
+      </c>
+      <c r="J79" s="18">
+        <v>450</v>
+      </c>
+      <c r="K79" s="18">
+        <v>600</v>
+      </c>
+      <c r="L79" s="19">
+        <v>900</v>
+      </c>
+      <c r="M79" s="23">
+        <v>1200</v>
+      </c>
+      <c r="N79" s="23">
+        <v>30000</v>
+      </c>
+      <c r="O79" s="30"/>
+      <c r="P79" s="23">
+        <v>3500</v>
+      </c>
+      <c r="Q79" s="23">
+        <v>2750</v>
+      </c>
+      <c r="R79" s="23">
+        <v>1600</v>
+      </c>
+      <c r="S79" s="23">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A80" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" s="16">
+        <v>5</v>
+      </c>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="17">
+        <v>3.6</v>
+      </c>
+      <c r="F80" s="17">
+        <v>2.6</v>
+      </c>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="18"/>
+      <c r="J80" s="18">
+        <v>4.5</v>
+      </c>
+      <c r="K80" s="18">
+        <v>2.6</v>
+      </c>
+      <c r="L80" s="20"/>
+      <c r="M80" s="30">
+        <v>3.1</v>
+      </c>
+      <c r="N80" s="23">
+        <v>2.7</v>
+      </c>
+      <c r="O80" s="30"/>
+      <c r="P80" s="23">
+        <v>3.75</v>
+      </c>
+      <c r="Q80" s="30"/>
+      <c r="R80" s="23">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="S80" s="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A81" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16">
+        <v>20</v>
+      </c>
+      <c r="D81" s="16">
         <v>35</v>
       </c>
-      <c r="D77" s="18">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E77" s="18">
-        <f>E73/$E$75</f>
+      <c r="E81" s="16">
+        <v>25</v>
+      </c>
+      <c r="F81" s="17">
+        <v>33</v>
+      </c>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="18"/>
+      <c r="J81" s="18">
+        <v>40</v>
+      </c>
+      <c r="K81" s="18"/>
+      <c r="L81" s="19"/>
+      <c r="M81" s="30">
+        <v>75</v>
+      </c>
+      <c r="N81" s="30">
+        <v>1380</v>
+      </c>
+      <c r="O81" s="30"/>
+      <c r="P81" s="30"/>
+      <c r="Q81" s="30"/>
+      <c r="R81" s="30">
+        <v>600</v>
+      </c>
+      <c r="S81" s="30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A82" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="16"/>
+      <c r="I82" s="18"/>
+      <c r="J82" s="18"/>
+      <c r="K82" s="18"/>
+      <c r="L82" s="19"/>
+      <c r="M82" s="30"/>
+      <c r="N82" s="30"/>
+      <c r="O82" s="30"/>
+      <c r="P82" s="30"/>
+      <c r="Q82" s="30"/>
+      <c r="R82" s="30"/>
+      <c r="S82" s="30"/>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A83" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="16"/>
+      <c r="I83" s="18"/>
+      <c r="J83" s="18"/>
+      <c r="K83" s="18"/>
+      <c r="L83" s="18"/>
+      <c r="M83" s="30"/>
+      <c r="N83" s="30"/>
+      <c r="O83" s="30"/>
+      <c r="P83" s="30"/>
+      <c r="Q83" s="30"/>
+      <c r="R83" s="30"/>
+      <c r="S83" s="30"/>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A84" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17">
+        <v>9</v>
+      </c>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="18"/>
+      <c r="J84" s="18"/>
+      <c r="K84" s="18"/>
+      <c r="L84" s="20"/>
+      <c r="M84" s="30"/>
+      <c r="N84" s="30"/>
+      <c r="O84" s="30"/>
+      <c r="P84" s="30"/>
+      <c r="Q84" s="30"/>
+      <c r="R84" s="30"/>
+      <c r="S84" s="30"/>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A85" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B85" s="16"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="G85" s="16"/>
+      <c r="H85" s="16"/>
+      <c r="I85" s="18"/>
+      <c r="J85" s="18"/>
+      <c r="K85" s="18"/>
+      <c r="L85" s="18"/>
+      <c r="M85" s="30"/>
+      <c r="N85" s="30"/>
+      <c r="O85" s="30"/>
+      <c r="P85" s="30"/>
+      <c r="Q85" s="30"/>
+      <c r="R85" s="30">
+        <v>5</v>
+      </c>
+      <c r="S85" s="30"/>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A86" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B86" s="16"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="16"/>
+      <c r="F86" s="16">
+        <v>5</v>
+      </c>
+      <c r="G86" s="16"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="18"/>
+      <c r="J86" s="18"/>
+      <c r="K86" s="18"/>
+      <c r="L86" s="18"/>
+      <c r="M86" s="30"/>
+      <c r="N86" s="30"/>
+      <c r="O86" s="30"/>
+      <c r="P86" s="30"/>
+      <c r="Q86" s="30"/>
+      <c r="R86" s="30"/>
+      <c r="S86" s="30"/>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A87" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B87" s="16"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="16"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="16"/>
+      <c r="H87" s="16"/>
+      <c r="I87" s="18"/>
+      <c r="J87" s="18"/>
+      <c r="K87" s="18"/>
+      <c r="L87" s="19"/>
+      <c r="M87" s="30"/>
+      <c r="N87" s="30"/>
+      <c r="O87" s="30"/>
+      <c r="P87" s="30"/>
+      <c r="Q87" s="30"/>
+      <c r="R87" s="30"/>
+      <c r="S87" s="30"/>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A88" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B88" s="16"/>
+      <c r="C88" s="16">
+        <v>14</v>
+      </c>
+      <c r="D88" s="16"/>
+      <c r="E88" s="17">
+        <v>18</v>
+      </c>
+      <c r="F88" s="17">
+        <v>28</v>
+      </c>
+      <c r="G88" s="17"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="18"/>
+      <c r="J88" s="18">
+        <v>23</v>
+      </c>
+      <c r="K88" s="18"/>
+      <c r="L88" s="20"/>
+      <c r="M88" s="30">
         <v>20</v>
       </c>
-      <c r="F77" s="18">
-        <f t="shared" ref="F77:I77" si="22">F73/$E$75</f>
-        <v>24.444444444444443</v>
-      </c>
-      <c r="G77" s="18">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H77" s="18">
-        <f t="shared" si="22"/>
-        <v>48.148148148148145</v>
-      </c>
-      <c r="I77" s="18">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="J77" s="18">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="K77" s="18">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="L77" s="18">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B78" s="18"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="19"/>
-      <c r="F78" s="19"/>
-      <c r="G78" s="19"/>
-      <c r="H78" s="19"/>
-      <c r="I78" s="20"/>
-      <c r="J78" s="20"/>
-      <c r="K78" s="20"/>
-      <c r="L78" s="22"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B79" s="18">
-        <v>23</v>
-      </c>
-      <c r="C79" s="18">
-        <v>65</v>
-      </c>
-      <c r="D79" s="18">
-        <v>280</v>
-      </c>
-      <c r="E79" s="18">
-        <v>265</v>
-      </c>
-      <c r="F79" s="19">
-        <v>150</v>
-      </c>
-      <c r="G79" s="19"/>
-      <c r="H79" s="19">
-        <v>375</v>
-      </c>
-      <c r="I79" s="20"/>
-      <c r="J79" s="20"/>
-      <c r="K79" s="20"/>
-      <c r="L79" s="21"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B80" s="18">
-        <v>5</v>
-      </c>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="19">
-        <v>3.6</v>
-      </c>
-      <c r="F80" s="19">
-        <v>2.6</v>
-      </c>
-      <c r="G80" s="19"/>
-      <c r="H80" s="19"/>
-      <c r="I80" s="20"/>
-      <c r="J80" s="20"/>
-      <c r="K80" s="20"/>
-      <c r="L80" s="22"/>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B81" s="18"/>
-      <c r="C81" s="18">
+      <c r="N88" s="23">
+        <v>35</v>
+      </c>
+      <c r="O88" s="30"/>
+      <c r="P88" s="30"/>
+      <c r="Q88" s="30">
+        <v>35</v>
+      </c>
+      <c r="R88" s="30"/>
+      <c r="S88" s="30">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A89" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="17">
         <v>20</v>
       </c>
-      <c r="D81" s="18">
-        <v>35</v>
-      </c>
-      <c r="E81" s="18">
-        <v>25</v>
-      </c>
-      <c r="F81" s="19">
-        <v>33</v>
-      </c>
-      <c r="G81" s="19"/>
-      <c r="H81" s="19"/>
-      <c r="I81" s="20"/>
-      <c r="J81" s="20"/>
-      <c r="K81" s="20"/>
-      <c r="L81" s="21"/>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B82" s="18"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="18"/>
-      <c r="H82" s="18"/>
-      <c r="I82" s="20"/>
-      <c r="J82" s="20"/>
-      <c r="K82" s="20"/>
-      <c r="L82" s="21"/>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B83" s="18"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="18"/>
-      <c r="H83" s="18"/>
-      <c r="I83" s="20"/>
-      <c r="J83" s="20"/>
-      <c r="K83" s="20"/>
-      <c r="L83" s="20"/>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B84" s="18"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="19"/>
-      <c r="F84" s="19">
-        <v>9</v>
-      </c>
-      <c r="G84" s="19"/>
-      <c r="H84" s="19"/>
-      <c r="I84" s="20"/>
-      <c r="J84" s="20"/>
-      <c r="K84" s="20"/>
-      <c r="L84" s="22"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B85" s="18"/>
-      <c r="C85" s="18"/>
-      <c r="D85" s="18"/>
-      <c r="E85" s="18"/>
-      <c r="F85" s="18">
-        <v>1.5</v>
-      </c>
-      <c r="G85" s="18"/>
-      <c r="H85" s="18"/>
-      <c r="I85" s="20"/>
-      <c r="J85" s="20"/>
-      <c r="K85" s="20"/>
-      <c r="L85" s="20"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B86" s="18"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="18"/>
-      <c r="E86" s="18"/>
-      <c r="F86" s="18">
-        <v>5</v>
-      </c>
-      <c r="G86" s="18"/>
-      <c r="H86" s="18"/>
-      <c r="I86" s="20"/>
-      <c r="J86" s="20"/>
-      <c r="K86" s="20"/>
-      <c r="L86" s="20"/>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B87" s="18"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="18"/>
-      <c r="F87" s="18"/>
-      <c r="G87" s="18"/>
-      <c r="H87" s="18"/>
-      <c r="I87" s="20"/>
-      <c r="J87" s="20"/>
-      <c r="K87" s="20"/>
-      <c r="L87" s="21"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B88" s="18"/>
-      <c r="C88" s="18">
-        <v>14</v>
-      </c>
-      <c r="D88" s="18"/>
-      <c r="E88" s="19">
+      <c r="F89" s="17">
+        <v>20</v>
+      </c>
+      <c r="G89" s="17"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="18"/>
+      <c r="J89" s="18">
+        <v>15</v>
+      </c>
+      <c r="K89" s="18">
         <v>18</v>
       </c>
-      <c r="F88" s="19">
-        <v>28</v>
-      </c>
-      <c r="G88" s="19"/>
-      <c r="H88" s="19"/>
-      <c r="I88" s="20"/>
-      <c r="J88" s="20"/>
-      <c r="K88" s="20"/>
-      <c r="L88" s="22"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B89" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C89" s="18"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="19">
-        <v>20</v>
-      </c>
-      <c r="F89" s="19">
-        <v>20</v>
-      </c>
-      <c r="G89" s="19"/>
-      <c r="H89" s="19"/>
-      <c r="I89" s="20"/>
-      <c r="J89" s="20"/>
-      <c r="K89" s="20"/>
-      <c r="L89" s="26"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="13" t="s">
+      <c r="L89" s="23"/>
+      <c r="M89" s="30"/>
+      <c r="N89" s="30"/>
+      <c r="O89" s="30"/>
+      <c r="P89" s="30"/>
+      <c r="Q89" s="30"/>
+      <c r="R89" s="30"/>
+      <c r="S89" s="30"/>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A90" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B90" s="16" t="s">
+      <c r="B90" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C90" s="17" t="s">
+      <c r="C90" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D90" s="16"/>
-      <c r="E90" s="17"/>
-      <c r="F90" s="17" t="s">
+      <c r="D90" s="14"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="G90" s="17"/>
-      <c r="H90" s="17"/>
-      <c r="I90" s="17"/>
-      <c r="J90" s="17"/>
-      <c r="K90" s="17"/>
-      <c r="L90" s="17"/>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="13" t="s">
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="15"/>
+      <c r="K90" s="15"/>
+      <c r="L90" s="15"/>
+      <c r="M90" t="s">
+        <v>117</v>
+      </c>
+      <c r="N90" t="s">
+        <v>118</v>
+      </c>
+      <c r="P90" t="s">
+        <v>124</v>
+      </c>
+      <c r="R90" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A91" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B91" s="16"/>
-      <c r="C91" s="17"/>
-      <c r="D91" s="16"/>
-      <c r="E91" s="17"/>
-      <c r="F91" s="17"/>
-      <c r="G91" s="17"/>
-      <c r="H91" s="17"/>
-      <c r="I91" s="17"/>
-      <c r="J91" s="17"/>
-      <c r="K91" s="17"/>
-      <c r="L91" s="17"/>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="13" t="s">
+      <c r="B91" s="14"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="15"/>
+      <c r="K91" s="15"/>
+      <c r="L91" s="15"/>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A92" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B92" s="16"/>
-      <c r="C92" s="16"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="17"/>
-      <c r="G92" s="17"/>
-      <c r="H92" s="17"/>
-      <c r="I92" s="17"/>
-      <c r="J92" s="17"/>
-      <c r="K92" s="17"/>
-      <c r="L92" s="17"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="15"/>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="15"/>
+      <c r="K92" s="15"/>
+      <c r="L92" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="I70:L70"/>
-    <mergeCell ref="B69:G69"/>
+  <mergeCells count="5">
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="B37:E37"/>
@@ -3187,210 +3621,210 @@
     <mergeCell ref="J37:M37"/>
   </mergeCells>
   <conditionalFormatting sqref="B13:F28 B29:C29 E29:F29 B30:F31 G40:M64">
-    <cfRule type="expression" dxfId="53" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="71" stopIfTrue="1">
       <formula>B13&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="72" stopIfTrue="1">
       <formula>MOD(B13,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:I10">
-    <cfRule type="expression" dxfId="51" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="65" stopIfTrue="1">
       <formula>B10&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="66" stopIfTrue="1">
       <formula>MOD(B10,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:F19">
-    <cfRule type="expression" dxfId="49" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="69" stopIfTrue="1">
       <formula>B18&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="70" stopIfTrue="1">
       <formula>MOD(B18,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:F20">
-    <cfRule type="expression" dxfId="47" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="67" stopIfTrue="1">
       <formula>B20&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="68" stopIfTrue="1">
       <formula>MOD(B20,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:F21">
-    <cfRule type="expression" dxfId="45" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="63" stopIfTrue="1">
       <formula>B21&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="64" stopIfTrue="1">
       <formula>MOD(B21,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:F9 B10:I12 B31:C31 E31:F31">
-    <cfRule type="expression" dxfId="43" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="73" stopIfTrue="1">
       <formula>B7&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="74" stopIfTrue="1">
       <formula>MOD(B7,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:F34">
-    <cfRule type="expression" dxfId="41" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="61" stopIfTrue="1">
       <formula>B33&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="62" stopIfTrue="1">
       <formula>MOD(B33,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:F13">
-    <cfRule type="expression" dxfId="39" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="59" stopIfTrue="1">
       <formula>E13&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="60" stopIfTrue="1">
       <formula>MOD(E13,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:F14">
-    <cfRule type="expression" dxfId="37" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="57" stopIfTrue="1">
       <formula>E14&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="58" stopIfTrue="1">
       <formula>MOD(E14,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:I31">
-    <cfRule type="expression" dxfId="35" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="53" stopIfTrue="1">
       <formula>G23&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="54" stopIfTrue="1">
       <formula>MOD(G23,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:F43">
-    <cfRule type="expression" dxfId="33" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="31" stopIfTrue="1">
       <formula>B43&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="32" stopIfTrue="1">
       <formula>MOD(B43,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:I19">
-    <cfRule type="expression" dxfId="31" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="51" stopIfTrue="1">
       <formula>G18&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="52" stopIfTrue="1">
       <formula>MOD(G18,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:I20">
-    <cfRule type="expression" dxfId="29" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="49" stopIfTrue="1">
       <formula>G20&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="50" stopIfTrue="1">
       <formula>MOD(G20,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21:I21">
-    <cfRule type="expression" dxfId="27" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="45" stopIfTrue="1">
       <formula>G21&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="46" stopIfTrue="1">
       <formula>MOD(G21,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:I9 G13:I31">
-    <cfRule type="expression" dxfId="25" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="55" stopIfTrue="1">
       <formula>G7&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="56" stopIfTrue="1">
       <formula>MOD(G7,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B56:F64">
-    <cfRule type="expression" dxfId="23" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="37" stopIfTrue="1">
       <formula>B56&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="38" stopIfTrue="1">
       <formula>MOD(B56,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51:F52">
-    <cfRule type="expression" dxfId="21" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="35" stopIfTrue="1">
       <formula>B51&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="36" stopIfTrue="1">
       <formula>MOD(B51,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53:F53">
-    <cfRule type="expression" dxfId="19" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="33" stopIfTrue="1">
       <formula>B53&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="34" stopIfTrue="1">
       <formula>MOD(B53,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:F54">
-    <cfRule type="expression" dxfId="17" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="29" stopIfTrue="1">
       <formula>B54&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="30" stopIfTrue="1">
       <formula>MOD(B54,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40:F64">
-    <cfRule type="expression" dxfId="15" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="39" stopIfTrue="1">
       <formula>B40&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="40" stopIfTrue="1">
       <formula>MOD(B40,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46:F46">
-    <cfRule type="expression" dxfId="13" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="27" stopIfTrue="1">
       <formula>E46&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="28" stopIfTrue="1">
       <formula>MOD(E46,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47:F47">
-    <cfRule type="expression" dxfId="11" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="25" stopIfTrue="1">
       <formula>E47&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="26" stopIfTrue="1">
       <formula>MOD(E47,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="9" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="23" stopIfTrue="1">
       <formula>D29&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="24" stopIfTrue="1">
       <formula>MOD(D29,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M46">
-    <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="7" stopIfTrue="1">
       <formula>M46&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="8" stopIfTrue="1">
       <formula>MOD(M46,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M47">
-    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
       <formula>M47&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
       <formula>MOD(M47,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66:E67">
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
       <formula>A66&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>MOD(A66,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Units.xlsx
+++ b/Units.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="214">
   <si>
     <t>Stats</t>
   </si>
@@ -421,6 +421,246 @@
   </si>
   <si>
     <t>Slugger</t>
+  </si>
+  <si>
+    <t>inb0201</t>
+  </si>
+  <si>
+    <t>air staging facility</t>
+  </si>
+  <si>
+    <t>inb5202</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>energy cost</t>
+  </si>
+  <si>
+    <t>build time</t>
+  </si>
+  <si>
+    <t>mass cost</t>
+  </si>
+  <si>
+    <t>inb0202</t>
+  </si>
+  <si>
+    <t>t2 air factory hq</t>
+  </si>
+  <si>
+    <t>t2 land factory hq</t>
+  </si>
+  <si>
+    <t>inb0203</t>
+  </si>
+  <si>
+    <t>T2 naval hq</t>
+  </si>
+  <si>
+    <t>build rate</t>
+  </si>
+  <si>
+    <t>inb0301</t>
+  </si>
+  <si>
+    <t>t3 land hq</t>
+  </si>
+  <si>
+    <t>inb0302</t>
+  </si>
+  <si>
+    <t>T3 air HQ</t>
+  </si>
+  <si>
+    <t>inb0303</t>
+  </si>
+  <si>
+    <t>T3 naval HQ</t>
+  </si>
+  <si>
+    <t>inb0304</t>
+  </si>
+  <si>
+    <t>SACU factory</t>
+  </si>
+  <si>
+    <t>inb1103</t>
+  </si>
+  <si>
+    <t>t2 mass fab</t>
+  </si>
+  <si>
+    <t>energy drain</t>
+  </si>
+  <si>
+    <t>mass production</t>
+  </si>
+  <si>
+    <t>inb1105</t>
+  </si>
+  <si>
+    <t>energy storage</t>
+  </si>
+  <si>
+    <t>inb1202</t>
+  </si>
+  <si>
+    <t>t2 pgen</t>
+  </si>
+  <si>
+    <t>inb1201</t>
+  </si>
+  <si>
+    <t>t2 mex</t>
+  </si>
+  <si>
+    <t>inb1301</t>
+  </si>
+  <si>
+    <t>T3 pgen</t>
+  </si>
+  <si>
+    <t>inb1302</t>
+  </si>
+  <si>
+    <t>T3 mex</t>
+  </si>
+  <si>
+    <t>inb1303</t>
+  </si>
+  <si>
+    <t>t3 fab</t>
+  </si>
+  <si>
+    <t>inb2102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1 AA </t>
+  </si>
+  <si>
+    <t>damage</t>
+  </si>
+  <si>
+    <t>rof</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>inb2201</t>
+  </si>
+  <si>
+    <t>T2 pd</t>
+  </si>
+  <si>
+    <t>aoe</t>
+  </si>
+  <si>
+    <t>inb2202</t>
+  </si>
+  <si>
+    <t>T2 AA</t>
+  </si>
+  <si>
+    <t>inb2207</t>
+  </si>
+  <si>
+    <t>T2 railgun (torp def)</t>
+  </si>
+  <si>
+    <t>inb2302</t>
+  </si>
+  <si>
+    <t>projectiles</t>
+  </si>
+  <si>
+    <t>inb2303</t>
+  </si>
+  <si>
+    <t>T2 arty</t>
+  </si>
+  <si>
+    <t>inb2305</t>
+  </si>
+  <si>
+    <t>Nuke launcher</t>
+  </si>
+  <si>
+    <t>inb3201</t>
+  </si>
+  <si>
+    <t>T2 radar</t>
+  </si>
+  <si>
+    <t>have EMP and death weapon (wow)</t>
+  </si>
+  <si>
+    <t>inb3202</t>
+  </si>
+  <si>
+    <t>T2 sonar</t>
+  </si>
+  <si>
+    <t>inb3301</t>
+  </si>
+  <si>
+    <t>T3 radar</t>
+  </si>
+  <si>
+    <t>inb3302</t>
+  </si>
+  <si>
+    <t>T3 sonar</t>
+  </si>
+  <si>
+    <t>inb3303</t>
+  </si>
+  <si>
+    <t>T3 rocket arty</t>
+  </si>
+  <si>
+    <t>inb4201</t>
+  </si>
+  <si>
+    <t>T3 AA</t>
+  </si>
+  <si>
+    <t>inb4202</t>
+  </si>
+  <si>
+    <t>T2 shield</t>
+  </si>
+  <si>
+    <t>250+8000</t>
+  </si>
+  <si>
+    <t>inb4205</t>
+  </si>
+  <si>
+    <t>T2 stealth shield</t>
+  </si>
+  <si>
+    <t>inb4301</t>
+  </si>
+  <si>
+    <t>T3 shield</t>
+  </si>
+  <si>
+    <t>500+14000</t>
+  </si>
+  <si>
+    <t>inb4302</t>
+  </si>
+  <si>
+    <t>nuke defense</t>
+  </si>
+  <si>
+    <t>inb4305</t>
+  </si>
+  <si>
+    <t>T3 stealth shield</t>
   </si>
 </sst>
 </file>
@@ -696,9 +936,6 @@
     <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -707,6 +944,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
@@ -1178,12 +1418,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:S92"/>
+  <dimension ref="A3:AL113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AD1" activePane="topRight" state="frozen"/>
       <selection activeCell="A73" sqref="A73"/>
-      <selection pane="topRight" activeCell="Q83" sqref="Q83"/>
+      <selection pane="topRight" activeCell="AL105" sqref="AL105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1200,18 +1440,18 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -1831,24 +2071,24 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="26" t="s">
+      <c r="G37" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26" t="s">
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="30"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -2704,12 +2944,12 @@
       <c r="A69" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B69" s="27"/>
-      <c r="C69" s="27"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="27"/>
-      <c r="G69" s="27"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
       <c r="I69" t="s">
         <v>100</v>
       </c>
@@ -2769,16 +3009,16 @@
       <c r="H70" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="I70" s="28" t="s">
+      <c r="I70" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="J70" s="28" t="s">
+      <c r="J70" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="K70" s="28" t="s">
+      <c r="K70" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="L70" s="28" t="s">
+      <c r="L70" s="27" t="s">
         <v>109</v>
       </c>
       <c r="M70" s="22" t="s">
@@ -2832,22 +3072,22 @@
       <c r="L71" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="M71" s="29" t="s">
+      <c r="M71" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="N71" s="29" t="s">
+      <c r="N71" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="P71" s="29" t="s">
+      <c r="P71" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="Q71" s="29" t="s">
+      <c r="Q71" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="R71" s="29" t="s">
+      <c r="R71" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="S71" s="29" t="s">
+      <c r="S71" s="28" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2886,7 +3126,7 @@
       <c r="N72" s="23">
         <v>12500</v>
       </c>
-      <c r="O72" s="30"/>
+      <c r="O72" s="29"/>
       <c r="P72" s="23">
         <v>640</v>
       </c>
@@ -2935,7 +3175,7 @@
       <c r="N73" s="23">
         <v>240000</v>
       </c>
-      <c r="O73" s="30"/>
+      <c r="O73" s="29"/>
       <c r="P73" s="23">
         <v>8000</v>
       </c>
@@ -2984,7 +3224,7 @@
       <c r="N74" s="23">
         <v>12000</v>
       </c>
-      <c r="O74" s="30"/>
+      <c r="O74" s="29"/>
       <c r="P74" s="23">
         <v>640</v>
       </c>
@@ -3046,13 +3286,13 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M75" s="30"/>
-      <c r="N75" s="30"/>
-      <c r="O75" s="30"/>
-      <c r="P75" s="30"/>
-      <c r="Q75" s="30"/>
-      <c r="R75" s="30"/>
-      <c r="S75" s="30"/>
+      <c r="M75" s="29"/>
+      <c r="N75" s="29"/>
+      <c r="O75" s="29"/>
+      <c r="P75" s="29"/>
+      <c r="Q75" s="29"/>
+      <c r="R75" s="29"/>
+      <c r="S75" s="29"/>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
@@ -3102,13 +3342,13 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="M76" s="30"/>
-      <c r="N76" s="30"/>
-      <c r="O76" s="30"/>
-      <c r="P76" s="30"/>
-      <c r="Q76" s="30"/>
-      <c r="R76" s="30"/>
-      <c r="S76" s="30"/>
+      <c r="M76" s="29"/>
+      <c r="N76" s="29"/>
+      <c r="O76" s="29"/>
+      <c r="P76" s="29"/>
+      <c r="Q76" s="29"/>
+      <c r="R76" s="29"/>
+      <c r="S76" s="29"/>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
@@ -3158,13 +3398,13 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="M77" s="30"/>
-      <c r="N77" s="30"/>
-      <c r="O77" s="30"/>
-      <c r="P77" s="30"/>
-      <c r="Q77" s="30"/>
-      <c r="R77" s="30"/>
-      <c r="S77" s="30"/>
+      <c r="M77" s="29"/>
+      <c r="N77" s="29"/>
+      <c r="O77" s="29"/>
+      <c r="P77" s="29"/>
+      <c r="Q77" s="29"/>
+      <c r="R77" s="29"/>
+      <c r="S77" s="29"/>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="s">
@@ -3181,13 +3421,13 @@
       <c r="J78" s="18"/>
       <c r="K78" s="18"/>
       <c r="L78" s="20"/>
-      <c r="M78" s="30"/>
-      <c r="N78" s="30"/>
-      <c r="O78" s="30"/>
-      <c r="P78" s="30"/>
-      <c r="Q78" s="30"/>
-      <c r="R78" s="30"/>
-      <c r="S78" s="30"/>
+      <c r="M78" s="29"/>
+      <c r="N78" s="29"/>
+      <c r="O78" s="29"/>
+      <c r="P78" s="29"/>
+      <c r="Q78" s="29"/>
+      <c r="R78" s="29"/>
+      <c r="S78" s="29"/>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="s">
@@ -3230,7 +3470,7 @@
       <c r="N79" s="23">
         <v>30000</v>
       </c>
-      <c r="O79" s="30"/>
+      <c r="O79" s="29"/>
       <c r="P79" s="23">
         <v>3500</v>
       </c>
@@ -3269,21 +3509,21 @@
         <v>2.6</v>
       </c>
       <c r="L80" s="20"/>
-      <c r="M80" s="30">
+      <c r="M80" s="29">
         <v>3.1</v>
       </c>
       <c r="N80" s="23">
         <v>2.7</v>
       </c>
-      <c r="O80" s="30"/>
+      <c r="O80" s="29"/>
       <c r="P80" s="23">
         <v>3.75</v>
       </c>
-      <c r="Q80" s="30"/>
+      <c r="Q80" s="29"/>
       <c r="R80" s="23">
         <v>2.2999999999999998</v>
       </c>
-      <c r="S80" s="30">
+      <c r="S80" s="29">
         <v>3</v>
       </c>
     </row>
@@ -3312,19 +3552,19 @@
       </c>
       <c r="K81" s="18"/>
       <c r="L81" s="19"/>
-      <c r="M81" s="30">
+      <c r="M81" s="29">
         <v>75</v>
       </c>
-      <c r="N81" s="30">
+      <c r="N81" s="29">
         <v>1380</v>
       </c>
-      <c r="O81" s="30"/>
-      <c r="P81" s="30"/>
-      <c r="Q81" s="30"/>
-      <c r="R81" s="30">
+      <c r="O81" s="29"/>
+      <c r="P81" s="29"/>
+      <c r="Q81" s="29"/>
+      <c r="R81" s="29">
         <v>600</v>
       </c>
-      <c r="S81" s="30">
+      <c r="S81" s="29">
         <v>100</v>
       </c>
     </row>
@@ -3343,13 +3583,13 @@
       <c r="J82" s="18"/>
       <c r="K82" s="18"/>
       <c r="L82" s="19"/>
-      <c r="M82" s="30"/>
-      <c r="N82" s="30"/>
-      <c r="O82" s="30"/>
-      <c r="P82" s="30"/>
-      <c r="Q82" s="30"/>
-      <c r="R82" s="30"/>
-      <c r="S82" s="30"/>
+      <c r="M82" s="29"/>
+      <c r="N82" s="29"/>
+      <c r="O82" s="29"/>
+      <c r="P82" s="29"/>
+      <c r="Q82" s="29"/>
+      <c r="R82" s="29"/>
+      <c r="S82" s="29"/>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="s">
@@ -3366,13 +3606,13 @@
       <c r="J83" s="18"/>
       <c r="K83" s="18"/>
       <c r="L83" s="18"/>
-      <c r="M83" s="30"/>
-      <c r="N83" s="30"/>
-      <c r="O83" s="30"/>
-      <c r="P83" s="30"/>
-      <c r="Q83" s="30"/>
-      <c r="R83" s="30"/>
-      <c r="S83" s="30"/>
+      <c r="M83" s="29"/>
+      <c r="N83" s="29"/>
+      <c r="O83" s="29"/>
+      <c r="P83" s="29"/>
+      <c r="Q83" s="29"/>
+      <c r="R83" s="29"/>
+      <c r="S83" s="29"/>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="s">
@@ -3391,13 +3631,13 @@
       <c r="J84" s="18"/>
       <c r="K84" s="18"/>
       <c r="L84" s="20"/>
-      <c r="M84" s="30"/>
-      <c r="N84" s="30"/>
-      <c r="O84" s="30"/>
-      <c r="P84" s="30"/>
-      <c r="Q84" s="30"/>
-      <c r="R84" s="30"/>
-      <c r="S84" s="30"/>
+      <c r="M84" s="29"/>
+      <c r="N84" s="29"/>
+      <c r="O84" s="29"/>
+      <c r="P84" s="29"/>
+      <c r="Q84" s="29"/>
+      <c r="R84" s="29"/>
+      <c r="S84" s="29"/>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
@@ -3416,15 +3656,15 @@
       <c r="J85" s="18"/>
       <c r="K85" s="18"/>
       <c r="L85" s="18"/>
-      <c r="M85" s="30"/>
-      <c r="N85" s="30"/>
-      <c r="O85" s="30"/>
-      <c r="P85" s="30"/>
-      <c r="Q85" s="30"/>
-      <c r="R85" s="30">
+      <c r="M85" s="29"/>
+      <c r="N85" s="29"/>
+      <c r="O85" s="29"/>
+      <c r="P85" s="29"/>
+      <c r="Q85" s="29"/>
+      <c r="R85" s="29">
         <v>5</v>
       </c>
-      <c r="S85" s="30"/>
+      <c r="S85" s="29"/>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
@@ -3443,13 +3683,13 @@
       <c r="J86" s="18"/>
       <c r="K86" s="18"/>
       <c r="L86" s="18"/>
-      <c r="M86" s="30"/>
-      <c r="N86" s="30"/>
-      <c r="O86" s="30"/>
-      <c r="P86" s="30"/>
-      <c r="Q86" s="30"/>
-      <c r="R86" s="30"/>
-      <c r="S86" s="30"/>
+      <c r="M86" s="29"/>
+      <c r="N86" s="29"/>
+      <c r="O86" s="29"/>
+      <c r="P86" s="29"/>
+      <c r="Q86" s="29"/>
+      <c r="R86" s="29"/>
+      <c r="S86" s="29"/>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
@@ -3466,13 +3706,13 @@
       <c r="J87" s="18"/>
       <c r="K87" s="18"/>
       <c r="L87" s="19"/>
-      <c r="M87" s="30"/>
-      <c r="N87" s="30"/>
-      <c r="O87" s="30"/>
-      <c r="P87" s="30"/>
-      <c r="Q87" s="30"/>
-      <c r="R87" s="30"/>
-      <c r="S87" s="30"/>
+      <c r="M87" s="29"/>
+      <c r="N87" s="29"/>
+      <c r="O87" s="29"/>
+      <c r="P87" s="29"/>
+      <c r="Q87" s="29"/>
+      <c r="R87" s="29"/>
+      <c r="S87" s="29"/>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
@@ -3497,19 +3737,19 @@
       </c>
       <c r="K88" s="18"/>
       <c r="L88" s="20"/>
-      <c r="M88" s="30">
+      <c r="M88" s="29">
         <v>20</v>
       </c>
       <c r="N88" s="23">
         <v>35</v>
       </c>
-      <c r="O88" s="30"/>
-      <c r="P88" s="30"/>
-      <c r="Q88" s="30">
+      <c r="O88" s="29"/>
+      <c r="P88" s="29"/>
+      <c r="Q88" s="29">
         <v>35</v>
       </c>
-      <c r="R88" s="30"/>
-      <c r="S88" s="30">
+      <c r="R88" s="29"/>
+      <c r="S88" s="29">
         <v>26</v>
       </c>
     </row>
@@ -3538,13 +3778,13 @@
         <v>18</v>
       </c>
       <c r="L89" s="23"/>
-      <c r="M89" s="30"/>
-      <c r="N89" s="30"/>
-      <c r="O89" s="30"/>
-      <c r="P89" s="30"/>
-      <c r="Q89" s="30"/>
-      <c r="R89" s="30"/>
-      <c r="S89" s="30"/>
+      <c r="M89" s="29"/>
+      <c r="N89" s="29"/>
+      <c r="O89" s="29"/>
+      <c r="P89" s="29"/>
+      <c r="Q89" s="29"/>
+      <c r="R89" s="29"/>
+      <c r="S89" s="29"/>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
@@ -3612,6 +3852,807 @@
       <c r="K92" s="15"/>
       <c r="L92" s="15"/>
     </row>
+    <row r="98" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>134</v>
+      </c>
+      <c r="C98" t="s">
+        <v>141</v>
+      </c>
+      <c r="D98" t="s">
+        <v>144</v>
+      </c>
+      <c r="E98" t="s">
+        <v>147</v>
+      </c>
+      <c r="F98" t="s">
+        <v>149</v>
+      </c>
+      <c r="G98" t="s">
+        <v>151</v>
+      </c>
+      <c r="H98" t="s">
+        <v>153</v>
+      </c>
+      <c r="J98" t="s">
+        <v>155</v>
+      </c>
+      <c r="K98" t="s">
+        <v>159</v>
+      </c>
+      <c r="L98" t="s">
+        <v>163</v>
+      </c>
+      <c r="M98" t="s">
+        <v>161</v>
+      </c>
+      <c r="N98" t="s">
+        <v>165</v>
+      </c>
+      <c r="O98" t="s">
+        <v>167</v>
+      </c>
+      <c r="P98" t="s">
+        <v>169</v>
+      </c>
+      <c r="R98" t="s">
+        <v>171</v>
+      </c>
+      <c r="S98" t="s">
+        <v>176</v>
+      </c>
+      <c r="T98" t="s">
+        <v>179</v>
+      </c>
+      <c r="U98" t="s">
+        <v>181</v>
+      </c>
+      <c r="V98" t="s">
+        <v>183</v>
+      </c>
+      <c r="W98" t="s">
+        <v>185</v>
+      </c>
+      <c r="X98" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z98" t="s">
+        <v>189</v>
+      </c>
+      <c r="AA98" t="s">
+        <v>192</v>
+      </c>
+      <c r="AB98" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC98" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD98" t="s">
+        <v>198</v>
+      </c>
+      <c r="AE98" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF98" t="s">
+        <v>202</v>
+      </c>
+      <c r="AG98" t="s">
+        <v>205</v>
+      </c>
+      <c r="AH98" t="s">
+        <v>207</v>
+      </c>
+      <c r="AI98" t="s">
+        <v>210</v>
+      </c>
+      <c r="AJ98" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL98" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="99" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>143</v>
+      </c>
+      <c r="C99" t="s">
+        <v>142</v>
+      </c>
+      <c r="D99" t="s">
+        <v>145</v>
+      </c>
+      <c r="E99" t="s">
+        <v>148</v>
+      </c>
+      <c r="F99" t="s">
+        <v>150</v>
+      </c>
+      <c r="G99" t="s">
+        <v>152</v>
+      </c>
+      <c r="H99" t="s">
+        <v>154</v>
+      </c>
+      <c r="J99" t="s">
+        <v>156</v>
+      </c>
+      <c r="K99" t="s">
+        <v>160</v>
+      </c>
+      <c r="L99" t="s">
+        <v>162</v>
+      </c>
+      <c r="M99" t="s">
+        <v>164</v>
+      </c>
+      <c r="N99" t="s">
+        <v>166</v>
+      </c>
+      <c r="O99" t="s">
+        <v>168</v>
+      </c>
+      <c r="P99" t="s">
+        <v>170</v>
+      </c>
+      <c r="R99" t="s">
+        <v>172</v>
+      </c>
+      <c r="S99" t="s">
+        <v>177</v>
+      </c>
+      <c r="T99" t="s">
+        <v>180</v>
+      </c>
+      <c r="U99" t="s">
+        <v>182</v>
+      </c>
+      <c r="V99" t="s">
+        <v>129</v>
+      </c>
+      <c r="W99" t="s">
+        <v>186</v>
+      </c>
+      <c r="X99" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z99" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA99" t="s">
+        <v>193</v>
+      </c>
+      <c r="AB99" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC99" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD99" t="s">
+        <v>199</v>
+      </c>
+      <c r="AE99" t="s">
+        <v>201</v>
+      </c>
+      <c r="AF99" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG99" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH99" t="s">
+        <v>208</v>
+      </c>
+      <c r="AI99" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ99" t="s">
+        <v>213</v>
+      </c>
+      <c r="AL99" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="101" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>137</v>
+      </c>
+      <c r="B101">
+        <v>8000</v>
+      </c>
+      <c r="C101">
+        <v>8000</v>
+      </c>
+      <c r="D101">
+        <v>15500</v>
+      </c>
+      <c r="E101">
+        <v>19500</v>
+      </c>
+      <c r="F101">
+        <v>19500</v>
+      </c>
+      <c r="G101">
+        <v>36000</v>
+      </c>
+      <c r="H101">
+        <v>10000</v>
+      </c>
+      <c r="J101">
+        <v>360</v>
+      </c>
+      <c r="L101">
+        <v>2160</v>
+      </c>
+      <c r="M101">
+        <v>3000</v>
+      </c>
+      <c r="N101">
+        <v>9720</v>
+      </c>
+      <c r="R101">
+        <v>800</v>
+      </c>
+      <c r="S101">
+        <v>2000</v>
+      </c>
+      <c r="T101">
+        <v>2400</v>
+      </c>
+      <c r="U101">
+        <v>4800</v>
+      </c>
+      <c r="V101">
+        <v>10000</v>
+      </c>
+      <c r="W101">
+        <v>3100</v>
+      </c>
+      <c r="X101">
+        <v>4000</v>
+      </c>
+      <c r="Z101">
+        <v>50</v>
+      </c>
+      <c r="AA101">
+        <v>1400</v>
+      </c>
+      <c r="AB101">
+        <v>100</v>
+      </c>
+      <c r="AC101">
+        <v>2000</v>
+      </c>
+      <c r="AD101">
+        <v>6000</v>
+      </c>
+      <c r="AE101">
+        <v>7000</v>
+      </c>
+      <c r="AF101" t="s">
+        <v>204</v>
+      </c>
+      <c r="AG101" t="s">
+        <v>204</v>
+      </c>
+      <c r="AH101" t="s">
+        <v>209</v>
+      </c>
+      <c r="AI101">
+        <v>3800</v>
+      </c>
+      <c r="AJ101" t="s">
+        <v>209</v>
+      </c>
+      <c r="AL101">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="102" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>138</v>
+      </c>
+      <c r="B102">
+        <v>13300</v>
+      </c>
+      <c r="C102">
+        <v>14400</v>
+      </c>
+      <c r="D102">
+        <v>10000</v>
+      </c>
+      <c r="E102">
+        <v>43900</v>
+      </c>
+      <c r="F102">
+        <v>99400</v>
+      </c>
+      <c r="G102">
+        <v>45000</v>
+      </c>
+      <c r="H102">
+        <v>30000</v>
+      </c>
+      <c r="J102">
+        <v>4000</v>
+      </c>
+      <c r="S102">
+        <v>3600</v>
+      </c>
+      <c r="T102">
+        <v>3920</v>
+      </c>
+      <c r="U102">
+        <v>9000</v>
+      </c>
+      <c r="V102">
+        <v>900000</v>
+      </c>
+      <c r="W102">
+        <v>12750</v>
+      </c>
+      <c r="X102">
+        <v>210000</v>
+      </c>
+      <c r="Z102">
+        <v>3600</v>
+      </c>
+      <c r="AA102">
+        <v>3600</v>
+      </c>
+      <c r="AB102">
+        <v>30000</v>
+      </c>
+      <c r="AC102">
+        <v>12000</v>
+      </c>
+      <c r="AD102">
+        <v>36000</v>
+      </c>
+      <c r="AE102">
+        <v>8000</v>
+      </c>
+      <c r="AF102">
+        <v>5000</v>
+      </c>
+      <c r="AG102">
+        <v>3000</v>
+      </c>
+      <c r="AH102">
+        <v>48000</v>
+      </c>
+      <c r="AI102">
+        <v>105000</v>
+      </c>
+      <c r="AJ102">
+        <v>8000</v>
+      </c>
+      <c r="AL102">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>140</v>
+      </c>
+      <c r="B103">
+        <v>1520</v>
+      </c>
+      <c r="C103">
+        <v>840</v>
+      </c>
+      <c r="D103">
+        <v>2000</v>
+      </c>
+      <c r="E103">
+        <v>4920</v>
+      </c>
+      <c r="F103">
+        <v>4090</v>
+      </c>
+      <c r="G103">
+        <v>9500</v>
+      </c>
+      <c r="H103">
+        <v>3000</v>
+      </c>
+      <c r="J103">
+        <v>100</v>
+      </c>
+      <c r="S103">
+        <v>510</v>
+      </c>
+      <c r="T103">
+        <v>392</v>
+      </c>
+      <c r="U103">
+        <v>1080</v>
+      </c>
+      <c r="V103">
+        <v>90000</v>
+      </c>
+      <c r="W103">
+        <v>1785</v>
+      </c>
+      <c r="X103">
+        <v>15000</v>
+      </c>
+      <c r="Z103">
+        <v>180</v>
+      </c>
+      <c r="AA103">
+        <v>150</v>
+      </c>
+      <c r="AB103">
+        <v>2400</v>
+      </c>
+      <c r="AC103">
+        <v>1000</v>
+      </c>
+      <c r="AD103">
+        <v>4000</v>
+      </c>
+      <c r="AE103">
+        <v>800</v>
+      </c>
+      <c r="AF103">
+        <v>500</v>
+      </c>
+      <c r="AG103">
+        <v>150</v>
+      </c>
+      <c r="AH103">
+        <v>2800</v>
+      </c>
+      <c r="AI103">
+        <v>7500</v>
+      </c>
+      <c r="AJ103">
+        <v>400</v>
+      </c>
+      <c r="AL103">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="104" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>139</v>
+      </c>
+      <c r="B104">
+        <v>2600</v>
+      </c>
+      <c r="C104">
+        <v>1800</v>
+      </c>
+      <c r="D104">
+        <v>3600</v>
+      </c>
+      <c r="E104">
+        <v>11000</v>
+      </c>
+      <c r="F104">
+        <v>10400</v>
+      </c>
+      <c r="G104">
+        <v>11250</v>
+      </c>
+      <c r="H104">
+        <v>4097</v>
+      </c>
+      <c r="J104">
+        <v>500</v>
+      </c>
+      <c r="S104">
+        <v>600</v>
+      </c>
+      <c r="T104">
+        <v>958</v>
+      </c>
+      <c r="U104">
+        <v>1467</v>
+      </c>
+      <c r="V104">
+        <v>40000</v>
+      </c>
+      <c r="W104">
+        <v>1200</v>
+      </c>
+      <c r="X104">
+        <v>10453</v>
+      </c>
+      <c r="Z104">
+        <v>845</v>
+      </c>
+      <c r="AA104">
+        <v>845</v>
+      </c>
+      <c r="AB104">
+        <v>2575</v>
+      </c>
+      <c r="AC104">
+        <v>750</v>
+      </c>
+      <c r="AD104">
+        <v>4000</v>
+      </c>
+      <c r="AE104">
+        <v>1195</v>
+      </c>
+      <c r="AF104">
+        <v>700</v>
+      </c>
+      <c r="AG104">
+        <v>420</v>
+      </c>
+      <c r="AH104">
+        <v>4900</v>
+      </c>
+      <c r="AI104">
+        <v>5841</v>
+      </c>
+      <c r="AJ104">
+        <v>1120</v>
+      </c>
+      <c r="AL104">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="105" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>146</v>
+      </c>
+      <c r="B105">
+        <v>40</v>
+      </c>
+      <c r="C105">
+        <v>40</v>
+      </c>
+      <c r="D105">
+        <v>90</v>
+      </c>
+      <c r="E105">
+        <v>90</v>
+      </c>
+      <c r="F105">
+        <v>120</v>
+      </c>
+      <c r="G105">
+        <v>150</v>
+      </c>
+      <c r="H105">
+        <v>120</v>
+      </c>
+      <c r="X105">
+        <v>1080</v>
+      </c>
+      <c r="Z105">
+        <v>21.46</v>
+      </c>
+      <c r="AA105">
+        <v>15</v>
+      </c>
+      <c r="AF105">
+        <v>15</v>
+      </c>
+      <c r="AH105">
+        <v>30</v>
+      </c>
+      <c r="AI105">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="106" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>157</v>
+      </c>
+      <c r="J106">
+        <v>150</v>
+      </c>
+      <c r="Z106">
+        <v>250</v>
+      </c>
+      <c r="AA106">
+        <v>100</v>
+      </c>
+      <c r="AB106">
+        <v>2000</v>
+      </c>
+      <c r="AC106">
+        <v>250</v>
+      </c>
+      <c r="AF106">
+        <v>200</v>
+      </c>
+      <c r="AG106">
+        <v>275</v>
+      </c>
+      <c r="AH106">
+        <v>450</v>
+      </c>
+      <c r="AJ106">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="107" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>158</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>173</v>
+      </c>
+      <c r="R108">
+        <v>35</v>
+      </c>
+      <c r="S108">
+        <v>300</v>
+      </c>
+      <c r="T108">
+        <v>30</v>
+      </c>
+      <c r="U108">
+        <v>400</v>
+      </c>
+      <c r="V108">
+        <v>1500</v>
+      </c>
+      <c r="W108">
+        <v>1500</v>
+      </c>
+      <c r="Z108">
+        <v>200</v>
+      </c>
+      <c r="AA108">
+        <v>200</v>
+      </c>
+      <c r="AB108">
+        <v>500</v>
+      </c>
+      <c r="AC108">
+        <v>500</v>
+      </c>
+      <c r="AD108">
+        <v>675</v>
+      </c>
+      <c r="AE108">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="109" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>175</v>
+      </c>
+      <c r="R109">
+        <v>44</v>
+      </c>
+      <c r="S109">
+        <v>50</v>
+      </c>
+      <c r="T109">
+        <v>44</v>
+      </c>
+      <c r="U109">
+        <v>60</v>
+      </c>
+      <c r="V109">
+        <v>750</v>
+      </c>
+      <c r="W109">
+        <v>128</v>
+      </c>
+      <c r="Z109">
+        <v>5</v>
+      </c>
+      <c r="AA109">
+        <v>5</v>
+      </c>
+      <c r="AB109">
+        <v>5</v>
+      </c>
+      <c r="AC109">
+        <v>5</v>
+      </c>
+      <c r="AD109">
+        <v>175</v>
+      </c>
+      <c r="AE109">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="110" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>178</v>
+      </c>
+      <c r="S110">
+        <v>1.5</v>
+      </c>
+      <c r="T110">
+        <v>1.5</v>
+      </c>
+      <c r="V110">
+        <v>6</v>
+      </c>
+      <c r="W110">
+        <v>3</v>
+      </c>
+      <c r="AD110">
+        <v>2</v>
+      </c>
+      <c r="AE110">
+        <v>1.5</v>
+      </c>
+      <c r="AF110">
+        <v>27</v>
+      </c>
+      <c r="AG110">
+        <v>27</v>
+      </c>
+      <c r="AH110">
+        <v>42</v>
+      </c>
+      <c r="AJ110">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="111" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>174</v>
+      </c>
+      <c r="R111">
+        <v>2</v>
+      </c>
+      <c r="S111">
+        <v>0.4</v>
+      </c>
+      <c r="T111">
+        <v>1.6659999999999999</v>
+      </c>
+      <c r="U111">
+        <v>0.4</v>
+      </c>
+      <c r="V111">
+        <v>0.08</v>
+      </c>
+      <c r="W111">
+        <v>0.08</v>
+      </c>
+      <c r="AD111">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AE111">
+        <v>0.33300000000000002</v>
+      </c>
+    </row>
+    <row r="112" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>184</v>
+      </c>
+      <c r="V112">
+        <v>5</v>
+      </c>
+      <c r="AD112">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="26:29" x14ac:dyDescent="0.25">
+      <c r="Z113" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA113" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB113" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC113" t="s">
+        <v>191</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B4:E4"/>

--- a/Units.xlsx
+++ b/Units.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="217">
   <si>
     <t>Stats</t>
   </si>
@@ -153,9 +153,6 @@
     <t>single shot kill t1 unit</t>
   </si>
   <si>
-    <t>Golem</t>
-  </si>
-  <si>
     <t>T2 transport</t>
   </si>
   <si>
@@ -661,6 +658,18 @@
   </si>
   <si>
     <t>T3 stealth shield</t>
+  </si>
+  <si>
+    <t>ina1003</t>
+  </si>
+  <si>
+    <t>ina1002</t>
+  </si>
+  <si>
+    <t>ina1001</t>
+  </si>
+  <si>
+    <t>ina1004</t>
   </si>
 </sst>
 </file>
@@ -1420,10 +1429,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AL113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AD1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A73" sqref="A73"/>
-      <selection pane="topRight" activeCell="AL105" sqref="AL105"/>
+      <selection pane="topRight" activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1435,7 +1444,7 @@
   <sheetData>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2066,7 +2075,19 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="B36" t="s">
+        <v>215</v>
+      </c>
+      <c r="C36" t="s">
+        <v>214</v>
+      </c>
+      <c r="D36" t="s">
+        <v>213</v>
+      </c>
+      <c r="E36" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2084,7 +2105,7 @@
       <c r="H37" s="30"/>
       <c r="I37" s="30"/>
       <c r="J37" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K37" s="30"/>
       <c r="L37" s="30"/>
@@ -2107,28 +2128,28 @@
         <v>37</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2151,25 +2172,25 @@
         <v>41</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J39" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M39" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="L39" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="M39" s="4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2183,13 +2204,13 @@
         <v>50</v>
       </c>
       <c r="D40" s="5">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="E40" s="7">
         <v>120</v>
       </c>
       <c r="F40" s="7">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G40" s="5">
         <v>300</v>
@@ -2220,13 +2241,13 @@
         <v>2250</v>
       </c>
       <c r="D41" s="5">
-        <v>2450</v>
+        <v>2400</v>
       </c>
       <c r="E41" s="7">
         <v>4800</v>
       </c>
       <c r="F41" s="7">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="G41" s="5">
         <v>12000</v>
@@ -2263,7 +2284,7 @@
         <v>800</v>
       </c>
       <c r="F42" s="7">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G42" s="5">
         <v>2400</v>
@@ -2305,7 +2326,7 @@
       </c>
       <c r="F43" s="7">
         <f t="shared" ref="F43" si="8">F42/$C$34</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G43" s="7">
         <f>G42/$D$34</f>
@@ -2350,7 +2371,7 @@
       </c>
       <c r="D44" s="7">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>3.4285714285714284</v>
       </c>
       <c r="E44" s="7">
         <f t="shared" si="10"/>
@@ -2403,7 +2424,7 @@
       </c>
       <c r="D45" s="7">
         <f t="shared" si="12"/>
-        <v>70</v>
+        <v>68.571428571428569</v>
       </c>
       <c r="E45" s="7">
         <f t="shared" si="12"/>
@@ -2586,7 +2607,7 @@
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="7">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
@@ -2596,7 +2617,7 @@
         <v>360</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M51" s="7"/>
     </row>
@@ -2634,7 +2655,7 @@
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
@@ -2865,7 +2886,7 @@
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
       <c r="L62" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M62" s="7"/>
     </row>
@@ -2907,7 +2928,7 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
@@ -2942,7 +2963,7 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B69" s="26"/>
       <c r="C69" s="26"/>
@@ -2951,149 +2972,149 @@
       <c r="F69" s="26"/>
       <c r="G69" s="26"/>
       <c r="I69" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J69" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K69" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L69" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M69" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N69" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O69" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P69" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q69" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R69" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S69" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B70" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C70" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D70" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="D70" s="21" t="s">
+      <c r="E70" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="E70" s="22" t="s">
+      <c r="F70" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="F70" s="22" t="s">
+      <c r="G70" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="G70" s="22" t="s">
-        <v>91</v>
-      </c>
       <c r="H70" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I70" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J70" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K70" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L70" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M70" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N70" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O70" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P70" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q70" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R70" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="S70" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="24"/>
       <c r="D71" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E71" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="F71" s="24" t="s">
         <v>97</v>
-      </c>
-      <c r="E71" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="F71" s="24" t="s">
-        <v>98</v>
       </c>
       <c r="G71" s="24"/>
       <c r="H71" s="24"/>
       <c r="I71" s="25"/>
       <c r="J71" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K71" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L71" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M71" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N71" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P71" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q71" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R71" s="28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S71" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B72" s="16">
         <v>12</v>
@@ -3142,7 +3163,7 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B73" s="16">
         <v>40</v>
@@ -3191,7 +3212,7 @@
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B74" s="16">
         <v>80</v>
@@ -3240,7 +3261,7 @@
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B75" s="16">
         <f>B74/$B$67</f>
@@ -3296,7 +3317,7 @@
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B76" s="16">
         <f>B72/$B$75</f>
@@ -3352,7 +3373,7 @@
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B77" s="16">
         <f>B73/$B$75</f>
@@ -3408,7 +3429,7 @@
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B78" s="16"/>
       <c r="C78" s="16"/>
@@ -3456,7 +3477,7 @@
         <v>640</v>
       </c>
       <c r="J79" s="18">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="K79" s="18">
         <v>600</v>
@@ -3481,7 +3502,7 @@
         <v>1600</v>
       </c>
       <c r="S79" s="23">
-        <v>5000</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
@@ -3510,7 +3531,7 @@
       </c>
       <c r="L80" s="20"/>
       <c r="M80" s="29">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N80" s="23">
         <v>2.7</v>
@@ -3524,12 +3545,12 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="S80" s="29">
-        <v>3</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B81" s="16"/>
       <c r="C81" s="16">
@@ -3548,7 +3569,7 @@
       <c r="H81" s="17"/>
       <c r="I81" s="18"/>
       <c r="J81" s="18">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K81" s="18"/>
       <c r="L81" s="19"/>
@@ -3565,12 +3586,12 @@
         <v>600</v>
       </c>
       <c r="S81" s="29">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B82" s="16"/>
       <c r="C82" s="16"/>
@@ -3593,7 +3614,7 @@
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B83" s="16"/>
       <c r="C83" s="16"/>
@@ -3616,7 +3637,7 @@
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B84" s="16"/>
       <c r="C84" s="16"/>
@@ -3641,7 +3662,7 @@
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B85" s="16"/>
       <c r="C85" s="16"/>
@@ -3668,7 +3689,7 @@
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B86" s="16"/>
       <c r="C86" s="16"/>
@@ -3693,7 +3714,7 @@
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B87" s="16"/>
       <c r="C87" s="16"/>
@@ -3716,7 +3737,7 @@
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B88" s="16"/>
       <c r="C88" s="16">
@@ -3750,15 +3771,15 @@
       </c>
       <c r="R88" s="29"/>
       <c r="S88" s="29">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C89" s="16"/>
       <c r="D89" s="16"/>
@@ -3788,18 +3809,18 @@
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D90" s="14"/>
       <c r="E90" s="15"/>
       <c r="F90" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G90" s="15"/>
       <c r="H90" s="15"/>
@@ -3808,21 +3829,21 @@
       <c r="K90" s="15"/>
       <c r="L90" s="15"/>
       <c r="M90" t="s">
+        <v>116</v>
+      </c>
+      <c r="N90" t="s">
         <v>117</v>
       </c>
-      <c r="N90" t="s">
-        <v>118</v>
-      </c>
       <c r="P90" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R90" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B91" s="14"/>
       <c r="C91" s="15"/>
@@ -3838,7 +3859,7 @@
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
@@ -3854,209 +3875,209 @@
     </row>
     <row r="98" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C98" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D98" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E98" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F98" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G98" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H98" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J98" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K98" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L98" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M98" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N98" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O98" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P98" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="R98" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S98" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="T98" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U98" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V98" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="W98" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="X98" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Z98" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AA98" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AB98" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AC98" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AD98" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AE98" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF98" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AG98" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AH98" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AI98" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AJ98" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AL98" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="99" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C99" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D99" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E99" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F99" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G99" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H99" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J99" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K99" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L99" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M99" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N99" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O99" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P99" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="R99" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="S99" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="T99" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="U99" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="V99" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="W99" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="X99" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Z99" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AA99" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AB99" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AC99" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AD99" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AE99" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF99" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AG99" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AH99" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AI99" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AJ99" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AL99" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="101" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B101">
         <v>8000</v>
@@ -4131,19 +4152,19 @@
         <v>7000</v>
       </c>
       <c r="AF101" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG101" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AH101" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AI101">
         <v>3800</v>
       </c>
       <c r="AJ101" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AL101">
         <v>500</v>
@@ -4151,7 +4172,7 @@
     </row>
     <row r="102" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B102">
         <v>13300</v>
@@ -4234,7 +4255,7 @@
     </row>
     <row r="103" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B103">
         <v>1520</v>
@@ -4317,7 +4338,7 @@
     </row>
     <row r="104" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B104">
         <v>2600</v>
@@ -4400,7 +4421,7 @@
     </row>
     <row r="105" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B105">
         <v>40</v>
@@ -4444,7 +4465,7 @@
     </row>
     <row r="106" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J106">
         <v>150</v>
@@ -4476,7 +4497,7 @@
     </row>
     <row r="107" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J107">
         <v>1</v>
@@ -4484,7 +4505,7 @@
     </row>
     <row r="108" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R108">
         <v>35</v>
@@ -4525,7 +4546,7 @@
     </row>
     <row r="109" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R109">
         <v>44</v>
@@ -4566,7 +4587,7 @@
     </row>
     <row r="110" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S110">
         <v>1.5</v>
@@ -4601,7 +4622,7 @@
     </row>
     <row r="111" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R111">
         <v>2</v>
@@ -4630,7 +4651,7 @@
     </row>
     <row r="112" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="V112">
         <v>5</v>
@@ -4641,16 +4662,16 @@
     </row>
     <row r="113" spans="26:29" x14ac:dyDescent="0.25">
       <c r="Z113" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA113" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AB113" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AC113" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/Units.xlsx
+++ b/Units.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="260">
   <si>
     <t>Stats</t>
   </si>
@@ -670,6 +670,135 @@
   </si>
   <si>
     <t>ina1004</t>
+  </si>
+  <si>
+    <t>ins1001</t>
+  </si>
+  <si>
+    <t>T1sub</t>
+  </si>
+  <si>
+    <t>Buccaneer</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>dmg</t>
+  </si>
+  <si>
+    <t>dps</t>
+  </si>
+  <si>
+    <t>ins1002</t>
+  </si>
+  <si>
+    <t>frigates</t>
+  </si>
+  <si>
+    <t>lance</t>
+  </si>
+  <si>
+    <t>ins2001</t>
+  </si>
+  <si>
+    <t>destroer</t>
+  </si>
+  <si>
+    <t>ability</t>
+  </si>
+  <si>
+    <t>suported artilery, area bombardment</t>
+  </si>
+  <si>
+    <t>firestorm</t>
+  </si>
+  <si>
+    <t>120 (probably 240)</t>
+  </si>
+  <si>
+    <t>ins2002</t>
+  </si>
+  <si>
+    <t>cruiser</t>
+  </si>
+  <si>
+    <t>mercenary</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>Railgun</t>
+  </si>
+  <si>
+    <t>main cann</t>
+  </si>
+  <si>
+    <t>ins2003</t>
+  </si>
+  <si>
+    <t>railgun boat</t>
+  </si>
+  <si>
+    <t>whaler</t>
+  </si>
+  <si>
+    <t>homign missile</t>
+  </si>
+  <si>
+    <t>rail gun</t>
+  </si>
+  <si>
+    <t>ins3002</t>
+  </si>
+  <si>
+    <t>tactical sub</t>
+  </si>
+  <si>
+    <t>leviathan</t>
+  </si>
+  <si>
+    <t>missile</t>
+  </si>
+  <si>
+    <t>torpedo</t>
+  </si>
+  <si>
+    <t>ins3003</t>
+  </si>
+  <si>
+    <t>carrier</t>
+  </si>
+  <si>
+    <t>mastodon</t>
+  </si>
+  <si>
+    <t>ins3004</t>
+  </si>
+  <si>
+    <t>batlecruiser</t>
+  </si>
+  <si>
+    <t>juggernaut</t>
+  </si>
+  <si>
+    <t>fire underwater</t>
+  </si>
+  <si>
+    <t>bombard mode</t>
+  </si>
+  <si>
+    <t>direct</t>
   </si>
 </sst>
 </file>
@@ -1427,12 +1556,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:AL113"/>
+  <dimension ref="A3:AL136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection activeCell="A73" sqref="A73"/>
-      <selection pane="topRight" activeCell="F53" sqref="F53"/>
+      <selection pane="topRight" activeCell="O135" sqref="O135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4660,7 +4789,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="26:29" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:29" x14ac:dyDescent="0.25">
       <c r="Z113" t="s">
         <v>190</v>
       </c>
@@ -4672,6 +4801,596 @@
       </c>
       <c r="AC113" t="s">
         <v>190</v>
+      </c>
+    </row>
+    <row r="118" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>222</v>
+      </c>
+      <c r="B118" t="s">
+        <v>217</v>
+      </c>
+      <c r="C118" t="s">
+        <v>226</v>
+      </c>
+      <c r="D118" t="s">
+        <v>229</v>
+      </c>
+      <c r="E118" t="s">
+        <v>229</v>
+      </c>
+      <c r="F118" t="s">
+        <v>235</v>
+      </c>
+      <c r="G118" t="s">
+        <v>235</v>
+      </c>
+      <c r="H118" t="s">
+        <v>241</v>
+      </c>
+      <c r="I118" t="s">
+        <v>246</v>
+      </c>
+      <c r="J118" t="s">
+        <v>246</v>
+      </c>
+      <c r="K118" t="s">
+        <v>251</v>
+      </c>
+      <c r="L118" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="119" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>221</v>
+      </c>
+      <c r="B119" t="s">
+        <v>218</v>
+      </c>
+      <c r="C119" t="s">
+        <v>227</v>
+      </c>
+      <c r="D119" t="s">
+        <v>230</v>
+      </c>
+      <c r="E119" t="s">
+        <v>230</v>
+      </c>
+      <c r="F119" t="s">
+        <v>236</v>
+      </c>
+      <c r="G119" t="s">
+        <v>236</v>
+      </c>
+      <c r="H119" t="s">
+        <v>242</v>
+      </c>
+      <c r="I119" t="s">
+        <v>247</v>
+      </c>
+      <c r="J119" t="s">
+        <v>247</v>
+      </c>
+      <c r="K119" t="s">
+        <v>252</v>
+      </c>
+      <c r="L119" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="120" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>220</v>
+      </c>
+      <c r="B120" t="s">
+        <v>219</v>
+      </c>
+      <c r="C120" t="s">
+        <v>228</v>
+      </c>
+      <c r="D120" t="s">
+        <v>233</v>
+      </c>
+      <c r="E120" t="s">
+        <v>233</v>
+      </c>
+      <c r="F120" t="s">
+        <v>237</v>
+      </c>
+      <c r="G120" t="s">
+        <v>237</v>
+      </c>
+      <c r="H120" t="s">
+        <v>243</v>
+      </c>
+      <c r="I120" t="s">
+        <v>248</v>
+      </c>
+      <c r="J120" t="s">
+        <v>248</v>
+      </c>
+      <c r="K120" t="s">
+        <v>253</v>
+      </c>
+      <c r="L120" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="121" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>136</v>
+      </c>
+      <c r="B121">
+        <v>500</v>
+      </c>
+      <c r="C121">
+        <v>1750</v>
+      </c>
+      <c r="D121">
+        <v>6500</v>
+      </c>
+      <c r="F121">
+        <v>2850</v>
+      </c>
+      <c r="H121">
+        <v>2600</v>
+      </c>
+      <c r="I121">
+        <v>6000</v>
+      </c>
+      <c r="K121">
+        <v>18000</v>
+      </c>
+      <c r="L121">
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>137</v>
+      </c>
+      <c r="B123">
+        <v>2880</v>
+      </c>
+      <c r="C123">
+        <v>2700</v>
+      </c>
+      <c r="D123">
+        <v>15000</v>
+      </c>
+      <c r="F123">
+        <v>18000</v>
+      </c>
+      <c r="H123">
+        <v>9600</v>
+      </c>
+      <c r="I123">
+        <v>36000</v>
+      </c>
+      <c r="K123">
+        <v>38000</v>
+      </c>
+      <c r="L123">
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>139</v>
+      </c>
+      <c r="B124">
+        <v>360</v>
+      </c>
+      <c r="C124">
+        <v>270</v>
+      </c>
+      <c r="D124">
+        <v>2250</v>
+      </c>
+      <c r="F124">
+        <v>2000</v>
+      </c>
+      <c r="H124">
+        <v>1280</v>
+      </c>
+      <c r="I124">
+        <v>4800</v>
+      </c>
+      <c r="K124">
+        <v>3800</v>
+      </c>
+      <c r="L124">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>138</v>
+      </c>
+      <c r="B125">
+        <v>1440</v>
+      </c>
+      <c r="C125">
+        <v>1350</v>
+      </c>
+      <c r="D125">
+        <v>10000</v>
+      </c>
+      <c r="F125">
+        <v>8000</v>
+      </c>
+      <c r="H125">
+        <v>4800</v>
+      </c>
+      <c r="I125">
+        <v>16000</v>
+      </c>
+      <c r="K125">
+        <v>12000</v>
+      </c>
+      <c r="L125">
+        <v>25200</v>
+      </c>
+    </row>
+    <row r="127" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>223</v>
+      </c>
+      <c r="B127">
+        <v>6</v>
+      </c>
+      <c r="C127">
+        <v>6</v>
+      </c>
+      <c r="D127">
+        <v>5</v>
+      </c>
+      <c r="F127">
+        <v>4.5</v>
+      </c>
+      <c r="H127">
+        <v>5.8</v>
+      </c>
+      <c r="I127">
+        <v>4</v>
+      </c>
+      <c r="K127">
+        <v>3.7</v>
+      </c>
+      <c r="L127">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="D128" t="s">
+        <v>240</v>
+      </c>
+      <c r="E128" t="s">
+        <v>239</v>
+      </c>
+      <c r="F128" t="s">
+        <v>238</v>
+      </c>
+      <c r="G128" t="s">
+        <v>244</v>
+      </c>
+      <c r="H128" t="s">
+        <v>245</v>
+      </c>
+      <c r="I128" t="s">
+        <v>249</v>
+      </c>
+      <c r="J128" t="s">
+        <v>250</v>
+      </c>
+      <c r="K128" t="s">
+        <v>238</v>
+      </c>
+      <c r="L128" t="s">
+        <v>240</v>
+      </c>
+      <c r="M128" t="s">
+        <v>259</v>
+      </c>
+      <c r="N128" t="s">
+        <v>245</v>
+      </c>
+      <c r="O128" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>224</v>
+      </c>
+      <c r="B129">
+        <v>25</v>
+      </c>
+      <c r="C129">
+        <v>20</v>
+      </c>
+      <c r="D129">
+        <v>240</v>
+      </c>
+      <c r="E129">
+        <v>100</v>
+      </c>
+      <c r="F129">
+        <v>200</v>
+      </c>
+      <c r="G129">
+        <v>500</v>
+      </c>
+      <c r="H129">
+        <v>200</v>
+      </c>
+      <c r="I129">
+        <v>800</v>
+      </c>
+      <c r="J129">
+        <v>160</v>
+      </c>
+      <c r="K129">
+        <v>35</v>
+      </c>
+      <c r="L129">
+        <v>400</v>
+      </c>
+      <c r="M129">
+        <v>20</v>
+      </c>
+      <c r="N129">
+        <v>400</v>
+      </c>
+      <c r="O129">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>177</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130">
+        <v>1.5</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>3</v>
+      </c>
+      <c r="I130">
+        <v>1.5</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>1.5</v>
+      </c>
+      <c r="L130">
+        <v>2</v>
+      </c>
+      <c r="M130">
+        <v>1</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+      <c r="O130">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>183</v>
+      </c>
+      <c r="B131">
+        <v>2</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131">
+        <v>2</v>
+      </c>
+      <c r="E131">
+        <v>2</v>
+      </c>
+      <c r="F131">
+        <v>4</v>
+      </c>
+      <c r="G131">
+        <v>1</v>
+      </c>
+      <c r="H131">
+        <v>2</v>
+      </c>
+      <c r="I131">
+        <v>6</v>
+      </c>
+      <c r="J131">
+        <v>6</v>
+      </c>
+      <c r="K131">
+        <v>8</v>
+      </c>
+      <c r="L131">
+        <v>2</v>
+      </c>
+      <c r="M131">
+        <v>2</v>
+      </c>
+      <c r="N131">
+        <v>1</v>
+      </c>
+      <c r="O131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>174</v>
+      </c>
+      <c r="B132">
+        <v>32</v>
+      </c>
+      <c r="C132">
+        <v>28</v>
+      </c>
+      <c r="D132">
+        <v>80</v>
+      </c>
+      <c r="E132">
+        <v>45</v>
+      </c>
+      <c r="F132">
+        <v>75</v>
+      </c>
+      <c r="G132">
+        <v>100</v>
+      </c>
+      <c r="H132">
+        <v>60</v>
+      </c>
+      <c r="I132">
+        <v>165</v>
+      </c>
+      <c r="J132">
+        <v>80</v>
+      </c>
+      <c r="K132">
+        <v>75</v>
+      </c>
+      <c r="L132">
+        <v>100</v>
+      </c>
+      <c r="M132">
+        <v>50</v>
+      </c>
+      <c r="N132">
+        <v>60</v>
+      </c>
+      <c r="O132">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>173</v>
+      </c>
+      <c r="B133">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="C133">
+        <v>3.3330000000000002</v>
+      </c>
+      <c r="D133">
+        <v>0.25</v>
+      </c>
+      <c r="E133">
+        <v>0.4</v>
+      </c>
+      <c r="F133">
+        <v>0.65</v>
+      </c>
+      <c r="G133">
+        <v>0.2</v>
+      </c>
+      <c r="H133">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="I133">
+        <v>0.05</v>
+      </c>
+      <c r="J133">
+        <v>0.25</v>
+      </c>
+      <c r="K133">
+        <v>2</v>
+      </c>
+      <c r="L133">
+        <v>0.2</v>
+      </c>
+      <c r="M133">
+        <v>3.3330000000000002</v>
+      </c>
+      <c r="N133">
+        <v>0.4</v>
+      </c>
+      <c r="O133">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>225</v>
+      </c>
+      <c r="B134">
+        <v>41.6</v>
+      </c>
+      <c r="C134">
+        <v>60</v>
+      </c>
+      <c r="D134" t="s">
+        <v>234</v>
+      </c>
+      <c r="E134">
+        <v>50</v>
+      </c>
+      <c r="F134">
+        <v>525</v>
+      </c>
+      <c r="G134">
+        <v>100</v>
+      </c>
+      <c r="H134">
+        <v>115</v>
+      </c>
+      <c r="I134">
+        <v>240</v>
+      </c>
+      <c r="J134">
+        <v>240</v>
+      </c>
+      <c r="K134">
+        <v>560</v>
+      </c>
+      <c r="L134">
+        <v>160</v>
+      </c>
+      <c r="M134">
+        <v>120</v>
+      </c>
+      <c r="N134">
+        <v>160</v>
+      </c>
+      <c r="O134">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>231</v>
+      </c>
+      <c r="D136" t="s">
+        <v>232</v>
+      </c>
+      <c r="J136" t="s">
+        <v>257</v>
+      </c>
+      <c r="L136" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/Units.xlsx
+++ b/Units.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="268">
   <si>
     <t>Stats</t>
   </si>
@@ -273,9 +273,6 @@
     <t>lab</t>
   </si>
   <si>
-    <t>aa/arty</t>
-  </si>
-  <si>
     <t>tank</t>
   </si>
   <si>
@@ -796,6 +793,36 @@
   </si>
   <si>
     <t>Golem</t>
+  </si>
+  <si>
+    <t>inu1007</t>
+  </si>
+  <si>
+    <t>Astor</t>
+  </si>
+  <si>
+    <t>inu1004</t>
+  </si>
+  <si>
+    <t>inu1001</t>
+  </si>
+  <si>
+    <t>inu1005</t>
+  </si>
+  <si>
+    <t>inu1006</t>
+  </si>
+  <si>
+    <t>inu1008</t>
+  </si>
+  <si>
+    <t>inu1002</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>arty</t>
   </si>
 </sst>
 </file>
@@ -1086,85 +1113,7 @@
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="52">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
+  <dxfs count="26">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1555,10 +1504,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A73" sqref="A73"/>
-      <selection pane="topRight" activeCell="F24" sqref="F24"/>
+      <selection pane="topRight" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1613,19 +1562,19 @@
         <v>53</v>
       </c>
       <c r="B5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E5" t="s">
+        <v>256</v>
+      </c>
+      <c r="F5" t="s">
         <v>212</v>
-      </c>
-      <c r="C5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D5" t="s">
-        <v>210</v>
-      </c>
-      <c r="E5" t="s">
-        <v>257</v>
-      </c>
-      <c r="F5" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1666,7 +1615,7 @@
         <v>37</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>43</v>
@@ -2447,7 +2396,7 @@
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>14</v>
       </c>
@@ -2464,12 +2413,12 @@
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H34" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>15</v>
       </c>
@@ -2484,7 +2433,7 @@
       </c>
       <c r="E35" s="8"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>19</v>
       </c>
@@ -2499,51 +2448,69 @@
       </c>
       <c r="E36" s="8"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="I38" t="s">
-        <v>96</v>
+      <c r="B38" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="F38" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="H38" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="I38" s="26" t="s">
+        <v>262</v>
       </c>
       <c r="J38" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K38" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L38" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="M38" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="N38" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="O38" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P38" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="Q38" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R38" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="S38" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="T38" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>82</v>
       </c>
@@ -2554,103 +2521,111 @@
         <v>83</v>
       </c>
       <c r="D39" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="F39" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="E39" s="22" t="s">
+      <c r="G39" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="F39" s="22" t="s">
+      <c r="H39" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="G39" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="H39" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="I39" s="27" t="s">
-        <v>97</v>
+      <c r="I39" s="22" t="s">
+        <v>91</v>
       </c>
       <c r="J39" s="27" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K39" s="27" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L39" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="M39" s="22" t="s">
-        <v>108</v>
+        <v>101</v>
+      </c>
+      <c r="M39" s="27" t="s">
+        <v>104</v>
       </c>
       <c r="N39" s="22" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="O39" s="22" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="P39" s="22" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="Q39" s="22" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R39" s="22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="S39" s="22" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="T39" s="22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C40" s="24"/>
+        <v>87</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>259</v>
+      </c>
       <c r="D40" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="F40" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="G40" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="E40" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="F40" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="G40" s="24"/>
       <c r="H40" s="24"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25" t="s">
-        <v>100</v>
-      </c>
+      <c r="I40" s="24"/>
+      <c r="J40" s="25"/>
       <c r="K40" s="25" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L40" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="M40" s="28" t="s">
-        <v>109</v>
+        <v>102</v>
+      </c>
+      <c r="M40" s="25" t="s">
+        <v>105</v>
       </c>
       <c r="N40" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="P40" s="28" t="s">
-        <v>119</v>
+        <v>108</v>
+      </c>
+      <c r="O40" s="28" t="s">
+        <v>111</v>
       </c>
       <c r="Q40" s="28" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R40" s="28" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="S40" s="28" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="T40" s="28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>62</v>
       </c>
@@ -2660,46 +2635,49 @@
       <c r="C41" s="16">
         <v>35</v>
       </c>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16">
+      <c r="D41" s="16">
+        <v>55</v>
+      </c>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16">
         <v>54</v>
       </c>
-      <c r="F41" s="17">
+      <c r="G41" s="17">
         <v>66</v>
       </c>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17">
+      <c r="H41" s="17"/>
+      <c r="I41" s="17">
         <v>130</v>
       </c>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18">
+      <c r="J41" s="18"/>
+      <c r="K41" s="18">
         <v>100</v>
       </c>
-      <c r="K41" s="18">
+      <c r="L41" s="18">
         <v>220</v>
       </c>
-      <c r="L41" s="19"/>
-      <c r="M41" s="23">
+      <c r="M41" s="19"/>
+      <c r="N41" s="23">
         <v>197</v>
       </c>
-      <c r="N41" s="23">
+      <c r="O41" s="23">
         <v>12500</v>
       </c>
-      <c r="O41" s="29"/>
-      <c r="P41" s="23">
+      <c r="P41" s="29"/>
+      <c r="Q41" s="23">
         <v>640</v>
       </c>
-      <c r="Q41" s="23">
+      <c r="R41" s="23">
         <v>360</v>
       </c>
-      <c r="R41" s="23">
+      <c r="S41" s="23">
         <v>960</v>
       </c>
-      <c r="S41" s="23">
+      <c r="T41" s="23">
         <v>480</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>63</v>
       </c>
@@ -2709,46 +2687,49 @@
       <c r="C42" s="16">
         <v>140</v>
       </c>
-      <c r="D42" s="16"/>
-      <c r="E42" s="17">
+      <c r="D42" s="16">
+        <v>275</v>
+      </c>
+      <c r="E42" s="16"/>
+      <c r="F42" s="17">
         <v>270</v>
       </c>
-      <c r="F42" s="17">
+      <c r="G42" s="17">
         <v>330</v>
       </c>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17">
+      <c r="H42" s="17"/>
+      <c r="I42" s="17">
         <v>650</v>
       </c>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18">
+      <c r="J42" s="18"/>
+      <c r="K42" s="18">
         <v>750</v>
       </c>
-      <c r="K42" s="18">
+      <c r="L42" s="18">
         <v>1650</v>
       </c>
-      <c r="L42" s="20"/>
-      <c r="M42" s="23">
+      <c r="M42" s="20"/>
+      <c r="N42" s="23">
         <v>990</v>
       </c>
-      <c r="N42" s="23">
+      <c r="O42" s="23">
         <v>240000</v>
       </c>
-      <c r="O42" s="29"/>
-      <c r="P42" s="23">
+      <c r="P42" s="29"/>
+      <c r="Q42" s="23">
         <v>8000</v>
       </c>
-      <c r="Q42" s="23">
+      <c r="R42" s="23">
         <v>1800</v>
       </c>
-      <c r="R42" s="23">
+      <c r="S42" s="23">
         <v>9600</v>
       </c>
-      <c r="S42" s="23">
+      <c r="T42" s="23">
         <v>5400</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>64</v>
       </c>
@@ -2758,46 +2739,49 @@
       <c r="C43" s="16">
         <v>120</v>
       </c>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16">
+      <c r="D43" s="16">
+        <v>220</v>
+      </c>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16">
         <v>270</v>
       </c>
-      <c r="F43" s="17">
+      <c r="G43" s="17">
         <v>330</v>
       </c>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17">
+      <c r="H43" s="17"/>
+      <c r="I43" s="17">
         <v>650</v>
       </c>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18">
+      <c r="J43" s="18"/>
+      <c r="K43" s="18">
         <v>500</v>
       </c>
-      <c r="K43" s="18">
+      <c r="L43" s="18">
         <v>1100</v>
       </c>
-      <c r="L43" s="19"/>
-      <c r="M43" s="23">
+      <c r="M43" s="19"/>
+      <c r="N43" s="23">
         <v>880</v>
       </c>
-      <c r="N43" s="23">
+      <c r="O43" s="23">
         <v>12000</v>
       </c>
-      <c r="O43" s="29"/>
-      <c r="P43" s="23">
+      <c r="P43" s="29"/>
+      <c r="Q43" s="23">
         <v>640</v>
       </c>
-      <c r="Q43" s="23">
+      <c r="R43" s="23">
         <v>1600</v>
       </c>
-      <c r="R43" s="23">
+      <c r="S43" s="23">
         <v>5000</v>
       </c>
-      <c r="S43" s="23">
+      <c r="T43" s="23">
         <v>2400</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>65</v>
       </c>
@@ -2806,54 +2790,55 @@
         <v>4</v>
       </c>
       <c r="C44" s="16">
-        <f t="shared" ref="C44:L44" si="9">C43/$B$36</f>
+        <f t="shared" ref="C44:M44" si="9">C43/$B$36</f>
         <v>6</v>
       </c>
       <c r="D44" s="16">
+        <f t="shared" ref="D44" si="10">D43/$B$36</f>
+        <v>11</v>
+      </c>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16">
+        <f t="shared" si="9"/>
+        <v>13.5</v>
+      </c>
+      <c r="G44" s="16">
+        <f t="shared" ref="G44" si="11">G43/$B$36</f>
+        <v>16.5</v>
+      </c>
+      <c r="H44" s="16">
+        <f t="shared" ref="H44" si="12">H43/$B$36</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="16">
+        <f>I43/$B$36</f>
+        <v>32.5</v>
+      </c>
+      <c r="J44" s="16">
+        <f t="shared" ref="J44" si="13">J43/$B$36</f>
+        <v>0</v>
+      </c>
+      <c r="K44" s="16">
+        <f>K43/$C$36</f>
+        <v>12.5</v>
+      </c>
+      <c r="L44" s="16">
+        <f t="shared" si="9"/>
+        <v>55</v>
+      </c>
+      <c r="M44" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E44" s="16">
-        <f t="shared" si="9"/>
-        <v>13.5</v>
-      </c>
-      <c r="F44" s="16">
-        <f t="shared" ref="F44" si="10">F43/$B$36</f>
-        <v>16.5</v>
-      </c>
-      <c r="G44" s="16">
-        <f t="shared" ref="G44" si="11">G43/$B$36</f>
-        <v>0</v>
-      </c>
-      <c r="H44" s="16">
-        <f>H43/$B$36</f>
-        <v>32.5</v>
-      </c>
-      <c r="I44" s="16">
-        <f t="shared" ref="I44" si="12">I43/$B$36</f>
-        <v>0</v>
-      </c>
-      <c r="J44" s="16">
-        <f>J43/$C$36</f>
-        <v>12.5</v>
-      </c>
-      <c r="K44" s="16">
-        <f t="shared" si="9"/>
-        <v>55</v>
-      </c>
-      <c r="L44" s="16">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M44" s="29"/>
       <c r="N44" s="29"/>
       <c r="O44" s="29"/>
       <c r="P44" s="29"/>
       <c r="Q44" s="29"/>
       <c r="R44" s="29"/>
       <c r="S44" s="29"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T44" s="29"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>66</v>
       </c>
@@ -2862,54 +2847,55 @@
         <v>3</v>
       </c>
       <c r="C45" s="16">
-        <f t="shared" ref="C45:L45" si="13">C41/$B$44</f>
+        <f t="shared" ref="C45:M45" si="14">C41/$B$44</f>
         <v>8.75</v>
       </c>
       <c r="D45" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="D45" si="15">D41/$B$44</f>
+        <v>13.75</v>
+      </c>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16">
+        <f>F41/$F$44</f>
+        <v>4</v>
+      </c>
+      <c r="G45" s="16">
+        <f t="shared" ref="G45:J45" si="16">G41/$F$44</f>
+        <v>4.8888888888888893</v>
+      </c>
+      <c r="H45" s="16">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="E45" s="16">
-        <f>E41/$E$44</f>
-        <v>4</v>
-      </c>
-      <c r="F45" s="16">
-        <f t="shared" ref="F45:I45" si="14">F41/$E$44</f>
-        <v>4.8888888888888893</v>
-      </c>
-      <c r="G45" s="16">
+      <c r="I45" s="16">
+        <f t="shared" si="16"/>
+        <v>9.6296296296296298</v>
+      </c>
+      <c r="J45" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="16">
+        <f>K41/$K$44</f>
+        <v>8</v>
+      </c>
+      <c r="L45" s="16">
+        <f t="shared" si="14"/>
+        <v>55</v>
+      </c>
+      <c r="M45" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="H45" s="16">
-        <f t="shared" si="14"/>
-        <v>9.6296296296296298</v>
-      </c>
-      <c r="I45" s="16">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="J45" s="16">
-        <f>J41/$J$44</f>
-        <v>8</v>
-      </c>
-      <c r="K45" s="16">
-        <f t="shared" si="13"/>
-        <v>55</v>
-      </c>
-      <c r="L45" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M45" s="29"/>
       <c r="N45" s="29"/>
       <c r="O45" s="29"/>
       <c r="P45" s="29"/>
       <c r="Q45" s="29"/>
       <c r="R45" s="29"/>
       <c r="S45" s="29"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T45" s="29"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>67</v>
       </c>
@@ -2918,77 +2904,79 @@
         <v>10</v>
       </c>
       <c r="C46" s="16">
-        <f t="shared" ref="C46:L46" si="15">C42/$B$44</f>
+        <f t="shared" ref="C46:M46" si="17">C42/$B$44</f>
         <v>35</v>
       </c>
       <c r="D46" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="D46" si="18">D42/$B$44</f>
+        <v>68.75</v>
+      </c>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16">
+        <f>F42/$F$44</f>
+        <v>20</v>
+      </c>
+      <c r="G46" s="16">
+        <f t="shared" ref="G46:J46" si="19">G42/$F$44</f>
+        <v>24.444444444444443</v>
+      </c>
+      <c r="H46" s="16">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="E46" s="16">
-        <f>E42/$E$44</f>
-        <v>20</v>
-      </c>
-      <c r="F46" s="16">
-        <f t="shared" ref="F46:I46" si="16">F42/$E$44</f>
-        <v>24.444444444444443</v>
-      </c>
-      <c r="G46" s="16">
-        <f t="shared" si="16"/>
+      <c r="I46" s="16">
+        <f t="shared" si="19"/>
+        <v>48.148148148148145</v>
+      </c>
+      <c r="J46" s="16">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="H46" s="16">
-        <f t="shared" si="16"/>
-        <v>48.148148148148145</v>
-      </c>
-      <c r="I46" s="16">
-        <f t="shared" si="16"/>
+      <c r="K46" s="16">
+        <f>K42/$K$44</f>
+        <v>60</v>
+      </c>
+      <c r="L46" s="16">
+        <f t="shared" si="17"/>
+        <v>412.5</v>
+      </c>
+      <c r="M46" s="16">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="J46" s="16">
-        <f>J42/$J$44</f>
-        <v>60</v>
-      </c>
-      <c r="K46" s="16">
-        <f t="shared" si="15"/>
-        <v>412.5</v>
-      </c>
-      <c r="L46" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="M46" s="29"/>
       <c r="N46" s="29"/>
       <c r="O46" s="29"/>
       <c r="P46" s="29"/>
       <c r="Q46" s="29"/>
       <c r="R46" s="29"/>
       <c r="S46" s="29"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T46" s="29"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>68</v>
       </c>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
       <c r="D47" s="16"/>
-      <c r="E47" s="17"/>
+      <c r="E47" s="16"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
       <c r="H47" s="17"/>
-      <c r="I47" s="18"/>
+      <c r="I47" s="17"/>
       <c r="J47" s="18"/>
       <c r="K47" s="18"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="29"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="20"/>
       <c r="N47" s="29"/>
       <c r="O47" s="29"/>
       <c r="P47" s="29"/>
       <c r="Q47" s="29"/>
       <c r="R47" s="29"/>
       <c r="S47" s="29"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T47" s="29"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>7</v>
       </c>
@@ -3001,49 +2989,50 @@
       <c r="D48" s="16">
         <v>280</v>
       </c>
-      <c r="E48" s="16">
+      <c r="E48" s="16"/>
+      <c r="F48" s="16">
         <v>265</v>
       </c>
-      <c r="F48" s="17">
+      <c r="G48" s="17">
         <v>150</v>
       </c>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17">
+      <c r="H48" s="17"/>
+      <c r="I48" s="17">
         <v>375</v>
       </c>
-      <c r="I48" s="18">
+      <c r="J48" s="18">
         <v>640</v>
       </c>
-      <c r="J48" s="18">
+      <c r="K48" s="18">
         <v>400</v>
       </c>
-      <c r="K48" s="18">
+      <c r="L48" s="18">
         <v>600</v>
       </c>
-      <c r="L48" s="19">
+      <c r="M48" s="19">
         <v>900</v>
       </c>
-      <c r="M48" s="23">
+      <c r="N48" s="23">
         <v>1200</v>
       </c>
-      <c r="N48" s="23">
+      <c r="O48" s="23">
         <v>30000</v>
       </c>
-      <c r="O48" s="29"/>
-      <c r="P48" s="23">
+      <c r="P48" s="29"/>
+      <c r="Q48" s="23">
         <v>3500</v>
       </c>
-      <c r="Q48" s="23">
+      <c r="R48" s="23">
         <v>2750</v>
       </c>
-      <c r="R48" s="23">
+      <c r="S48" s="23">
         <v>1600</v>
       </c>
-      <c r="S48" s="23">
+      <c r="T48" s="23">
         <v>4200</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
         <v>9</v>
       </c>
@@ -3051,42 +3040,45 @@
         <v>5</v>
       </c>
       <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="17">
+      <c r="D49" s="16">
+        <v>3</v>
+      </c>
+      <c r="E49" s="16"/>
+      <c r="F49" s="17">
         <v>3.6</v>
       </c>
-      <c r="F49" s="17">
+      <c r="G49" s="17">
         <v>2.6</v>
       </c>
-      <c r="G49" s="17"/>
       <c r="H49" s="17"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18">
+      <c r="I49" s="17"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18">
         <v>4.5</v>
       </c>
-      <c r="K49" s="18">
+      <c r="L49" s="18">
         <v>2.6</v>
       </c>
-      <c r="L49" s="20"/>
-      <c r="M49" s="29">
+      <c r="M49" s="20"/>
+      <c r="N49" s="29">
         <v>3.2</v>
       </c>
-      <c r="N49" s="23">
+      <c r="O49" s="23">
         <v>2.7</v>
       </c>
-      <c r="O49" s="29"/>
-      <c r="P49" s="23">
+      <c r="P49" s="29"/>
+      <c r="Q49" s="23">
         <v>3.75</v>
       </c>
-      <c r="Q49" s="29"/>
-      <c r="R49" s="23">
+      <c r="R49" s="29"/>
+      <c r="S49" s="23">
         <v>2.2999999999999998</v>
       </c>
-      <c r="S49" s="29">
+      <c r="T49" s="29">
         <v>3.6</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>69</v>
       </c>
@@ -3095,39 +3087,42 @@
         <v>20</v>
       </c>
       <c r="D50" s="16">
+        <v>31.25</v>
+      </c>
+      <c r="E50" s="16">
+        <v>30</v>
+      </c>
+      <c r="F50" s="16">
+        <v>25</v>
+      </c>
+      <c r="G50" s="17">
+        <v>33</v>
+      </c>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18">
         <v>35</v>
       </c>
-      <c r="E50" s="16">
-        <v>25</v>
-      </c>
-      <c r="F50" s="17">
-        <v>33</v>
-      </c>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18">
-        <v>35</v>
-      </c>
-      <c r="K50" s="18"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="29">
+      <c r="L50" s="18"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="29">
         <v>75</v>
       </c>
-      <c r="N50" s="29">
+      <c r="O50" s="29">
         <v>1380</v>
       </c>
-      <c r="O50" s="29"/>
       <c r="P50" s="29"/>
       <c r="Q50" s="29"/>
-      <c r="R50" s="29">
+      <c r="R50" s="29"/>
+      <c r="S50" s="29">
         <v>600</v>
       </c>
-      <c r="S50" s="29">
+      <c r="T50" s="29">
         <v>150</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
         <v>70</v>
       </c>
@@ -3138,19 +3133,20 @@
       <c r="F51" s="16"/>
       <c r="G51" s="16"/>
       <c r="H51" s="16"/>
-      <c r="I51" s="18"/>
+      <c r="I51" s="16"/>
       <c r="J51" s="18"/>
       <c r="K51" s="18"/>
-      <c r="L51" s="19"/>
-      <c r="M51" s="29"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="19"/>
       <c r="N51" s="29"/>
       <c r="O51" s="29"/>
       <c r="P51" s="29"/>
       <c r="Q51" s="29"/>
       <c r="R51" s="29"/>
       <c r="S51" s="29"/>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T51" s="29"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>71</v>
       </c>
@@ -3161,44 +3157,46 @@
       <c r="F52" s="16"/>
       <c r="G52" s="16"/>
       <c r="H52" s="16"/>
-      <c r="I52" s="18"/>
+      <c r="I52" s="16"/>
       <c r="J52" s="18"/>
       <c r="K52" s="18"/>
       <c r="L52" s="18"/>
-      <c r="M52" s="29"/>
+      <c r="M52" s="18"/>
       <c r="N52" s="29"/>
       <c r="O52" s="29"/>
       <c r="P52" s="29"/>
       <c r="Q52" s="29"/>
       <c r="R52" s="29"/>
       <c r="S52" s="29"/>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T52" s="29"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>72</v>
       </c>
       <c r="B53" s="16"/>
       <c r="C53" s="16"/>
       <c r="D53" s="16"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17">
+      <c r="E53" s="16"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17">
         <v>9</v>
       </c>
-      <c r="G53" s="17"/>
       <c r="H53" s="17"/>
-      <c r="I53" s="18"/>
+      <c r="I53" s="17"/>
       <c r="J53" s="18"/>
       <c r="K53" s="18"/>
-      <c r="L53" s="20"/>
-      <c r="M53" s="29"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="20"/>
       <c r="N53" s="29"/>
       <c r="O53" s="29"/>
       <c r="P53" s="29"/>
       <c r="Q53" s="29"/>
       <c r="R53" s="29"/>
       <c r="S53" s="29"/>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T53" s="29"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
         <v>73</v>
       </c>
@@ -3206,26 +3204,27 @@
       <c r="C54" s="16"/>
       <c r="D54" s="16"/>
       <c r="E54" s="16"/>
-      <c r="F54" s="16">
+      <c r="F54" s="16"/>
+      <c r="G54" s="16">
         <v>1.5</v>
       </c>
-      <c r="G54" s="16"/>
       <c r="H54" s="16"/>
-      <c r="I54" s="18"/>
+      <c r="I54" s="16"/>
       <c r="J54" s="18"/>
       <c r="K54" s="18"/>
       <c r="L54" s="18"/>
-      <c r="M54" s="29"/>
+      <c r="M54" s="18"/>
       <c r="N54" s="29"/>
       <c r="O54" s="29"/>
       <c r="P54" s="29"/>
       <c r="Q54" s="29"/>
-      <c r="R54" s="29">
+      <c r="R54" s="29"/>
+      <c r="S54" s="29">
         <v>5</v>
       </c>
-      <c r="S54" s="29"/>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T54" s="29"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>74</v>
       </c>
@@ -3233,24 +3232,25 @@
       <c r="C55" s="16"/>
       <c r="D55" s="16"/>
       <c r="E55" s="16"/>
-      <c r="F55" s="16">
+      <c r="F55" s="16"/>
+      <c r="G55" s="16">
         <v>5</v>
       </c>
-      <c r="G55" s="16"/>
       <c r="H55" s="16"/>
-      <c r="I55" s="18"/>
+      <c r="I55" s="16"/>
       <c r="J55" s="18"/>
       <c r="K55" s="18"/>
       <c r="L55" s="18"/>
-      <c r="M55" s="29"/>
+      <c r="M55" s="18"/>
       <c r="N55" s="29"/>
       <c r="O55" s="29"/>
       <c r="P55" s="29"/>
       <c r="Q55" s="29"/>
       <c r="R55" s="29"/>
       <c r="S55" s="29"/>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T55" s="29"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
         <v>75</v>
       </c>
@@ -3261,19 +3261,20 @@
       <c r="F56" s="16"/>
       <c r="G56" s="16"/>
       <c r="H56" s="16"/>
-      <c r="I56" s="18"/>
+      <c r="I56" s="16"/>
       <c r="J56" s="18"/>
       <c r="K56" s="18"/>
-      <c r="L56" s="19"/>
-      <c r="M56" s="29"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="19"/>
       <c r="N56" s="29"/>
       <c r="O56" s="29"/>
       <c r="P56" s="29"/>
       <c r="Q56" s="29"/>
       <c r="R56" s="29"/>
       <c r="S56" s="29"/>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T56" s="29"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>76</v>
       </c>
@@ -3281,71 +3282,79 @@
       <c r="C57" s="16">
         <v>14</v>
       </c>
-      <c r="D57" s="16"/>
-      <c r="E57" s="17">
+      <c r="D57" s="16">
+        <v>32</v>
+      </c>
+      <c r="E57" s="16">
+        <v>30</v>
+      </c>
+      <c r="F57" s="17">
         <v>18</v>
       </c>
-      <c r="F57" s="17">
+      <c r="G57" s="17">
         <v>28</v>
       </c>
-      <c r="G57" s="17"/>
       <c r="H57" s="17"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="18">
+      <c r="I57" s="17"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="18">
         <v>23</v>
       </c>
-      <c r="K57" s="18"/>
-      <c r="L57" s="20"/>
-      <c r="M57" s="29">
+      <c r="L57" s="18"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="29">
         <v>20</v>
       </c>
-      <c r="N57" s="23">
+      <c r="O57" s="23">
         <v>35</v>
       </c>
-      <c r="O57" s="29"/>
       <c r="P57" s="29"/>
-      <c r="Q57" s="29">
+      <c r="Q57" s="29"/>
+      <c r="R57" s="29">
         <v>35</v>
       </c>
-      <c r="R57" s="29"/>
-      <c r="S57" s="29">
+      <c r="S57" s="29"/>
+      <c r="T57" s="29">
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="17">
+      <c r="D58" s="16">
         <v>20</v>
       </c>
+      <c r="E58" s="16"/>
       <c r="F58" s="17">
         <v>20</v>
       </c>
-      <c r="G58" s="17"/>
+      <c r="G58" s="17">
+        <v>20</v>
+      </c>
       <c r="H58" s="17"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18">
+      <c r="I58" s="17"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18">
         <v>15</v>
       </c>
-      <c r="K58" s="18">
+      <c r="L58" s="18">
         <v>18</v>
       </c>
-      <c r="L58" s="23"/>
-      <c r="M58" s="29"/>
+      <c r="M58" s="23"/>
       <c r="N58" s="29"/>
       <c r="O58" s="29"/>
       <c r="P58" s="29"/>
       <c r="Q58" s="29"/>
       <c r="R58" s="29"/>
       <c r="S58" s="29"/>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T58" s="29"/>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
         <v>77</v>
       </c>
@@ -3355,38 +3364,39 @@
       <c r="C59" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D59" s="14"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="G59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="H59" s="15"/>
       <c r="I59" s="15"/>
       <c r="J59" s="15"/>
       <c r="K59" s="15"/>
       <c r="L59" s="15"/>
-      <c r="M59" t="s">
+      <c r="M59" s="15"/>
+      <c r="N59" t="s">
+        <v>112</v>
+      </c>
+      <c r="O59" t="s">
         <v>113</v>
       </c>
-      <c r="N59" t="s">
-        <v>114</v>
-      </c>
-      <c r="P59" t="s">
-        <v>120</v>
-      </c>
-      <c r="R59" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q59" t="s">
+        <v>119</v>
+      </c>
+      <c r="S59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
         <v>78</v>
       </c>
       <c r="B60" s="14"/>
       <c r="C60" s="15"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="14"/>
       <c r="F60" s="15"/>
       <c r="G60" s="15"/>
       <c r="H60" s="15"/>
@@ -3394,14 +3404,15 @@
       <c r="J60" s="15"/>
       <c r="K60" s="15"/>
       <c r="L60" s="15"/>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M60" s="15"/>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
         <v>79</v>
       </c>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
-      <c r="D61" s="15"/>
+      <c r="D61" s="14"/>
       <c r="E61" s="15"/>
       <c r="F61" s="15"/>
       <c r="G61" s="15"/>
@@ -3410,212 +3421,213 @@
       <c r="J61" s="15"/>
       <c r="K61" s="15"/>
       <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
     </row>
     <row r="67" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C67" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E67" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F67" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G67" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H67" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J67" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K67" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L67" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M67" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N67" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O67" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P67" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R67" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S67" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="T67" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="U67" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V67" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="W67" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X67" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Z67" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AA67" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AB67" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AC67" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AD67" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AE67" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AF67" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AG67" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AH67" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AI67" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AJ67" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AL67" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C68" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D68" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E68" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F68" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G68" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H68" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J68" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K68" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L68" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M68" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N68" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O68" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P68" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R68" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S68" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="T68" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="U68" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="V68" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="W68" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="X68" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Z68" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA68" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AB68" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AC68" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AD68" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AE68" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF68" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AG68" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AH68" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AI68" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AJ68" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AL68" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="70" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B70">
         <v>8000</v>
@@ -3690,19 +3702,19 @@
         <v>7000</v>
       </c>
       <c r="AF70" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AG70" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AH70" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AI70">
         <v>3800</v>
       </c>
       <c r="AJ70" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AL70">
         <v>500</v>
@@ -3710,7 +3722,7 @@
     </row>
     <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B71">
         <v>13300</v>
@@ -3793,7 +3805,7 @@
     </row>
     <row r="72" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B72">
         <v>1520</v>
@@ -3876,7 +3888,7 @@
     </row>
     <row r="73" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B73">
         <v>2600</v>
@@ -3959,7 +3971,7 @@
     </row>
     <row r="74" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B74">
         <v>40</v>
@@ -4003,7 +4015,7 @@
     </row>
     <row r="75" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J75">
         <v>150</v>
@@ -4035,7 +4047,7 @@
     </row>
     <row r="76" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J76">
         <v>1</v>
@@ -4043,7 +4055,7 @@
     </row>
     <row r="77" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="R77">
         <v>35</v>
@@ -4084,7 +4096,7 @@
     </row>
     <row r="78" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="R78">
         <v>44</v>
@@ -4125,7 +4137,7 @@
     </row>
     <row r="79" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="S79">
         <v>1.5</v>
@@ -4160,7 +4172,7 @@
     </row>
     <row r="80" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="R80">
         <v>2</v>
@@ -4189,7 +4201,7 @@
     </row>
     <row r="81" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="V81">
         <v>5</v>
@@ -4200,135 +4212,135 @@
     </row>
     <row r="82" spans="1:30" x14ac:dyDescent="0.25">
       <c r="Z82" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AA82" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AB82" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AC82" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="87" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B87" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C87" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D87" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E87" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F87" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G87" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H87" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I87" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J87" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K87" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L87" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="88" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B88" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C88" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D88" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E88" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F88" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G88" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H88" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I88" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J88" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K88" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L88" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="89" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B89" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C89" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D89" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E89" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F89" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G89" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H89" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I89" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J89" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K89" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L89" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="90" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B90">
         <v>500</v>
@@ -4357,7 +4369,7 @@
     </row>
     <row r="92" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B92">
         <v>2880</v>
@@ -4386,7 +4398,7 @@
     </row>
     <row r="93" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B93">
         <v>360</v>
@@ -4415,7 +4427,7 @@
     </row>
     <row r="94" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B94">
         <v>1440</v>
@@ -4444,7 +4456,7 @@
     </row>
     <row r="96" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B96">
         <v>6</v>
@@ -4473,45 +4485,45 @@
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D97" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E97" t="s">
+        <v>235</v>
+      </c>
+      <c r="F97" t="s">
+        <v>234</v>
+      </c>
+      <c r="G97" t="s">
+        <v>240</v>
+      </c>
+      <c r="H97" t="s">
+        <v>241</v>
+      </c>
+      <c r="I97" t="s">
+        <v>245</v>
+      </c>
+      <c r="J97" t="s">
+        <v>246</v>
+      </c>
+      <c r="K97" t="s">
+        <v>234</v>
+      </c>
+      <c r="L97" t="s">
         <v>236</v>
       </c>
-      <c r="F97" t="s">
-        <v>235</v>
-      </c>
-      <c r="G97" t="s">
+      <c r="M97" t="s">
+        <v>255</v>
+      </c>
+      <c r="N97" t="s">
         <v>241</v>
       </c>
-      <c r="H97" t="s">
-        <v>242</v>
-      </c>
-      <c r="I97" t="s">
-        <v>246</v>
-      </c>
-      <c r="J97" t="s">
-        <v>247</v>
-      </c>
-      <c r="K97" t="s">
-        <v>235</v>
-      </c>
-      <c r="L97" t="s">
-        <v>237</v>
-      </c>
-      <c r="M97" t="s">
-        <v>256</v>
-      </c>
-      <c r="N97" t="s">
-        <v>242</v>
-      </c>
       <c r="O97" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B98">
         <v>25</v>
@@ -4558,7 +4570,7 @@
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -4602,7 +4614,7 @@
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B100">
         <v>2</v>
@@ -4649,7 +4661,7 @@
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B101">
         <v>32</v>
@@ -4696,7 +4708,7 @@
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B102">
         <v>0.83299999999999996</v>
@@ -4743,7 +4755,7 @@
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B103">
         <v>41.6</v>
@@ -4752,7 +4764,7 @@
         <v>60</v>
       </c>
       <c r="D103" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E103">
         <v>50</v>
@@ -4790,16 +4802,16 @@
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>227</v>
+      </c>
+      <c r="D105" t="s">
         <v>228</v>
       </c>
-      <c r="D105" t="s">
-        <v>229</v>
-      </c>
       <c r="J105" t="s">
+        <v>253</v>
+      </c>
+      <c r="L105" t="s">
         <v>254</v>
-      </c>
-      <c r="L105" t="s">
-        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -4809,82 +4821,82 @@
     <mergeCell ref="J6:M6"/>
   </mergeCells>
   <conditionalFormatting sqref="G9:M33">
-    <cfRule type="expression" dxfId="51" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="71" stopIfTrue="1">
       <formula>G9&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="72" stopIfTrue="1">
       <formula>MOD(G9,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="39" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="61" stopIfTrue="1">
       <formula>B2&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="62" stopIfTrue="1">
       <formula>MOD(B2,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:F12">
-    <cfRule type="expression" dxfId="31" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="31" stopIfTrue="1">
       <formula>B12&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="32" stopIfTrue="1">
       <formula>MOD(B12,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:F33">
-    <cfRule type="expression" dxfId="21" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="37" stopIfTrue="1">
       <formula>B25&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="38" stopIfTrue="1">
       <formula>MOD(B25,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:F21">
-    <cfRule type="expression" dxfId="19" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="35" stopIfTrue="1">
       <formula>B20&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="36" stopIfTrue="1">
       <formula>MOD(B20,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:F22">
-    <cfRule type="expression" dxfId="17" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="33" stopIfTrue="1">
       <formula>B22&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="34" stopIfTrue="1">
       <formula>MOD(B22,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:F23">
-    <cfRule type="expression" dxfId="15" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="29" stopIfTrue="1">
       <formula>B23&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="30" stopIfTrue="1">
       <formula>MOD(B23,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:F33">
-    <cfRule type="expression" dxfId="13" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="39" stopIfTrue="1">
       <formula>B9&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="40" stopIfTrue="1">
       <formula>MOD(B9,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:F15">
-    <cfRule type="expression" dxfId="11" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="27" stopIfTrue="1">
       <formula>E15&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="28" stopIfTrue="1">
       <formula>MOD(E15,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:F16">
-    <cfRule type="expression" dxfId="9" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="25" stopIfTrue="1">
       <formula>E16&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="26" stopIfTrue="1">
       <formula>MOD(E16,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Units.xlsx
+++ b/Units.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="259">
   <si>
     <t>Stats</t>
   </si>
@@ -273,6 +273,9 @@
     <t>lab</t>
   </si>
   <si>
+    <t>aa/arty</t>
+  </si>
+  <si>
     <t>tank</t>
   </si>
   <si>
@@ -793,36 +796,6 @@
   </si>
   <si>
     <t>Golem</t>
-  </si>
-  <si>
-    <t>inu1007</t>
-  </si>
-  <si>
-    <t>Astor</t>
-  </si>
-  <si>
-    <t>inu1004</t>
-  </si>
-  <si>
-    <t>inu1001</t>
-  </si>
-  <si>
-    <t>inu1005</t>
-  </si>
-  <si>
-    <t>inu1006</t>
-  </si>
-  <si>
-    <t>inu1008</t>
-  </si>
-  <si>
-    <t>inu1002</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>arty</t>
   </si>
 </sst>
 </file>
@@ -1113,7 +1086,85 @@
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="52">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1504,10 +1555,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A73" sqref="A73"/>
-      <selection pane="topRight" activeCell="E50" sqref="E50"/>
+      <selection pane="topRight" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1562,19 +1613,19 @@
         <v>53</v>
       </c>
       <c r="B5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" t="s">
         <v>211</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>210</v>
       </c>
-      <c r="D5" t="s">
-        <v>209</v>
-      </c>
       <c r="E5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1615,7 +1666,7 @@
         <v>37</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>43</v>
@@ -2396,7 +2447,7 @@
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>14</v>
       </c>
@@ -2413,12 +2464,12 @@
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H34" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>15</v>
       </c>
@@ -2433,7 +2484,7 @@
       </c>
       <c r="E35" s="8"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>19</v>
       </c>
@@ -2448,69 +2499,51 @@
       </c>
       <c r="E36" s="8"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="D38" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="E38" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="F38" s="26" t="s">
-        <v>260</v>
-      </c>
-      <c r="G38" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="H38" s="26" t="s">
-        <v>261</v>
-      </c>
-      <c r="I38" s="26" t="s">
-        <v>262</v>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="I38" t="s">
+        <v>96</v>
       </c>
       <c r="J38" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K38" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="L38" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="M38" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="N38" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="O38" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q38" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="R38" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="S38" t="s">
-        <v>123</v>
-      </c>
-      <c r="T38" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>82</v>
       </c>
@@ -2521,111 +2554,103 @@
         <v>83</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="E39" s="21" t="s">
-        <v>267</v>
+        <v>84</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>85</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G39" s="22" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="I39" s="22" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="I39" s="27" t="s">
+        <v>97</v>
       </c>
       <c r="J39" s="27" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K39" s="27" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L39" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="M39" s="27" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="M39" s="22" t="s">
+        <v>108</v>
       </c>
       <c r="N39" s="22" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="O39" s="22" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="P39" s="22" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q39" s="22" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="R39" s="22" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="S39" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="T39" s="22" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>259</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C40" s="24"/>
       <c r="D40" s="24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F40" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="G40" s="24" t="s">
-        <v>93</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G40" s="24"/>
       <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25" t="s">
+        <v>100</v>
+      </c>
       <c r="K40" s="25" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="L40" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="M40" s="25" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="M40" s="28" t="s">
+        <v>109</v>
       </c>
       <c r="N40" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="O40" s="28" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="P40" s="28" t="s">
+        <v>119</v>
       </c>
       <c r="Q40" s="28" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="R40" s="28" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="S40" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="T40" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>62</v>
       </c>
@@ -2635,49 +2660,46 @@
       <c r="C41" s="16">
         <v>35</v>
       </c>
-      <c r="D41" s="16">
-        <v>55</v>
-      </c>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16">
+      <c r="D41" s="16"/>
+      <c r="E41" s="16">
         <v>54</v>
       </c>
-      <c r="G41" s="17">
+      <c r="F41" s="17">
         <v>66</v>
       </c>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17">
+      <c r="G41" s="17"/>
+      <c r="H41" s="17">
         <v>130</v>
       </c>
-      <c r="J41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18">
+        <v>100</v>
+      </c>
       <c r="K41" s="18">
-        <v>100</v>
-      </c>
-      <c r="L41" s="18">
         <v>220</v>
       </c>
-      <c r="M41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="23">
+        <v>197</v>
+      </c>
       <c r="N41" s="23">
-        <v>197</v>
-      </c>
-      <c r="O41" s="23">
         <v>12500</v>
       </c>
-      <c r="P41" s="29"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="23">
+        <v>640</v>
+      </c>
       <c r="Q41" s="23">
-        <v>640</v>
+        <v>360</v>
       </c>
       <c r="R41" s="23">
-        <v>360</v>
+        <v>960</v>
       </c>
       <c r="S41" s="23">
-        <v>960</v>
-      </c>
-      <c r="T41" s="23">
         <v>480</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>63</v>
       </c>
@@ -2687,49 +2709,46 @@
       <c r="C42" s="16">
         <v>140</v>
       </c>
-      <c r="D42" s="16">
-        <v>275</v>
-      </c>
-      <c r="E42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="17">
+        <v>270</v>
+      </c>
       <c r="F42" s="17">
-        <v>270</v>
-      </c>
-      <c r="G42" s="17">
         <v>330</v>
       </c>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17">
+      <c r="G42" s="17"/>
+      <c r="H42" s="17">
         <v>650</v>
       </c>
-      <c r="J42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18">
+        <v>750</v>
+      </c>
       <c r="K42" s="18">
-        <v>750</v>
-      </c>
-      <c r="L42" s="18">
         <v>1650</v>
       </c>
-      <c r="M42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="23">
+        <v>990</v>
+      </c>
       <c r="N42" s="23">
-        <v>990</v>
-      </c>
-      <c r="O42" s="23">
         <v>240000</v>
       </c>
-      <c r="P42" s="29"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="23">
+        <v>8000</v>
+      </c>
       <c r="Q42" s="23">
-        <v>8000</v>
+        <v>1800</v>
       </c>
       <c r="R42" s="23">
-        <v>1800</v>
+        <v>9600</v>
       </c>
       <c r="S42" s="23">
-        <v>9600</v>
-      </c>
-      <c r="T42" s="23">
         <v>5400</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>64</v>
       </c>
@@ -2739,49 +2758,46 @@
       <c r="C43" s="16">
         <v>120</v>
       </c>
-      <c r="D43" s="16">
-        <v>220</v>
-      </c>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16">
+      <c r="D43" s="16"/>
+      <c r="E43" s="16">
         <v>270</v>
       </c>
-      <c r="G43" s="17">
+      <c r="F43" s="17">
         <v>330</v>
       </c>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17">
+      <c r="G43" s="17"/>
+      <c r="H43" s="17">
         <v>650</v>
       </c>
-      <c r="J43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18">
+        <v>500</v>
+      </c>
       <c r="K43" s="18">
-        <v>500</v>
-      </c>
-      <c r="L43" s="18">
         <v>1100</v>
       </c>
-      <c r="M43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="23">
+        <v>880</v>
+      </c>
       <c r="N43" s="23">
-        <v>880</v>
-      </c>
-      <c r="O43" s="23">
         <v>12000</v>
       </c>
-      <c r="P43" s="29"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="23">
+        <v>640</v>
+      </c>
       <c r="Q43" s="23">
-        <v>640</v>
+        <v>1600</v>
       </c>
       <c r="R43" s="23">
-        <v>1600</v>
+        <v>5000</v>
       </c>
       <c r="S43" s="23">
-        <v>5000</v>
-      </c>
-      <c r="T43" s="23">
         <v>2400</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>65</v>
       </c>
@@ -2790,55 +2806,54 @@
         <v>4</v>
       </c>
       <c r="C44" s="16">
-        <f t="shared" ref="C44:M44" si="9">C43/$B$36</f>
+        <f t="shared" ref="C44:L44" si="9">C43/$B$36</f>
         <v>6</v>
       </c>
       <c r="D44" s="16">
-        <f t="shared" ref="D44" si="10">D43/$B$36</f>
-        <v>11</v>
-      </c>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E44" s="16">
         <f t="shared" si="9"/>
         <v>13.5</v>
       </c>
+      <c r="F44" s="16">
+        <f t="shared" ref="F44" si="10">F43/$B$36</f>
+        <v>16.5</v>
+      </c>
       <c r="G44" s="16">
         <f t="shared" ref="G44" si="11">G43/$B$36</f>
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="H44" s="16">
-        <f t="shared" ref="H44" si="12">H43/$B$36</f>
+        <f>H43/$B$36</f>
+        <v>32.5</v>
+      </c>
+      <c r="I44" s="16">
+        <f t="shared" ref="I44" si="12">I43/$B$36</f>
         <v>0</v>
       </c>
-      <c r="I44" s="16">
-        <f>I43/$B$36</f>
-        <v>32.5</v>
-      </c>
       <c r="J44" s="16">
-        <f t="shared" ref="J44" si="13">J43/$B$36</f>
-        <v>0</v>
+        <f>J43/$C$36</f>
+        <v>12.5</v>
       </c>
       <c r="K44" s="16">
-        <f>K43/$C$36</f>
-        <v>12.5</v>
+        <f t="shared" si="9"/>
+        <v>55</v>
       </c>
       <c r="L44" s="16">
         <f t="shared" si="9"/>
-        <v>55</v>
-      </c>
-      <c r="M44" s="16">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="M44" s="29"/>
       <c r="N44" s="29"/>
       <c r="O44" s="29"/>
       <c r="P44" s="29"/>
       <c r="Q44" s="29"/>
       <c r="R44" s="29"/>
       <c r="S44" s="29"/>
-      <c r="T44" s="29"/>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>66</v>
       </c>
@@ -2847,55 +2862,54 @@
         <v>3</v>
       </c>
       <c r="C45" s="16">
-        <f t="shared" ref="C45:M45" si="14">C41/$B$44</f>
+        <f t="shared" ref="C45:L45" si="13">C41/$B$44</f>
         <v>8.75</v>
       </c>
       <c r="D45" s="16">
-        <f t="shared" ref="D45" si="15">D41/$B$44</f>
-        <v>13.75</v>
-      </c>
-      <c r="E45" s="16"/>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E45" s="16">
+        <f>E41/$E$44</f>
+        <v>4</v>
+      </c>
       <c r="F45" s="16">
-        <f>F41/$F$44</f>
-        <v>4</v>
+        <f t="shared" ref="F45:I45" si="14">F41/$E$44</f>
+        <v>4.8888888888888893</v>
       </c>
       <c r="G45" s="16">
-        <f t="shared" ref="G45:J45" si="16">G41/$F$44</f>
-        <v>4.8888888888888893</v>
-      </c>
-      <c r="H45" s="16">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="16">
-        <f t="shared" si="16"/>
-        <v>9.6296296296296298</v>
-      </c>
-      <c r="J45" s="16">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="K45" s="16">
-        <f>K41/$K$44</f>
-        <v>8</v>
-      </c>
-      <c r="L45" s="16">
-        <f t="shared" si="14"/>
-        <v>55</v>
-      </c>
-      <c r="M45" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="H45" s="16">
+        <f t="shared" si="14"/>
+        <v>9.6296296296296298</v>
+      </c>
+      <c r="I45" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="16">
+        <f>J41/$J$44</f>
+        <v>8</v>
+      </c>
+      <c r="K45" s="16">
+        <f t="shared" si="13"/>
+        <v>55</v>
+      </c>
+      <c r="L45" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="29"/>
       <c r="N45" s="29"/>
       <c r="O45" s="29"/>
       <c r="P45" s="29"/>
       <c r="Q45" s="29"/>
       <c r="R45" s="29"/>
       <c r="S45" s="29"/>
-      <c r="T45" s="29"/>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>67</v>
       </c>
@@ -2904,79 +2918,77 @@
         <v>10</v>
       </c>
       <c r="C46" s="16">
-        <f t="shared" ref="C46:M46" si="17">C42/$B$44</f>
+        <f t="shared" ref="C46:L46" si="15">C42/$B$44</f>
         <v>35</v>
       </c>
       <c r="D46" s="16">
-        <f t="shared" ref="D46" si="18">D42/$B$44</f>
-        <v>68.75</v>
-      </c>
-      <c r="E46" s="16"/>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E46" s="16">
+        <f>E42/$E$44</f>
+        <v>20</v>
+      </c>
       <c r="F46" s="16">
-        <f>F42/$F$44</f>
-        <v>20</v>
+        <f t="shared" ref="F46:I46" si="16">F42/$E$44</f>
+        <v>24.444444444444443</v>
       </c>
       <c r="G46" s="16">
-        <f t="shared" ref="G46:J46" si="19">G42/$F$44</f>
-        <v>24.444444444444443</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="H46" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
+        <v>48.148148148148145</v>
+      </c>
+      <c r="I46" s="16">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I46" s="16">
-        <f t="shared" si="19"/>
-        <v>48.148148148148145</v>
-      </c>
       <c r="J46" s="16">
-        <f t="shared" si="19"/>
+        <f>J42/$J$44</f>
+        <v>60</v>
+      </c>
+      <c r="K46" s="16">
+        <f t="shared" si="15"/>
+        <v>412.5</v>
+      </c>
+      <c r="L46" s="16">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="K46" s="16">
-        <f>K42/$K$44</f>
-        <v>60</v>
-      </c>
-      <c r="L46" s="16">
-        <f t="shared" si="17"/>
-        <v>412.5</v>
-      </c>
-      <c r="M46" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
+      <c r="M46" s="29"/>
       <c r="N46" s="29"/>
       <c r="O46" s="29"/>
       <c r="P46" s="29"/>
       <c r="Q46" s="29"/>
       <c r="R46" s="29"/>
       <c r="S46" s="29"/>
-      <c r="T46" s="29"/>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>68</v>
       </c>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
       <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
+      <c r="E47" s="17"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
       <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
+      <c r="I47" s="18"/>
       <c r="J47" s="18"/>
       <c r="K47" s="18"/>
-      <c r="L47" s="18"/>
-      <c r="M47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="29"/>
       <c r="N47" s="29"/>
       <c r="O47" s="29"/>
       <c r="P47" s="29"/>
       <c r="Q47" s="29"/>
       <c r="R47" s="29"/>
       <c r="S47" s="29"/>
-      <c r="T47" s="29"/>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>7</v>
       </c>
@@ -2989,50 +3001,49 @@
       <c r="D48" s="16">
         <v>280</v>
       </c>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16">
+      <c r="E48" s="16">
         <v>265</v>
       </c>
-      <c r="G48" s="17">
+      <c r="F48" s="17">
         <v>150</v>
       </c>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17">
+      <c r="G48" s="17"/>
+      <c r="H48" s="17">
         <v>375</v>
       </c>
+      <c r="I48" s="18">
+        <v>640</v>
+      </c>
       <c r="J48" s="18">
-        <v>640</v>
+        <v>400</v>
       </c>
       <c r="K48" s="18">
-        <v>400</v>
-      </c>
-      <c r="L48" s="18">
         <v>600</v>
       </c>
-      <c r="M48" s="19">
+      <c r="L48" s="19">
         <v>900</v>
       </c>
+      <c r="M48" s="23">
+        <v>1200</v>
+      </c>
       <c r="N48" s="23">
-        <v>1200</v>
-      </c>
-      <c r="O48" s="23">
         <v>30000</v>
       </c>
-      <c r="P48" s="29"/>
+      <c r="O48" s="29"/>
+      <c r="P48" s="23">
+        <v>3500</v>
+      </c>
       <c r="Q48" s="23">
-        <v>3500</v>
+        <v>2750</v>
       </c>
       <c r="R48" s="23">
-        <v>2750</v>
+        <v>1600</v>
       </c>
       <c r="S48" s="23">
-        <v>1600</v>
-      </c>
-      <c r="T48" s="23">
         <v>4200</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
         <v>9</v>
       </c>
@@ -3040,45 +3051,42 @@
         <v>5</v>
       </c>
       <c r="C49" s="16"/>
-      <c r="D49" s="16">
-        <v>3</v>
-      </c>
-      <c r="E49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="17">
+        <v>3.6</v>
+      </c>
       <c r="F49" s="17">
+        <v>2.6</v>
+      </c>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18">
+        <v>4.5</v>
+      </c>
+      <c r="K49" s="18">
+        <v>2.6</v>
+      </c>
+      <c r="L49" s="20"/>
+      <c r="M49" s="29">
+        <v>3.2</v>
+      </c>
+      <c r="N49" s="23">
+        <v>2.7</v>
+      </c>
+      <c r="O49" s="29"/>
+      <c r="P49" s="23">
+        <v>3.75</v>
+      </c>
+      <c r="Q49" s="29"/>
+      <c r="R49" s="23">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="S49" s="29">
         <v>3.6</v>
       </c>
-      <c r="G49" s="17">
-        <v>2.6</v>
-      </c>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18">
-        <v>4.5</v>
-      </c>
-      <c r="L49" s="18">
-        <v>2.6</v>
-      </c>
-      <c r="M49" s="20"/>
-      <c r="N49" s="29">
-        <v>3.2</v>
-      </c>
-      <c r="O49" s="23">
-        <v>2.7</v>
-      </c>
-      <c r="P49" s="29"/>
-      <c r="Q49" s="23">
-        <v>3.75</v>
-      </c>
-      <c r="R49" s="29"/>
-      <c r="S49" s="23">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="T49" s="29">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>69</v>
       </c>
@@ -3087,42 +3095,39 @@
         <v>20</v>
       </c>
       <c r="D50" s="16">
-        <v>31.25</v>
+        <v>35</v>
       </c>
       <c r="E50" s="16">
-        <v>30</v>
-      </c>
-      <c r="F50" s="16">
         <v>25</v>
       </c>
-      <c r="G50" s="17">
+      <c r="F50" s="17">
         <v>33</v>
       </c>
+      <c r="G50" s="17"/>
       <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18">
+      <c r="I50" s="18"/>
+      <c r="J50" s="18">
         <v>35</v>
       </c>
-      <c r="L50" s="18"/>
-      <c r="M50" s="19"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="29">
+        <v>75</v>
+      </c>
       <c r="N50" s="29">
-        <v>75</v>
-      </c>
-      <c r="O50" s="29">
         <v>1380</v>
       </c>
+      <c r="O50" s="29"/>
       <c r="P50" s="29"/>
       <c r="Q50" s="29"/>
-      <c r="R50" s="29"/>
+      <c r="R50" s="29">
+        <v>600</v>
+      </c>
       <c r="S50" s="29">
-        <v>600</v>
-      </c>
-      <c r="T50" s="29">
         <v>150</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
         <v>70</v>
       </c>
@@ -3133,20 +3138,19 @@
       <c r="F51" s="16"/>
       <c r="G51" s="16"/>
       <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
+      <c r="I51" s="18"/>
       <c r="J51" s="18"/>
       <c r="K51" s="18"/>
-      <c r="L51" s="18"/>
-      <c r="M51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="29"/>
       <c r="N51" s="29"/>
       <c r="O51" s="29"/>
       <c r="P51" s="29"/>
       <c r="Q51" s="29"/>
       <c r="R51" s="29"/>
       <c r="S51" s="29"/>
-      <c r="T51" s="29"/>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>71</v>
       </c>
@@ -3157,46 +3161,44 @@
       <c r="F52" s="16"/>
       <c r="G52" s="16"/>
       <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
+      <c r="I52" s="18"/>
       <c r="J52" s="18"/>
       <c r="K52" s="18"/>
       <c r="L52" s="18"/>
-      <c r="M52" s="18"/>
+      <c r="M52" s="29"/>
       <c r="N52" s="29"/>
       <c r="O52" s="29"/>
       <c r="P52" s="29"/>
       <c r="Q52" s="29"/>
       <c r="R52" s="29"/>
       <c r="S52" s="29"/>
-      <c r="T52" s="29"/>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>72</v>
       </c>
       <c r="B53" s="16"/>
       <c r="C53" s="16"/>
       <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17">
+      <c r="E53" s="17"/>
+      <c r="F53" s="17">
         <v>9</v>
       </c>
+      <c r="G53" s="17"/>
       <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
+      <c r="I53" s="18"/>
       <c r="J53" s="18"/>
       <c r="K53" s="18"/>
-      <c r="L53" s="18"/>
-      <c r="M53" s="20"/>
+      <c r="L53" s="20"/>
+      <c r="M53" s="29"/>
       <c r="N53" s="29"/>
       <c r="O53" s="29"/>
       <c r="P53" s="29"/>
       <c r="Q53" s="29"/>
       <c r="R53" s="29"/>
       <c r="S53" s="29"/>
-      <c r="T53" s="29"/>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
         <v>73</v>
       </c>
@@ -3204,27 +3206,26 @@
       <c r="C54" s="16"/>
       <c r="D54" s="16"/>
       <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16">
+      <c r="F54" s="16">
         <v>1.5</v>
       </c>
+      <c r="G54" s="16"/>
       <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
+      <c r="I54" s="18"/>
       <c r="J54" s="18"/>
       <c r="K54" s="18"/>
       <c r="L54" s="18"/>
-      <c r="M54" s="18"/>
+      <c r="M54" s="29"/>
       <c r="N54" s="29"/>
       <c r="O54" s="29"/>
       <c r="P54" s="29"/>
       <c r="Q54" s="29"/>
-      <c r="R54" s="29"/>
-      <c r="S54" s="29">
+      <c r="R54" s="29">
         <v>5</v>
       </c>
-      <c r="T54" s="29"/>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S54" s="29"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>74</v>
       </c>
@@ -3232,25 +3233,24 @@
       <c r="C55" s="16"/>
       <c r="D55" s="16"/>
       <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16">
+      <c r="F55" s="16">
         <v>5</v>
       </c>
+      <c r="G55" s="16"/>
       <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
+      <c r="I55" s="18"/>
       <c r="J55" s="18"/>
       <c r="K55" s="18"/>
       <c r="L55" s="18"/>
-      <c r="M55" s="18"/>
+      <c r="M55" s="29"/>
       <c r="N55" s="29"/>
       <c r="O55" s="29"/>
       <c r="P55" s="29"/>
       <c r="Q55" s="29"/>
       <c r="R55" s="29"/>
       <c r="S55" s="29"/>
-      <c r="T55" s="29"/>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
         <v>75</v>
       </c>
@@ -3261,20 +3261,19 @@
       <c r="F56" s="16"/>
       <c r="G56" s="16"/>
       <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
+      <c r="I56" s="18"/>
       <c r="J56" s="18"/>
       <c r="K56" s="18"/>
-      <c r="L56" s="18"/>
-      <c r="M56" s="19"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="29"/>
       <c r="N56" s="29"/>
       <c r="O56" s="29"/>
       <c r="P56" s="29"/>
       <c r="Q56" s="29"/>
       <c r="R56" s="29"/>
       <c r="S56" s="29"/>
-      <c r="T56" s="29"/>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>76</v>
       </c>
@@ -3282,79 +3281,71 @@
       <c r="C57" s="16">
         <v>14</v>
       </c>
-      <c r="D57" s="16">
-        <v>32</v>
-      </c>
-      <c r="E57" s="16">
-        <v>30</v>
+      <c r="D57" s="16"/>
+      <c r="E57" s="17">
+        <v>18</v>
       </c>
       <c r="F57" s="17">
-        <v>18</v>
-      </c>
-      <c r="G57" s="17">
         <v>28</v>
       </c>
+      <c r="G57" s="17"/>
       <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="18"/>
-      <c r="K57" s="18">
+      <c r="I57" s="18"/>
+      <c r="J57" s="18">
         <v>23</v>
       </c>
-      <c r="L57" s="18"/>
-      <c r="M57" s="20"/>
-      <c r="N57" s="29">
+      <c r="K57" s="18"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="29">
         <v>20</v>
       </c>
-      <c r="O57" s="23">
+      <c r="N57" s="23">
         <v>35</v>
       </c>
+      <c r="O57" s="29"/>
       <c r="P57" s="29"/>
-      <c r="Q57" s="29"/>
-      <c r="R57" s="29">
+      <c r="Q57" s="29">
         <v>35</v>
       </c>
-      <c r="S57" s="29"/>
-      <c r="T57" s="29">
+      <c r="R57" s="29"/>
+      <c r="S57" s="29">
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C58" s="16"/>
-      <c r="D58" s="16">
+      <c r="D58" s="16"/>
+      <c r="E58" s="17">
         <v>20</v>
       </c>
-      <c r="E58" s="16"/>
       <c r="F58" s="17">
         <v>20</v>
       </c>
-      <c r="G58" s="17">
-        <v>20</v>
-      </c>
+      <c r="G58" s="17"/>
       <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18">
+        <v>15</v>
+      </c>
       <c r="K58" s="18">
-        <v>15</v>
-      </c>
-      <c r="L58" s="18">
         <v>18</v>
       </c>
-      <c r="M58" s="23"/>
+      <c r="L58" s="23"/>
+      <c r="M58" s="29"/>
       <c r="N58" s="29"/>
       <c r="O58" s="29"/>
       <c r="P58" s="29"/>
       <c r="Q58" s="29"/>
       <c r="R58" s="29"/>
       <c r="S58" s="29"/>
-      <c r="T58" s="29"/>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
         <v>77</v>
       </c>
@@ -3364,39 +3355,38 @@
       <c r="C59" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D59" s="15"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15" t="s">
-        <v>94</v>
-      </c>
+      <c r="D59" s="14"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="G59" s="15"/>
       <c r="H59" s="15"/>
       <c r="I59" s="15"/>
       <c r="J59" s="15"/>
       <c r="K59" s="15"/>
       <c r="L59" s="15"/>
-      <c r="M59" s="15"/>
+      <c r="M59" t="s">
+        <v>113</v>
+      </c>
       <c r="N59" t="s">
-        <v>112</v>
-      </c>
-      <c r="O59" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>119</v>
-      </c>
-      <c r="S59" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="P59" t="s">
+        <v>120</v>
+      </c>
+      <c r="R59" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
         <v>78</v>
       </c>
       <c r="B60" s="14"/>
       <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="15"/>
       <c r="F60" s="15"/>
       <c r="G60" s="15"/>
       <c r="H60" s="15"/>
@@ -3404,15 +3394,14 @@
       <c r="J60" s="15"/>
       <c r="K60" s="15"/>
       <c r="L60" s="15"/>
-      <c r="M60" s="15"/>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
         <v>79</v>
       </c>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
+      <c r="D61" s="15"/>
       <c r="E61" s="15"/>
       <c r="F61" s="15"/>
       <c r="G61" s="15"/>
@@ -3421,213 +3410,212 @@
       <c r="J61" s="15"/>
       <c r="K61" s="15"/>
       <c r="L61" s="15"/>
-      <c r="M61" s="15"/>
     </row>
     <row r="67" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C67" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D67" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E67" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F67" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G67" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H67" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J67" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K67" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L67" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M67" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N67" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O67" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P67" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="R67" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="S67" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="T67" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="U67" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="V67" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="W67" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="X67" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Z67" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AA67" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AB67" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AC67" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AD67" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AE67" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AF67" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG67" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AH67" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AI67" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AJ67" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AL67" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
+        <v>139</v>
+      </c>
+      <c r="C68" t="s">
         <v>138</v>
       </c>
-      <c r="C68" t="s">
-        <v>137</v>
-      </c>
       <c r="D68" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E68" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F68" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G68" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H68" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J68" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K68" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L68" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M68" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N68" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O68" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P68" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="R68" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="S68" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="T68" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="U68" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="V68" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="W68" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="X68" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Z68" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AA68" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AB68" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AC68" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AD68" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AE68" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF68" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG68" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AH68" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AI68" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AJ68" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL68" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="70" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B70">
         <v>8000</v>
@@ -3702,19 +3690,19 @@
         <v>7000</v>
       </c>
       <c r="AF70" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG70" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AH70" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AI70">
         <v>3800</v>
       </c>
       <c r="AJ70" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL70">
         <v>500</v>
@@ -3722,7 +3710,7 @@
     </row>
     <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B71">
         <v>13300</v>
@@ -3805,7 +3793,7 @@
     </row>
     <row r="72" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B72">
         <v>1520</v>
@@ -3888,7 +3876,7 @@
     </row>
     <row r="73" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B73">
         <v>2600</v>
@@ -3971,7 +3959,7 @@
     </row>
     <row r="74" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B74">
         <v>40</v>
@@ -4015,7 +4003,7 @@
     </row>
     <row r="75" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J75">
         <v>150</v>
@@ -4047,7 +4035,7 @@
     </row>
     <row r="76" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J76">
         <v>1</v>
@@ -4055,7 +4043,7 @@
     </row>
     <row r="77" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="R77">
         <v>35</v>
@@ -4096,7 +4084,7 @@
     </row>
     <row r="78" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="R78">
         <v>44</v>
@@ -4137,7 +4125,7 @@
     </row>
     <row r="79" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="S79">
         <v>1.5</v>
@@ -4172,7 +4160,7 @@
     </row>
     <row r="80" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="R80">
         <v>2</v>
@@ -4201,7 +4189,7 @@
     </row>
     <row r="81" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="V81">
         <v>5</v>
@@ -4212,135 +4200,135 @@
     </row>
     <row r="82" spans="1:30" x14ac:dyDescent="0.25">
       <c r="Z82" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AA82" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AB82" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AC82" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="87" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B87" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C87" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D87" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E87" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F87" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G87" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H87" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I87" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J87" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K87" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L87" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="88" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B88" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C88" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D88" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E88" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F88" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G88" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H88" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I88" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J88" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K88" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L88" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="89" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>217</v>
+      </c>
+      <c r="B89" t="s">
         <v>216</v>
       </c>
-      <c r="B89" t="s">
-        <v>215</v>
-      </c>
       <c r="C89" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D89" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E89" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F89" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G89" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H89" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I89" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J89" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K89" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L89" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="90" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B90">
         <v>500</v>
@@ -4369,7 +4357,7 @@
     </row>
     <row r="92" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B92">
         <v>2880</v>
@@ -4398,7 +4386,7 @@
     </row>
     <row r="93" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B93">
         <v>360</v>
@@ -4427,7 +4415,7 @@
     </row>
     <row r="94" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B94">
         <v>1440</v>
@@ -4456,7 +4444,7 @@
     </row>
     <row r="96" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B96">
         <v>6</v>
@@ -4485,45 +4473,45 @@
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D97" t="s">
+        <v>237</v>
+      </c>
+      <c r="E97" t="s">
         <v>236</v>
       </c>
-      <c r="E97" t="s">
+      <c r="F97" t="s">
         <v>235</v>
       </c>
-      <c r="F97" t="s">
-        <v>234</v>
-      </c>
       <c r="G97" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H97" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I97" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J97" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K97" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L97" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M97" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N97" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O97" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B98">
         <v>25</v>
@@ -4570,7 +4558,7 @@
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -4614,7 +4602,7 @@
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B100">
         <v>2</v>
@@ -4661,7 +4649,7 @@
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B101">
         <v>32</v>
@@ -4708,7 +4696,7 @@
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B102">
         <v>0.83299999999999996</v>
@@ -4755,7 +4743,7 @@
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B103">
         <v>41.6</v>
@@ -4764,7 +4752,7 @@
         <v>60</v>
       </c>
       <c r="D103" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E103">
         <v>50</v>
@@ -4802,16 +4790,16 @@
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D105" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J105" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L105" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -4821,82 +4809,82 @@
     <mergeCell ref="J6:M6"/>
   </mergeCells>
   <conditionalFormatting sqref="G9:M33">
-    <cfRule type="expression" dxfId="25" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="71" stopIfTrue="1">
       <formula>G9&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="72" stopIfTrue="1">
       <formula>MOD(G9,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="23" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="61" stopIfTrue="1">
       <formula>B2&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="62" stopIfTrue="1">
       <formula>MOD(B2,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:F12">
-    <cfRule type="expression" dxfId="21" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="31" stopIfTrue="1">
       <formula>B12&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="32" stopIfTrue="1">
       <formula>MOD(B12,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:F33">
-    <cfRule type="expression" dxfId="19" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="37" stopIfTrue="1">
       <formula>B25&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="38" stopIfTrue="1">
       <formula>MOD(B25,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:F21">
-    <cfRule type="expression" dxfId="17" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="35" stopIfTrue="1">
       <formula>B20&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="36" stopIfTrue="1">
       <formula>MOD(B20,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:F22">
-    <cfRule type="expression" dxfId="15" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="33" stopIfTrue="1">
       <formula>B22&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="34" stopIfTrue="1">
       <formula>MOD(B22,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:F23">
-    <cfRule type="expression" dxfId="13" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="29" stopIfTrue="1">
       <formula>B23&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="30" stopIfTrue="1">
       <formula>MOD(B23,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:F33">
-    <cfRule type="expression" dxfId="11" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="39" stopIfTrue="1">
       <formula>B9&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="40" stopIfTrue="1">
       <formula>MOD(B9,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:F15">
-    <cfRule type="expression" dxfId="9" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="27" stopIfTrue="1">
       <formula>E15&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="28" stopIfTrue="1">
       <formula>MOD(E15,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:F16">
-    <cfRule type="expression" dxfId="7" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="25" stopIfTrue="1">
       <formula>E16&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="26" stopIfTrue="1">
       <formula>MOD(E16,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Units.xlsx
+++ b/Units.xlsx
@@ -1086,85 +1086,7 @@
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="52">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
+  <dxfs count="26">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1555,10 +1477,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A73" sqref="A73"/>
-      <selection pane="topRight" activeCell="F24" sqref="F24"/>
+      <selection pane="topRight" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2447,7 +2369,7 @@
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>14</v>
       </c>
@@ -2464,12 +2386,12 @@
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H34" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>15</v>
       </c>
@@ -2484,7 +2406,7 @@
       </c>
       <c r="E35" s="8"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>19</v>
       </c>
@@ -2499,7 +2421,7 @@
       </c>
       <c r="E36" s="8"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>60</v>
       </c>
@@ -2543,7 +2465,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>82</v>
       </c>
@@ -2556,53 +2478,54 @@
       <c r="D39" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="E39" s="22" t="s">
+      <c r="E39" s="21"/>
+      <c r="F39" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="F39" s="22" t="s">
+      <c r="G39" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="G39" s="22" t="s">
+      <c r="H39" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="H39" s="22" t="s">
+      <c r="I39" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="I39" s="27" t="s">
+      <c r="J39" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="J39" s="27" t="s">
+      <c r="K39" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="K39" s="27" t="s">
+      <c r="L39" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="L39" s="27" t="s">
+      <c r="M39" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="M39" s="22" t="s">
+      <c r="N39" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="N39" s="22" t="s">
+      <c r="O39" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="O39" s="22" t="s">
+      <c r="P39" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="P39" s="22" t="s">
+      <c r="Q39" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="Q39" s="22" t="s">
+      <c r="R39" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="R39" s="22" t="s">
+      <c r="S39" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="S39" s="22" t="s">
+      <c r="T39" s="22" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>61</v>
       </c>
@@ -2613,44 +2536,45 @@
       <c r="D40" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="E40" s="24" t="s">
+      <c r="E40" s="24"/>
+      <c r="F40" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="F40" s="24" t="s">
+      <c r="G40" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="G40" s="24"/>
       <c r="H40" s="24"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25" t="s">
+      <c r="I40" s="24"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="K40" s="25" t="s">
+      <c r="L40" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="L40" s="25" t="s">
+      <c r="M40" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="M40" s="28" t="s">
+      <c r="N40" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="N40" s="28" t="s">
+      <c r="O40" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="P40" s="28" t="s">
+      <c r="Q40" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="Q40" s="28" t="s">
+      <c r="R40" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="R40" s="28" t="s">
+      <c r="S40" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="S40" s="28" t="s">
+      <c r="T40" s="28" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>62</v>
       </c>
@@ -2661,45 +2585,46 @@
         <v>35</v>
       </c>
       <c r="D41" s="16"/>
-      <c r="E41" s="16">
+      <c r="E41" s="16"/>
+      <c r="F41" s="16">
         <v>54</v>
       </c>
-      <c r="F41" s="17">
+      <c r="G41" s="17">
         <v>66</v>
       </c>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17">
+      <c r="H41" s="17"/>
+      <c r="I41" s="17">
         <v>130</v>
       </c>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18">
+      <c r="J41" s="18"/>
+      <c r="K41" s="18">
         <v>100</v>
       </c>
-      <c r="K41" s="18">
+      <c r="L41" s="18">
         <v>220</v>
       </c>
-      <c r="L41" s="19"/>
-      <c r="M41" s="23">
+      <c r="M41" s="19"/>
+      <c r="N41" s="23">
         <v>197</v>
       </c>
-      <c r="N41" s="23">
+      <c r="O41" s="23">
         <v>12500</v>
       </c>
-      <c r="O41" s="29"/>
-      <c r="P41" s="23">
+      <c r="P41" s="29"/>
+      <c r="Q41" s="23">
         <v>640</v>
       </c>
-      <c r="Q41" s="23">
+      <c r="R41" s="23">
         <v>360</v>
       </c>
-      <c r="R41" s="23">
+      <c r="S41" s="23">
         <v>960</v>
       </c>
-      <c r="S41" s="23">
+      <c r="T41" s="23">
         <v>480</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>63</v>
       </c>
@@ -2710,45 +2635,46 @@
         <v>140</v>
       </c>
       <c r="D42" s="16"/>
-      <c r="E42" s="17">
+      <c r="E42" s="16"/>
+      <c r="F42" s="17">
         <v>270</v>
       </c>
-      <c r="F42" s="17">
+      <c r="G42" s="17">
         <v>330</v>
       </c>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17">
+      <c r="H42" s="17"/>
+      <c r="I42" s="17">
         <v>650</v>
       </c>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18">
+      <c r="J42" s="18"/>
+      <c r="K42" s="18">
         <v>750</v>
       </c>
-      <c r="K42" s="18">
+      <c r="L42" s="18">
         <v>1650</v>
       </c>
-      <c r="L42" s="20"/>
-      <c r="M42" s="23">
+      <c r="M42" s="20"/>
+      <c r="N42" s="23">
         <v>990</v>
       </c>
-      <c r="N42" s="23">
+      <c r="O42" s="23">
         <v>240000</v>
       </c>
-      <c r="O42" s="29"/>
-      <c r="P42" s="23">
+      <c r="P42" s="29"/>
+      <c r="Q42" s="23">
         <v>8000</v>
       </c>
-      <c r="Q42" s="23">
+      <c r="R42" s="23">
         <v>1800</v>
       </c>
-      <c r="R42" s="23">
+      <c r="S42" s="23">
         <v>9600</v>
       </c>
-      <c r="S42" s="23">
+      <c r="T42" s="23">
         <v>5400</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>64</v>
       </c>
@@ -2759,45 +2685,46 @@
         <v>120</v>
       </c>
       <c r="D43" s="16"/>
-      <c r="E43" s="16">
+      <c r="E43" s="16"/>
+      <c r="F43" s="16">
         <v>270</v>
       </c>
-      <c r="F43" s="17">
+      <c r="G43" s="17">
         <v>330</v>
       </c>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17">
+      <c r="H43" s="17"/>
+      <c r="I43" s="17">
         <v>650</v>
       </c>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18">
+      <c r="J43" s="18"/>
+      <c r="K43" s="18">
         <v>500</v>
       </c>
-      <c r="K43" s="18">
+      <c r="L43" s="18">
         <v>1100</v>
       </c>
-      <c r="L43" s="19"/>
-      <c r="M43" s="23">
+      <c r="M43" s="19"/>
+      <c r="N43" s="23">
         <v>880</v>
       </c>
-      <c r="N43" s="23">
+      <c r="O43" s="23">
         <v>12000</v>
       </c>
-      <c r="O43" s="29"/>
-      <c r="P43" s="23">
+      <c r="P43" s="29"/>
+      <c r="Q43" s="23">
         <v>640</v>
       </c>
-      <c r="Q43" s="23">
+      <c r="R43" s="23">
         <v>1600</v>
       </c>
-      <c r="R43" s="23">
+      <c r="S43" s="23">
         <v>5000</v>
       </c>
-      <c r="S43" s="23">
+      <c r="T43" s="23">
         <v>2400</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>65</v>
       </c>
@@ -2806,54 +2733,55 @@
         <v>4</v>
       </c>
       <c r="C44" s="16">
-        <f t="shared" ref="C44:L44" si="9">C43/$B$36</f>
+        <f t="shared" ref="C44:M44" si="9">C43/$B$36</f>
         <v>6</v>
       </c>
       <c r="D44" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E44" s="16">
+      <c r="E44" s="16"/>
+      <c r="F44" s="16">
         <f t="shared" si="9"/>
         <v>13.5</v>
       </c>
-      <c r="F44" s="16">
-        <f t="shared" ref="F44" si="10">F43/$B$36</f>
+      <c r="G44" s="16">
+        <f t="shared" ref="G44" si="10">G43/$B$36</f>
         <v>16.5</v>
       </c>
-      <c r="G44" s="16">
-        <f t="shared" ref="G44" si="11">G43/$B$36</f>
+      <c r="H44" s="16">
+        <f t="shared" ref="H44" si="11">H43/$B$36</f>
         <v>0</v>
       </c>
-      <c r="H44" s="16">
-        <f>H43/$B$36</f>
+      <c r="I44" s="16">
+        <f>I43/$B$36</f>
         <v>32.5</v>
       </c>
-      <c r="I44" s="16">
-        <f t="shared" ref="I44" si="12">I43/$B$36</f>
+      <c r="J44" s="16">
+        <f t="shared" ref="J44" si="12">J43/$B$36</f>
         <v>0</v>
       </c>
-      <c r="J44" s="16">
-        <f>J43/$C$36</f>
+      <c r="K44" s="16">
+        <f>K43/$C$36</f>
         <v>12.5</v>
       </c>
-      <c r="K44" s="16">
+      <c r="L44" s="16">
         <f t="shared" si="9"/>
         <v>55</v>
       </c>
-      <c r="L44" s="16">
+      <c r="M44" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M44" s="29"/>
       <c r="N44" s="29"/>
       <c r="O44" s="29"/>
       <c r="P44" s="29"/>
       <c r="Q44" s="29"/>
       <c r="R44" s="29"/>
       <c r="S44" s="29"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T44" s="29"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>66</v>
       </c>
@@ -2862,54 +2790,55 @@
         <v>3</v>
       </c>
       <c r="C45" s="16">
-        <f t="shared" ref="C45:L45" si="13">C41/$B$44</f>
+        <f t="shared" ref="C45:M45" si="13">C41/$B$44</f>
         <v>8.75</v>
       </c>
       <c r="D45" s="16">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="E45" s="16">
-        <f>E41/$E$44</f>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16">
+        <f>F41/$F$44</f>
         <v>4</v>
       </c>
-      <c r="F45" s="16">
-        <f t="shared" ref="F45:I45" si="14">F41/$E$44</f>
+      <c r="G45" s="16">
+        <f t="shared" ref="G45:J45" si="14">G41/$F$44</f>
         <v>4.8888888888888893</v>
       </c>
-      <c r="G45" s="16">
+      <c r="H45" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="H45" s="16">
+      <c r="I45" s="16">
         <f t="shared" si="14"/>
         <v>9.6296296296296298</v>
       </c>
-      <c r="I45" s="16">
+      <c r="J45" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J45" s="16">
-        <f>J41/$J$44</f>
+      <c r="K45" s="16">
+        <f>K41/$K$44</f>
         <v>8</v>
       </c>
-      <c r="K45" s="16">
+      <c r="L45" s="16">
         <f t="shared" si="13"/>
         <v>55</v>
       </c>
-      <c r="L45" s="16">
+      <c r="M45" s="16">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M45" s="29"/>
       <c r="N45" s="29"/>
       <c r="O45" s="29"/>
       <c r="P45" s="29"/>
       <c r="Q45" s="29"/>
       <c r="R45" s="29"/>
       <c r="S45" s="29"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T45" s="29"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>67</v>
       </c>
@@ -2918,77 +2847,79 @@
         <v>10</v>
       </c>
       <c r="C46" s="16">
-        <f t="shared" ref="C46:L46" si="15">C42/$B$44</f>
+        <f t="shared" ref="C46:M46" si="15">C42/$B$44</f>
         <v>35</v>
       </c>
       <c r="D46" s="16">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="E46" s="16">
-        <f>E42/$E$44</f>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16">
+        <f>F42/$F$44</f>
         <v>20</v>
       </c>
-      <c r="F46" s="16">
-        <f t="shared" ref="F46:I46" si="16">F42/$E$44</f>
+      <c r="G46" s="16">
+        <f t="shared" ref="G46:J46" si="16">G42/$F$44</f>
         <v>24.444444444444443</v>
       </c>
-      <c r="G46" s="16">
+      <c r="H46" s="16">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="H46" s="16">
+      <c r="I46" s="16">
         <f t="shared" si="16"/>
         <v>48.148148148148145</v>
       </c>
-      <c r="I46" s="16">
+      <c r="J46" s="16">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J46" s="16">
-        <f>J42/$J$44</f>
+      <c r="K46" s="16">
+        <f>K42/$K$44</f>
         <v>60</v>
       </c>
-      <c r="K46" s="16">
+      <c r="L46" s="16">
         <f t="shared" si="15"/>
         <v>412.5</v>
       </c>
-      <c r="L46" s="16">
+      <c r="M46" s="16">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="M46" s="29"/>
       <c r="N46" s="29"/>
       <c r="O46" s="29"/>
       <c r="P46" s="29"/>
       <c r="Q46" s="29"/>
       <c r="R46" s="29"/>
       <c r="S46" s="29"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T46" s="29"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>68</v>
       </c>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
       <c r="D47" s="16"/>
-      <c r="E47" s="17"/>
+      <c r="E47" s="16"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
       <c r="H47" s="17"/>
-      <c r="I47" s="18"/>
+      <c r="I47" s="17"/>
       <c r="J47" s="18"/>
       <c r="K47" s="18"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="29"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="20"/>
       <c r="N47" s="29"/>
       <c r="O47" s="29"/>
       <c r="P47" s="29"/>
       <c r="Q47" s="29"/>
       <c r="R47" s="29"/>
       <c r="S47" s="29"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T47" s="29"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>7</v>
       </c>
@@ -3001,49 +2932,50 @@
       <c r="D48" s="16">
         <v>280</v>
       </c>
-      <c r="E48" s="16">
+      <c r="E48" s="16"/>
+      <c r="F48" s="16">
         <v>265</v>
       </c>
-      <c r="F48" s="17">
+      <c r="G48" s="17">
         <v>150</v>
       </c>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17">
+      <c r="H48" s="17"/>
+      <c r="I48" s="17">
         <v>375</v>
       </c>
-      <c r="I48" s="18">
+      <c r="J48" s="18">
         <v>640</v>
       </c>
-      <c r="J48" s="18">
+      <c r="K48" s="18">
         <v>400</v>
       </c>
-      <c r="K48" s="18">
+      <c r="L48" s="18">
         <v>600</v>
       </c>
-      <c r="L48" s="19">
+      <c r="M48" s="19">
         <v>900</v>
       </c>
-      <c r="M48" s="23">
+      <c r="N48" s="23">
         <v>1200</v>
       </c>
-      <c r="N48" s="23">
+      <c r="O48" s="23">
         <v>30000</v>
       </c>
-      <c r="O48" s="29"/>
-      <c r="P48" s="23">
+      <c r="P48" s="29"/>
+      <c r="Q48" s="23">
         <v>3500</v>
       </c>
-      <c r="Q48" s="23">
+      <c r="R48" s="23">
         <v>2750</v>
       </c>
-      <c r="R48" s="23">
+      <c r="S48" s="23">
         <v>1600</v>
       </c>
-      <c r="S48" s="23">
+      <c r="T48" s="23">
         <v>4200</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
         <v>9</v>
       </c>
@@ -3051,42 +2983,45 @@
         <v>5</v>
       </c>
       <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="17">
+      <c r="D49" s="16">
+        <v>3</v>
+      </c>
+      <c r="E49" s="16"/>
+      <c r="F49" s="17">
         <v>3.6</v>
       </c>
-      <c r="F49" s="17">
+      <c r="G49" s="17">
         <v>2.6</v>
       </c>
-      <c r="G49" s="17"/>
       <c r="H49" s="17"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18">
+      <c r="I49" s="17"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18">
         <v>4.5</v>
       </c>
-      <c r="K49" s="18">
+      <c r="L49" s="18">
         <v>2.6</v>
       </c>
-      <c r="L49" s="20"/>
-      <c r="M49" s="29">
+      <c r="M49" s="20"/>
+      <c r="N49" s="29">
         <v>3.2</v>
       </c>
-      <c r="N49" s="23">
+      <c r="O49" s="23">
         <v>2.7</v>
       </c>
-      <c r="O49" s="29"/>
-      <c r="P49" s="23">
+      <c r="P49" s="29"/>
+      <c r="Q49" s="23">
         <v>3.75</v>
       </c>
-      <c r="Q49" s="29"/>
-      <c r="R49" s="23">
+      <c r="R49" s="29"/>
+      <c r="S49" s="23">
         <v>2.2999999999999998</v>
       </c>
-      <c r="S49" s="29">
+      <c r="T49" s="29">
         <v>3.6</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>69</v>
       </c>
@@ -3095,39 +3030,42 @@
         <v>20</v>
       </c>
       <c r="D50" s="16">
+        <v>30</v>
+      </c>
+      <c r="E50" s="16">
+        <v>30</v>
+      </c>
+      <c r="F50" s="16">
+        <v>25</v>
+      </c>
+      <c r="G50" s="17">
+        <v>33</v>
+      </c>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18">
         <v>35</v>
       </c>
-      <c r="E50" s="16">
-        <v>25</v>
-      </c>
-      <c r="F50" s="17">
-        <v>33</v>
-      </c>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18">
-        <v>35</v>
-      </c>
-      <c r="K50" s="18"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="29">
+      <c r="L50" s="18"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="29">
         <v>75</v>
       </c>
-      <c r="N50" s="29">
+      <c r="O50" s="29">
         <v>1380</v>
       </c>
-      <c r="O50" s="29"/>
       <c r="P50" s="29"/>
       <c r="Q50" s="29"/>
-      <c r="R50" s="29">
+      <c r="R50" s="29"/>
+      <c r="S50" s="29">
         <v>600</v>
       </c>
-      <c r="S50" s="29">
+      <c r="T50" s="29">
         <v>150</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
         <v>70</v>
       </c>
@@ -3138,19 +3076,20 @@
       <c r="F51" s="16"/>
       <c r="G51" s="16"/>
       <c r="H51" s="16"/>
-      <c r="I51" s="18"/>
+      <c r="I51" s="16"/>
       <c r="J51" s="18"/>
       <c r="K51" s="18"/>
-      <c r="L51" s="19"/>
-      <c r="M51" s="29"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="19"/>
       <c r="N51" s="29"/>
       <c r="O51" s="29"/>
       <c r="P51" s="29"/>
       <c r="Q51" s="29"/>
       <c r="R51" s="29"/>
       <c r="S51" s="29"/>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T51" s="29"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>71</v>
       </c>
@@ -3161,44 +3100,46 @@
       <c r="F52" s="16"/>
       <c r="G52" s="16"/>
       <c r="H52" s="16"/>
-      <c r="I52" s="18"/>
+      <c r="I52" s="16"/>
       <c r="J52" s="18"/>
       <c r="K52" s="18"/>
       <c r="L52" s="18"/>
-      <c r="M52" s="29"/>
+      <c r="M52" s="18"/>
       <c r="N52" s="29"/>
       <c r="O52" s="29"/>
       <c r="P52" s="29"/>
       <c r="Q52" s="29"/>
       <c r="R52" s="29"/>
       <c r="S52" s="29"/>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T52" s="29"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>72</v>
       </c>
       <c r="B53" s="16"/>
       <c r="C53" s="16"/>
       <c r="D53" s="16"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17">
+      <c r="E53" s="16"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17">
         <v>9</v>
       </c>
-      <c r="G53" s="17"/>
       <c r="H53" s="17"/>
-      <c r="I53" s="18"/>
+      <c r="I53" s="17"/>
       <c r="J53" s="18"/>
       <c r="K53" s="18"/>
-      <c r="L53" s="20"/>
-      <c r="M53" s="29"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="20"/>
       <c r="N53" s="29"/>
       <c r="O53" s="29"/>
       <c r="P53" s="29"/>
       <c r="Q53" s="29"/>
       <c r="R53" s="29"/>
       <c r="S53" s="29"/>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T53" s="29"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
         <v>73</v>
       </c>
@@ -3206,26 +3147,27 @@
       <c r="C54" s="16"/>
       <c r="D54" s="16"/>
       <c r="E54" s="16"/>
-      <c r="F54" s="16">
+      <c r="F54" s="16"/>
+      <c r="G54" s="16">
         <v>1.5</v>
       </c>
-      <c r="G54" s="16"/>
       <c r="H54" s="16"/>
-      <c r="I54" s="18"/>
+      <c r="I54" s="16"/>
       <c r="J54" s="18"/>
       <c r="K54" s="18"/>
       <c r="L54" s="18"/>
-      <c r="M54" s="29"/>
+      <c r="M54" s="18"/>
       <c r="N54" s="29"/>
       <c r="O54" s="29"/>
       <c r="P54" s="29"/>
       <c r="Q54" s="29"/>
-      <c r="R54" s="29">
+      <c r="R54" s="29"/>
+      <c r="S54" s="29">
         <v>5</v>
       </c>
-      <c r="S54" s="29"/>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T54" s="29"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>74</v>
       </c>
@@ -3233,24 +3175,25 @@
       <c r="C55" s="16"/>
       <c r="D55" s="16"/>
       <c r="E55" s="16"/>
-      <c r="F55" s="16">
+      <c r="F55" s="16"/>
+      <c r="G55" s="16">
         <v>5</v>
       </c>
-      <c r="G55" s="16"/>
       <c r="H55" s="16"/>
-      <c r="I55" s="18"/>
+      <c r="I55" s="16"/>
       <c r="J55" s="18"/>
       <c r="K55" s="18"/>
       <c r="L55" s="18"/>
-      <c r="M55" s="29"/>
+      <c r="M55" s="18"/>
       <c r="N55" s="29"/>
       <c r="O55" s="29"/>
       <c r="P55" s="29"/>
       <c r="Q55" s="29"/>
       <c r="R55" s="29"/>
       <c r="S55" s="29"/>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T55" s="29"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
         <v>75</v>
       </c>
@@ -3261,19 +3204,20 @@
       <c r="F56" s="16"/>
       <c r="G56" s="16"/>
       <c r="H56" s="16"/>
-      <c r="I56" s="18"/>
+      <c r="I56" s="16"/>
       <c r="J56" s="18"/>
       <c r="K56" s="18"/>
-      <c r="L56" s="19"/>
-      <c r="M56" s="29"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="19"/>
       <c r="N56" s="29"/>
       <c r="O56" s="29"/>
       <c r="P56" s="29"/>
       <c r="Q56" s="29"/>
       <c r="R56" s="29"/>
       <c r="S56" s="29"/>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T56" s="29"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>76</v>
       </c>
@@ -3282,37 +3226,38 @@
         <v>14</v>
       </c>
       <c r="D57" s="16"/>
-      <c r="E57" s="17">
+      <c r="E57" s="16"/>
+      <c r="F57" s="17">
         <v>18</v>
       </c>
-      <c r="F57" s="17">
+      <c r="G57" s="17">
         <v>28</v>
       </c>
-      <c r="G57" s="17"/>
       <c r="H57" s="17"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="18">
+      <c r="I57" s="17"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="18">
         <v>23</v>
       </c>
-      <c r="K57" s="18"/>
-      <c r="L57" s="20"/>
-      <c r="M57" s="29">
+      <c r="L57" s="18"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="29">
         <v>20</v>
       </c>
-      <c r="N57" s="23">
+      <c r="O57" s="23">
         <v>35</v>
       </c>
-      <c r="O57" s="29"/>
       <c r="P57" s="29"/>
-      <c r="Q57" s="29">
+      <c r="Q57" s="29"/>
+      <c r="R57" s="29">
         <v>35</v>
       </c>
-      <c r="R57" s="29"/>
-      <c r="S57" s="29">
+      <c r="S57" s="29"/>
+      <c r="T57" s="29">
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
         <v>91</v>
       </c>
@@ -3321,31 +3266,32 @@
       </c>
       <c r="C58" s="16"/>
       <c r="D58" s="16"/>
-      <c r="E58" s="17">
-        <v>20</v>
-      </c>
+      <c r="E58" s="16"/>
       <c r="F58" s="17">
         <v>20</v>
       </c>
-      <c r="G58" s="17"/>
+      <c r="G58" s="17">
+        <v>20</v>
+      </c>
       <c r="H58" s="17"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18">
+      <c r="I58" s="17"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18">
         <v>15</v>
       </c>
-      <c r="K58" s="18">
+      <c r="L58" s="18">
         <v>18</v>
       </c>
-      <c r="L58" s="23"/>
-      <c r="M58" s="29"/>
+      <c r="M58" s="23"/>
       <c r="N58" s="29"/>
       <c r="O58" s="29"/>
       <c r="P58" s="29"/>
       <c r="Q58" s="29"/>
       <c r="R58" s="29"/>
       <c r="S58" s="29"/>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T58" s="29"/>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
         <v>77</v>
       </c>
@@ -3356,30 +3302,31 @@
         <v>81</v>
       </c>
       <c r="D59" s="14"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15" t="s">
+      <c r="E59" s="14"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="G59" s="15"/>
       <c r="H59" s="15"/>
       <c r="I59" s="15"/>
       <c r="J59" s="15"/>
       <c r="K59" s="15"/>
       <c r="L59" s="15"/>
-      <c r="M59" t="s">
+      <c r="M59" s="15"/>
+      <c r="N59" t="s">
         <v>113</v>
       </c>
-      <c r="N59" t="s">
+      <c r="O59" t="s">
         <v>114</v>
       </c>
-      <c r="P59" t="s">
+      <c r="Q59" t="s">
         <v>120</v>
       </c>
-      <c r="R59" t="s">
+      <c r="S59" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
         <v>78</v>
       </c>
@@ -3395,7 +3342,7 @@
       <c r="K60" s="15"/>
       <c r="L60" s="15"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
         <v>79</v>
       </c>
@@ -4809,82 +4756,82 @@
     <mergeCell ref="J6:M6"/>
   </mergeCells>
   <conditionalFormatting sqref="G9:M33">
-    <cfRule type="expression" dxfId="51" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="71" stopIfTrue="1">
       <formula>G9&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="72" stopIfTrue="1">
       <formula>MOD(G9,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="39" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="61" stopIfTrue="1">
       <formula>B2&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="62" stopIfTrue="1">
       <formula>MOD(B2,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:F12">
-    <cfRule type="expression" dxfId="31" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="31" stopIfTrue="1">
       <formula>B12&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="32" stopIfTrue="1">
       <formula>MOD(B12,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:F33">
-    <cfRule type="expression" dxfId="21" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="37" stopIfTrue="1">
       <formula>B25&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="38" stopIfTrue="1">
       <formula>MOD(B25,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:F21">
-    <cfRule type="expression" dxfId="19" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="35" stopIfTrue="1">
       <formula>B20&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="36" stopIfTrue="1">
       <formula>MOD(B20,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:F22">
-    <cfRule type="expression" dxfId="17" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="33" stopIfTrue="1">
       <formula>B22&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="34" stopIfTrue="1">
       <formula>MOD(B22,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:F23">
-    <cfRule type="expression" dxfId="15" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="29" stopIfTrue="1">
       <formula>B23&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="30" stopIfTrue="1">
       <formula>MOD(B23,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:F33">
-    <cfRule type="expression" dxfId="13" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="39" stopIfTrue="1">
       <formula>B9&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="40" stopIfTrue="1">
       <formula>MOD(B9,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:F15">
-    <cfRule type="expression" dxfId="11" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="27" stopIfTrue="1">
       <formula>E15&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="28" stopIfTrue="1">
       <formula>MOD(E15,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:F16">
-    <cfRule type="expression" dxfId="9" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="25" stopIfTrue="1">
       <formula>E16&gt;9999</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="26" stopIfTrue="1">
       <formula>MOD(E16,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Units.xlsx
+++ b/Units.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="271">
   <si>
     <t>Stats</t>
   </si>
@@ -228,21 +228,6 @@
     <t>Energy maintaince</t>
   </si>
   <si>
-    <t>DPS 1st weapon</t>
-  </si>
-  <si>
-    <t>DPS 2th weapon</t>
-  </si>
-  <si>
-    <t>DPS 3rd weapon</t>
-  </si>
-  <si>
-    <t>shot/second</t>
-  </si>
-  <si>
-    <t>Area efect</t>
-  </si>
-  <si>
     <t>Minimal range/lower</t>
   </si>
   <si>
@@ -273,18 +258,12 @@
     <t>lab</t>
   </si>
   <si>
-    <t>aa/arty</t>
-  </si>
-  <si>
     <t>tank</t>
   </si>
   <si>
     <t>tank destroyer</t>
   </si>
   <si>
-    <t>Enginer</t>
-  </si>
-  <si>
     <t>Silhouette</t>
   </si>
   <si>
@@ -297,9 +276,6 @@
     <t>Intel</t>
   </si>
   <si>
-    <t>T2 enginer</t>
-  </si>
-  <si>
     <t>Barrager</t>
   </si>
   <si>
@@ -312,9 +288,6 @@
     <t>inu201</t>
   </si>
   <si>
-    <t>t3 engie</t>
-  </si>
-  <si>
     <t>inu2002</t>
   </si>
   <si>
@@ -366,9 +339,6 @@
     <t>transportable</t>
   </si>
   <si>
-    <t>inu3001</t>
-  </si>
-  <si>
     <t>Sacu</t>
   </si>
   <si>
@@ -796,6 +766,72 @@
   </si>
   <si>
     <t>Golem</t>
+  </si>
+  <si>
+    <t>inu3008</t>
+  </si>
+  <si>
+    <t>inu3007</t>
+  </si>
+  <si>
+    <t>T3 mAA</t>
+  </si>
+  <si>
+    <t>Watchman</t>
+  </si>
+  <si>
+    <t>arty</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>T2 field enginer</t>
+  </si>
+  <si>
+    <t>Scarab</t>
+  </si>
+  <si>
+    <t>inu1002</t>
+  </si>
+  <si>
+    <t>inu1001</t>
+  </si>
+  <si>
+    <t>44 radar 24 vision</t>
+  </si>
+  <si>
+    <t>T1 enginer</t>
+  </si>
+  <si>
+    <t>inu1004</t>
+  </si>
+  <si>
+    <t>T2 Enginer</t>
+  </si>
+  <si>
+    <t>inu1005</t>
+  </si>
+  <si>
+    <t>T3 enginer</t>
+  </si>
+  <si>
+    <t>12,5bp</t>
+  </si>
+  <si>
+    <t>30bp</t>
+  </si>
+  <si>
+    <t>5bp</t>
+  </si>
+  <si>
+    <t>inu1006</t>
+  </si>
+  <si>
+    <t>inu1007</t>
+  </si>
+  <si>
+    <t>Astor</t>
   </si>
 </sst>
 </file>
@@ -1477,10 +1513,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
       <selection activeCell="A73" sqref="A73"/>
-      <selection pane="topRight" activeCell="D49" sqref="D49"/>
+      <selection pane="topRight" activeCell="S64" sqref="S64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1535,19 +1571,19 @@
         <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C5" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="D5" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="E5" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="F5" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1588,7 +1624,7 @@
         <v>37</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>43</v>
@@ -1597,7 +1633,7 @@
         <v>51</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>47</v>
@@ -2369,7 +2405,7 @@
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>14</v>
       </c>
@@ -2386,12 +2422,12 @@
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H34" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>15</v>
       </c>
@@ -2406,7 +2442,7 @@
       </c>
       <c r="E35" s="8"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>19</v>
       </c>
@@ -2421,481 +2457,521 @@
       </c>
       <c r="E36" s="8"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
+      <c r="B38" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="F38" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="H38" s="26"/>
       <c r="I38" t="s">
+        <v>263</v>
+      </c>
+      <c r="J38" t="s">
+        <v>88</v>
+      </c>
+      <c r="L38" t="s">
+        <v>89</v>
+      </c>
+      <c r="M38" t="s">
+        <v>92</v>
+      </c>
+      <c r="N38" t="s">
+        <v>95</v>
+      </c>
+      <c r="O38" t="s">
+        <v>98</v>
+      </c>
+      <c r="P38" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>107</v>
+      </c>
+      <c r="R38" t="s">
+        <v>107</v>
+      </c>
+      <c r="S38" t="s">
+        <v>111</v>
+      </c>
+      <c r="T38" t="s">
+        <v>250</v>
+      </c>
+      <c r="U38" t="s">
+        <v>249</v>
+      </c>
+      <c r="V38" t="s">
+        <v>114</v>
+      </c>
+      <c r="W38" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="G39" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="H39" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="I39" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="J39" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="M39" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="N39" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="J38" t="s">
-        <v>98</v>
-      </c>
-      <c r="K38" t="s">
-        <v>101</v>
-      </c>
-      <c r="L38" t="s">
-        <v>104</v>
-      </c>
-      <c r="M38" t="s">
-        <v>107</v>
-      </c>
-      <c r="N38" t="s">
-        <v>110</v>
-      </c>
-      <c r="O38" t="s">
+      <c r="O39" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="P39" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q39" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="R39" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="S39" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="T39" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="U39" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="V39" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="P38" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>121</v>
-      </c>
-      <c r="R38" t="s">
-        <v>124</v>
-      </c>
-      <c r="S38" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="E39" s="21"/>
-      <c r="F39" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="G39" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="H39" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="I39" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="J39" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="K39" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="L39" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="M39" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="N39" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="O39" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="P39" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q39" s="22" t="s">
+      <c r="W39" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="R39" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="S39" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="T39" s="22" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C40" s="24"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24" t="s">
+        <v>81</v>
+      </c>
       <c r="D40" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="E40" s="24"/>
+        <v>270</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>85</v>
+      </c>
       <c r="F40" s="24" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G40" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="H40" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="M40" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25" t="s">
+      <c r="N40" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="O40" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="L40" s="25" t="s">
+      <c r="P40" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="M40" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="N40" s="28" t="s">
+      <c r="Q40" s="15"/>
+      <c r="R40" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="O40" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q40" s="28" t="s">
+      <c r="S40" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="T40" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="U40" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="V40" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="W40" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="R40" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="S40" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="T40" s="28" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>62</v>
       </c>
       <c r="B41" s="16">
+        <v>52</v>
+      </c>
+      <c r="C41" s="16">
         <v>12</v>
       </c>
-      <c r="C41" s="16">
+      <c r="D41" s="16">
         <v>35</v>
       </c>
-      <c r="D41" s="16"/>
       <c r="E41" s="16"/>
-      <c r="F41" s="16">
+      <c r="F41" s="16"/>
+      <c r="G41" s="16">
         <v>54</v>
       </c>
-      <c r="G41" s="17">
+      <c r="H41" s="17">
         <v>66</v>
       </c>
-      <c r="H41" s="17"/>
       <c r="I41" s="17">
         <v>130</v>
       </c>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18">
+      <c r="J41" s="17">
+        <v>312</v>
+      </c>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18">
         <v>100</v>
       </c>
-      <c r="L41" s="18">
+      <c r="M41" s="18">
         <v>220</v>
       </c>
-      <c r="M41" s="19"/>
-      <c r="N41" s="23">
+      <c r="N41" s="19"/>
+      <c r="O41" s="23">
         <v>197</v>
       </c>
-      <c r="O41" s="23">
+      <c r="P41" s="23">
         <v>12500</v>
       </c>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="23">
+      <c r="Q41" s="29"/>
+      <c r="R41" s="23">
         <v>640</v>
       </c>
-      <c r="R41" s="23">
+      <c r="S41" s="23">
         <v>360</v>
       </c>
-      <c r="S41" s="23">
+      <c r="T41" s="23">
+        <v>640</v>
+      </c>
+      <c r="V41" s="23">
         <v>960</v>
       </c>
-      <c r="T41" s="23">
+      <c r="W41" s="23">
         <v>480</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>63</v>
       </c>
       <c r="B42" s="16">
+        <v>260</v>
+      </c>
+      <c r="C42" s="16">
         <v>40</v>
       </c>
-      <c r="C42" s="16">
+      <c r="D42" s="16">
         <v>140</v>
       </c>
-      <c r="D42" s="16"/>
       <c r="E42" s="16"/>
-      <c r="F42" s="17">
+      <c r="F42" s="16"/>
+      <c r="G42" s="17">
         <v>270</v>
       </c>
-      <c r="G42" s="17">
+      <c r="H42" s="17">
         <v>330</v>
       </c>
-      <c r="H42" s="17"/>
       <c r="I42" s="17">
         <v>650</v>
       </c>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18">
+      <c r="J42" s="17">
+        <v>1560</v>
+      </c>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18">
         <v>750</v>
       </c>
-      <c r="L42" s="18">
+      <c r="M42" s="18">
         <v>1650</v>
       </c>
-      <c r="M42" s="20"/>
-      <c r="N42" s="23">
+      <c r="N42" s="20"/>
+      <c r="O42" s="23">
         <v>990</v>
       </c>
-      <c r="O42" s="23">
+      <c r="P42" s="23">
         <v>240000</v>
       </c>
-      <c r="P42" s="29"/>
-      <c r="Q42" s="23">
+      <c r="Q42" s="29"/>
+      <c r="R42" s="23">
         <v>8000</v>
       </c>
-      <c r="R42" s="23">
+      <c r="S42" s="23">
         <v>1800</v>
       </c>
-      <c r="S42" s="23">
+      <c r="T42" s="23">
+        <v>6400</v>
+      </c>
+      <c r="V42" s="23">
         <v>9600</v>
       </c>
-      <c r="T42" s="23">
+      <c r="W42" s="23">
         <v>5400</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>64</v>
       </c>
       <c r="B43" s="16">
+        <v>260</v>
+      </c>
+      <c r="C43" s="16">
         <v>80</v>
       </c>
-      <c r="C43" s="16">
+      <c r="D43" s="16">
         <v>120</v>
       </c>
-      <c r="D43" s="16"/>
       <c r="E43" s="16"/>
-      <c r="F43" s="16">
+      <c r="F43" s="16"/>
+      <c r="G43" s="16">
         <v>270</v>
       </c>
-      <c r="G43" s="17">
+      <c r="H43" s="17">
         <v>330</v>
       </c>
-      <c r="H43" s="17"/>
       <c r="I43" s="17">
         <v>650</v>
       </c>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18">
+      <c r="J43" s="17">
+        <v>1560</v>
+      </c>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18">
         <v>500</v>
       </c>
-      <c r="L43" s="18">
+      <c r="M43" s="18">
         <v>1100</v>
       </c>
-      <c r="M43" s="19"/>
-      <c r="N43" s="23">
+      <c r="N43" s="19"/>
+      <c r="O43" s="23">
         <v>880</v>
       </c>
-      <c r="O43" s="23">
+      <c r="P43" s="23">
         <v>12000</v>
       </c>
-      <c r="P43" s="29"/>
-      <c r="Q43" s="23">
+      <c r="Q43" s="29"/>
+      <c r="R43" s="23">
         <v>640</v>
       </c>
-      <c r="R43" s="23">
+      <c r="S43" s="23">
         <v>1600</v>
       </c>
-      <c r="S43" s="23">
+      <c r="T43" s="23">
+        <v>3200</v>
+      </c>
+      <c r="V43" s="23">
         <v>5000</v>
       </c>
-      <c r="T43" s="23">
+      <c r="W43" s="23">
         <v>2400</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="16">
-        <f>B43/$B$36</f>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16">
+        <f>C43/$B$36</f>
         <v>4</v>
       </c>
-      <c r="C44" s="16">
-        <f t="shared" ref="C44:M44" si="9">C43/$B$36</f>
+      <c r="D44" s="16">
+        <f t="shared" ref="D44:N44" si="9">D43/$B$36</f>
         <v>6</v>
       </c>
-      <c r="D44" s="16">
+      <c r="E44" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16">
+      <c r="F44" s="16"/>
+      <c r="G44" s="16">
         <f t="shared" si="9"/>
         <v>13.5</v>
       </c>
-      <c r="G44" s="16">
-        <f t="shared" ref="G44" si="10">G43/$B$36</f>
+      <c r="H44" s="16">
+        <f t="shared" ref="H44" si="10">H43/$B$36</f>
         <v>16.5</v>
       </c>
-      <c r="H44" s="16">
-        <f t="shared" ref="H44" si="11">H43/$B$36</f>
-        <v>0</v>
-      </c>
-      <c r="I44" s="16">
-        <f>I43/$B$36</f>
-        <v>32.5</v>
-      </c>
-      <c r="J44" s="16">
-        <f t="shared" ref="J44" si="12">J43/$B$36</f>
-        <v>0</v>
-      </c>
-      <c r="K44" s="16">
-        <f>K43/$C$36</f>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16">
+        <f>L43/$C$36</f>
         <v>12.5</v>
       </c>
-      <c r="L44" s="16">
+      <c r="M44" s="16">
         <f t="shared" si="9"/>
         <v>55</v>
       </c>
-      <c r="M44" s="16">
+      <c r="N44" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N44" s="29"/>
       <c r="O44" s="29"/>
       <c r="P44" s="29"/>
       <c r="Q44" s="29"/>
       <c r="R44" s="29"/>
       <c r="S44" s="29"/>
       <c r="T44" s="29"/>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V44" s="29"/>
+      <c r="W44" s="29"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B45" s="16">
-        <f>B41/$B$44</f>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16">
+        <f t="shared" ref="C45:E46" si="11">C41/$C$44</f>
         <v>3</v>
       </c>
-      <c r="C45" s="16">
-        <f t="shared" ref="C45:M45" si="13">C41/$B$44</f>
+      <c r="D45" s="16">
+        <f t="shared" si="11"/>
         <v>8.75</v>
       </c>
-      <c r="D45" s="16">
-        <f t="shared" si="13"/>
+      <c r="E45" s="16">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16">
-        <f>F41/$F$44</f>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16">
+        <f>G41/$G$44</f>
         <v>4</v>
       </c>
-      <c r="G45" s="16">
-        <f t="shared" ref="G45:J45" si="14">G41/$F$44</f>
-        <v>4.8888888888888893</v>
-      </c>
-      <c r="H45" s="16">
-        <f t="shared" si="14"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16">
+        <f>L41/$L$44</f>
+        <v>8</v>
+      </c>
+      <c r="M45" s="16">
+        <f>M41/$C$44</f>
+        <v>55</v>
+      </c>
+      <c r="N45" s="16">
+        <f>N41/$C$44</f>
         <v>0</v>
       </c>
-      <c r="I45" s="16">
-        <f t="shared" si="14"/>
-        <v>9.6296296296296298</v>
-      </c>
-      <c r="J45" s="16">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="K45" s="16">
-        <f>K41/$K$44</f>
-        <v>8</v>
-      </c>
-      <c r="L45" s="16">
-        <f t="shared" si="13"/>
-        <v>55</v>
-      </c>
-      <c r="M45" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N45" s="29"/>
       <c r="O45" s="29"/>
       <c r="P45" s="29"/>
       <c r="Q45" s="29"/>
       <c r="R45" s="29"/>
       <c r="S45" s="29"/>
       <c r="T45" s="29"/>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V45" s="29"/>
+      <c r="W45" s="29"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="16">
-        <f>B42/$B$44</f>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16">
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
-      <c r="C46" s="16">
-        <f t="shared" ref="C46:M46" si="15">C42/$B$44</f>
+      <c r="D46" s="16">
+        <f t="shared" si="11"/>
         <v>35</v>
       </c>
-      <c r="D46" s="16">
-        <f t="shared" si="15"/>
+      <c r="E46" s="16">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16">
-        <f>F42/$F$44</f>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16">
+        <f>G42/$G$44</f>
         <v>20</v>
       </c>
-      <c r="G46" s="16">
-        <f t="shared" ref="G46:J46" si="16">G42/$F$44</f>
-        <v>24.444444444444443</v>
-      </c>
-      <c r="H46" s="16">
-        <f t="shared" si="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16">
+        <f>L42/$L$44</f>
+        <v>60</v>
+      </c>
+      <c r="M46" s="16">
+        <f>M42/$C$44</f>
+        <v>412.5</v>
+      </c>
+      <c r="N46" s="16">
+        <f>N42/$C$44</f>
         <v>0</v>
       </c>
-      <c r="I46" s="16">
-        <f t="shared" si="16"/>
-        <v>48.148148148148145</v>
-      </c>
-      <c r="J46" s="16">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="K46" s="16">
-        <f>K42/$K$44</f>
-        <v>60</v>
-      </c>
-      <c r="L46" s="16">
-        <f t="shared" si="15"/>
-        <v>412.5</v>
-      </c>
-      <c r="M46" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="N46" s="29"/>
       <c r="O46" s="29"/>
       <c r="P46" s="29"/>
       <c r="Q46" s="29"/>
       <c r="R46" s="29"/>
       <c r="S46" s="29"/>
       <c r="T46" s="29"/>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V46" s="29"/>
+      <c r="W46" s="29"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>68</v>
       </c>
@@ -2903,299 +2979,357 @@
       <c r="C47" s="16"/>
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
-      <c r="F47" s="17"/>
+      <c r="F47" s="16"/>
       <c r="G47" s="17"/>
       <c r="H47" s="17"/>
       <c r="I47" s="17"/>
-      <c r="J47" s="18"/>
+      <c r="J47" s="17"/>
       <c r="K47" s="18"/>
       <c r="L47" s="18"/>
-      <c r="M47" s="20"/>
-      <c r="N47" s="29"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="20"/>
       <c r="O47" s="29"/>
       <c r="P47" s="29"/>
       <c r="Q47" s="29"/>
       <c r="R47" s="29"/>
       <c r="S47" s="29"/>
       <c r="T47" s="29"/>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V47" s="29"/>
+      <c r="W47" s="29"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B48" s="16">
+        <v>130</v>
+      </c>
+      <c r="C48" s="16">
         <v>23</v>
       </c>
-      <c r="C48" s="16">
+      <c r="D48" s="16">
         <v>65</v>
       </c>
-      <c r="D48" s="16">
+      <c r="E48" s="16">
         <v>280</v>
       </c>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16">
+      <c r="F48" s="16"/>
+      <c r="G48" s="16">
         <v>265</v>
       </c>
-      <c r="G48" s="17">
+      <c r="H48" s="17">
         <v>150</v>
       </c>
-      <c r="H48" s="17"/>
       <c r="I48" s="17">
         <v>375</v>
       </c>
-      <c r="J48" s="18">
+      <c r="J48" s="17">
         <v>640</v>
       </c>
-      <c r="K48" s="18">
+      <c r="K48" s="18"/>
+      <c r="L48" s="18">
         <v>400</v>
       </c>
-      <c r="L48" s="18">
+      <c r="M48" s="18">
         <v>600</v>
       </c>
-      <c r="M48" s="19">
+      <c r="N48" s="19">
         <v>900</v>
       </c>
-      <c r="N48" s="23">
+      <c r="O48" s="23">
         <v>1200</v>
       </c>
-      <c r="O48" s="23">
+      <c r="P48" s="23">
         <v>30000</v>
       </c>
-      <c r="P48" s="29"/>
-      <c r="Q48" s="23">
+      <c r="Q48" s="29"/>
+      <c r="R48" s="23">
         <v>3500</v>
       </c>
-      <c r="R48" s="23">
+      <c r="S48" s="23">
         <v>2750</v>
       </c>
-      <c r="S48" s="23">
+      <c r="T48" s="23">
+        <v>2200</v>
+      </c>
+      <c r="V48" s="23">
         <v>1600</v>
       </c>
-      <c r="T48" s="23">
+      <c r="W48" s="23">
         <v>4200</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="16">
+      <c r="B49" s="16"/>
+      <c r="C49" s="16">
         <v>5</v>
       </c>
-      <c r="C49" s="16"/>
       <c r="D49" s="16">
+        <v>4</v>
+      </c>
+      <c r="E49" s="16">
         <v>3</v>
       </c>
-      <c r="E49" s="16"/>
-      <c r="F49" s="17">
+      <c r="F49" s="16"/>
+      <c r="G49" s="17">
         <v>3.6</v>
       </c>
-      <c r="G49" s="17">
+      <c r="H49" s="17">
         <v>2.6</v>
       </c>
-      <c r="H49" s="17"/>
       <c r="I49" s="17"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18">
+      <c r="J49" s="17"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18">
         <v>4.5</v>
       </c>
-      <c r="L49" s="18">
+      <c r="M49" s="18">
         <v>2.6</v>
       </c>
-      <c r="M49" s="20"/>
-      <c r="N49" s="29">
+      <c r="N49" s="20"/>
+      <c r="O49" s="29">
         <v>3.2</v>
       </c>
-      <c r="O49" s="23">
+      <c r="P49" s="23">
         <v>2.7</v>
       </c>
-      <c r="P49" s="29"/>
-      <c r="Q49" s="23">
+      <c r="Q49" s="29"/>
+      <c r="R49" s="23">
         <v>3.75</v>
       </c>
-      <c r="R49" s="29"/>
-      <c r="S49" s="23">
+      <c r="S49" s="29"/>
+      <c r="T49" s="23">
+        <v>3</v>
+      </c>
+      <c r="V49" s="23">
         <v>2.2999999999999998</v>
       </c>
-      <c r="T49" s="29">
+      <c r="W49" s="29">
         <v>3.6</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16">
-        <v>20</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="C50" s="16"/>
       <c r="D50" s="16">
+        <v>8</v>
+      </c>
+      <c r="E50" s="16">
+        <v>50</v>
+      </c>
+      <c r="F50" s="16">
         <v>30</v>
       </c>
-      <c r="E50" s="16">
-        <v>30</v>
-      </c>
-      <c r="F50" s="16">
-        <v>25</v>
-      </c>
-      <c r="G50" s="17">
-        <v>33</v>
-      </c>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18">
-        <v>35</v>
-      </c>
+      <c r="G50" s="16"/>
+      <c r="H50" s="17">
+        <v>300</v>
+      </c>
+      <c r="I50" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="J50" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="K50" s="18"/>
       <c r="L50" s="18"/>
-      <c r="M50" s="19"/>
-      <c r="N50" s="29">
-        <v>75</v>
-      </c>
-      <c r="O50" s="29">
-        <v>1380</v>
-      </c>
+      <c r="M50" s="18"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="29"/>
       <c r="P50" s="29"/>
       <c r="Q50" s="29"/>
       <c r="R50" s="29"/>
-      <c r="S50" s="29">
-        <v>600</v>
-      </c>
+      <c r="S50" s="29"/>
       <c r="T50" s="29">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+      <c r="V50" s="29"/>
+      <c r="W50" s="29"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>70</v>
+        <v>164</v>
       </c>
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
+      <c r="D51" s="16">
+        <v>0</v>
+      </c>
+      <c r="E51" s="16">
+        <v>1.5</v>
+      </c>
       <c r="F51" s="16"/>
       <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
+      <c r="H51" s="16">
+        <v>1.5</v>
+      </c>
       <c r="I51" s="16"/>
-      <c r="J51" s="18"/>
+      <c r="J51" s="16"/>
       <c r="K51" s="18"/>
       <c r="L51" s="18"/>
-      <c r="M51" s="19"/>
-      <c r="N51" s="29"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="19"/>
       <c r="O51" s="29"/>
       <c r="P51" s="29"/>
       <c r="Q51" s="29"/>
       <c r="R51" s="29"/>
       <c r="S51" s="29"/>
-      <c r="T51" s="29"/>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T51" s="29">
+        <v>0</v>
+      </c>
+      <c r="V51" s="29">
+        <v>5</v>
+      </c>
+      <c r="W51" s="29"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>71</v>
+        <v>170</v>
       </c>
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
+      <c r="D52" s="16">
+        <v>1</v>
+      </c>
+      <c r="E52" s="16">
+        <v>4</v>
+      </c>
       <c r="F52" s="16"/>
       <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
+      <c r="H52" s="16">
+        <v>1</v>
+      </c>
       <c r="I52" s="16"/>
-      <c r="J52" s="18"/>
+      <c r="J52" s="16"/>
       <c r="K52" s="18"/>
       <c r="L52" s="18"/>
       <c r="M52" s="18"/>
-      <c r="N52" s="29"/>
+      <c r="N52" s="18"/>
       <c r="O52" s="29"/>
       <c r="P52" s="29"/>
       <c r="Q52" s="29"/>
       <c r="R52" s="29"/>
       <c r="S52" s="29"/>
-      <c r="T52" s="29"/>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T52" s="29">
+        <v>1</v>
+      </c>
+      <c r="V52" s="29"/>
+      <c r="W52" s="29"/>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="B53" s="16"/>
       <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17">
-        <v>9</v>
-      </c>
-      <c r="H53" s="17"/>
+      <c r="D53" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="E53" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="F53" s="16"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17">
+        <v>0.111</v>
+      </c>
       <c r="I53" s="17"/>
-      <c r="J53" s="18"/>
+      <c r="J53" s="17"/>
       <c r="K53" s="18"/>
       <c r="L53" s="18"/>
-      <c r="M53" s="20"/>
-      <c r="N53" s="29"/>
+      <c r="M53" s="18"/>
+      <c r="N53" s="20"/>
       <c r="O53" s="29"/>
       <c r="P53" s="29"/>
       <c r="Q53" s="29"/>
       <c r="R53" s="29"/>
       <c r="S53" s="29"/>
-      <c r="T53" s="29"/>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T53" s="29">
+        <v>1.25</v>
+      </c>
+      <c r="V53" s="29"/>
+      <c r="W53" s="29"/>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>73</v>
+        <v>212</v>
       </c>
       <c r="B54" s="16"/>
       <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
+      <c r="D54" s="16">
+        <v>20</v>
+      </c>
       <c r="E54" s="16"/>
       <c r="F54" s="16"/>
       <c r="G54" s="16">
-        <v>1.5</v>
+        <v>25</v>
       </c>
       <c r="H54" s="16"/>
       <c r="I54" s="16"/>
-      <c r="J54" s="18"/>
+      <c r="J54" s="16"/>
       <c r="K54" s="18"/>
-      <c r="L54" s="18"/>
+      <c r="L54" s="18">
+        <v>35</v>
+      </c>
       <c r="M54" s="18"/>
-      <c r="N54" s="29"/>
-      <c r="O54" s="29"/>
-      <c r="P54" s="29"/>
+      <c r="N54" s="18"/>
+      <c r="O54" s="29">
+        <v>75</v>
+      </c>
+      <c r="P54" s="29">
+        <v>1380</v>
+      </c>
       <c r="Q54" s="29"/>
       <c r="R54" s="29"/>
-      <c r="S54" s="29">
-        <v>5</v>
-      </c>
-      <c r="T54" s="29"/>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S54" s="29"/>
+      <c r="T54" s="29">
+        <v>250</v>
+      </c>
+      <c r="V54" s="29">
+        <v>600</v>
+      </c>
+      <c r="W54" s="29">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
       <c r="D55" s="16"/>
       <c r="E55" s="16"/>
       <c r="F55" s="16"/>
-      <c r="G55" s="16">
+      <c r="G55" s="16"/>
+      <c r="H55" s="16">
         <v>5</v>
       </c>
-      <c r="H55" s="16"/>
       <c r="I55" s="16"/>
-      <c r="J55" s="18"/>
+      <c r="J55" s="16"/>
       <c r="K55" s="18"/>
       <c r="L55" s="18"/>
       <c r="M55" s="18"/>
-      <c r="N55" s="29"/>
+      <c r="N55" s="18"/>
       <c r="O55" s="29"/>
       <c r="P55" s="29"/>
       <c r="Q55" s="29"/>
       <c r="R55" s="29"/>
       <c r="S55" s="29"/>
       <c r="T55" s="29"/>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V55" s="29"/>
+      <c r="W55" s="29"/>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
@@ -3205,135 +3339,148 @@
       <c r="G56" s="16"/>
       <c r="H56" s="16"/>
       <c r="I56" s="16"/>
-      <c r="J56" s="18"/>
+      <c r="J56" s="16"/>
       <c r="K56" s="18"/>
       <c r="L56" s="18"/>
-      <c r="M56" s="19"/>
-      <c r="N56" s="29"/>
+      <c r="M56" s="18"/>
+      <c r="N56" s="19"/>
       <c r="O56" s="29"/>
       <c r="P56" s="29"/>
       <c r="Q56" s="29"/>
       <c r="R56" s="29"/>
       <c r="S56" s="29"/>
       <c r="T56" s="29"/>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V56" s="29"/>
+      <c r="W56" s="29"/>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B57" s="16"/>
-      <c r="C57" s="16">
+      <c r="C57" s="16"/>
+      <c r="D57" s="16">
         <v>14</v>
       </c>
-      <c r="D57" s="16"/>
       <c r="E57" s="16"/>
-      <c r="F57" s="17">
+      <c r="F57" s="16"/>
+      <c r="G57" s="17">
         <v>18</v>
       </c>
-      <c r="G57" s="17">
+      <c r="H57" s="17">
         <v>28</v>
       </c>
-      <c r="H57" s="17"/>
       <c r="I57" s="17"/>
-      <c r="J57" s="18"/>
-      <c r="K57" s="18">
+      <c r="J57" s="17"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="18">
         <v>23</v>
       </c>
-      <c r="L57" s="18"/>
-      <c r="M57" s="20"/>
-      <c r="N57" s="29">
+      <c r="M57" s="18"/>
+      <c r="N57" s="20"/>
+      <c r="O57" s="29">
         <v>20</v>
       </c>
-      <c r="O57" s="23">
+      <c r="P57" s="23">
         <v>35</v>
       </c>
-      <c r="P57" s="29"/>
       <c r="Q57" s="29"/>
-      <c r="R57" s="29">
+      <c r="R57" s="29"/>
+      <c r="S57" s="29">
         <v>35</v>
       </c>
-      <c r="S57" s="29"/>
       <c r="T57" s="29">
+        <v>46</v>
+      </c>
+      <c r="V57" s="29"/>
+      <c r="W57" s="29">
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="16"/>
+        <v>259</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>82</v>
+      </c>
       <c r="D58" s="16"/>
       <c r="E58" s="16"/>
-      <c r="F58" s="17">
-        <v>20</v>
-      </c>
+      <c r="F58" s="16"/>
       <c r="G58" s="17">
         <v>20</v>
       </c>
-      <c r="H58" s="17"/>
+      <c r="H58" s="17">
+        <v>20</v>
+      </c>
       <c r="I58" s="17"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="18">
+      <c r="J58" s="17"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18">
         <v>15</v>
       </c>
-      <c r="L58" s="18">
+      <c r="M58" s="18">
         <v>18</v>
       </c>
-      <c r="M58" s="23"/>
-      <c r="N58" s="29"/>
+      <c r="N58" s="23"/>
       <c r="O58" s="29"/>
       <c r="P58" s="29"/>
       <c r="Q58" s="29"/>
       <c r="R58" s="29"/>
       <c r="S58" s="29"/>
       <c r="T58" s="29"/>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V58" s="29"/>
+      <c r="W58" s="29"/>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="D59" s="14"/>
+        <v>76</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>76</v>
+      </c>
       <c r="E59" s="14"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="H59" s="15"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15" t="s">
+        <v>87</v>
+      </c>
       <c r="I59" s="15"/>
       <c r="J59" s="15"/>
       <c r="K59" s="15"/>
       <c r="L59" s="15"/>
       <c r="M59" s="15"/>
-      <c r="N59" t="s">
-        <v>113</v>
-      </c>
+      <c r="N59" s="15"/>
       <c r="O59" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>120</v>
-      </c>
-      <c r="S59" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="P59" t="s">
+        <v>105</v>
+      </c>
+      <c r="R59" t="s">
+        <v>110</v>
+      </c>
+      <c r="V59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B60" s="14"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="15"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="14"/>
       <c r="F60" s="15"/>
       <c r="G60" s="15"/>
       <c r="H60" s="15"/>
@@ -3341,14 +3488,15 @@
       <c r="J60" s="15"/>
       <c r="K60" s="15"/>
       <c r="L60" s="15"/>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M60" s="15"/>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
-      <c r="D61" s="15"/>
+      <c r="D61" s="14"/>
       <c r="E61" s="15"/>
       <c r="F61" s="15"/>
       <c r="G61" s="15"/>
@@ -3357,212 +3505,213 @@
       <c r="J61" s="15"/>
       <c r="K61" s="15"/>
       <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
     </row>
     <row r="67" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
+        <v>120</v>
+      </c>
+      <c r="C67" t="s">
+        <v>127</v>
+      </c>
+      <c r="D67" t="s">
         <v>130</v>
       </c>
-      <c r="C67" t="s">
+      <c r="E67" t="s">
+        <v>133</v>
+      </c>
+      <c r="F67" t="s">
+        <v>135</v>
+      </c>
+      <c r="G67" t="s">
         <v>137</v>
       </c>
-      <c r="D67" t="s">
-        <v>140</v>
-      </c>
-      <c r="E67" t="s">
-        <v>143</v>
-      </c>
-      <c r="F67" t="s">
+      <c r="H67" t="s">
+        <v>139</v>
+      </c>
+      <c r="J67" t="s">
+        <v>141</v>
+      </c>
+      <c r="K67" t="s">
         <v>145</v>
       </c>
-      <c r="G67" t="s">
+      <c r="L67" t="s">
+        <v>149</v>
+      </c>
+      <c r="M67" t="s">
         <v>147</v>
       </c>
-      <c r="H67" t="s">
-        <v>149</v>
-      </c>
-      <c r="J67" t="s">
+      <c r="N67" t="s">
         <v>151</v>
       </c>
-      <c r="K67" t="s">
+      <c r="O67" t="s">
+        <v>153</v>
+      </c>
+      <c r="P67" t="s">
         <v>155</v>
       </c>
-      <c r="L67" t="s">
-        <v>159</v>
-      </c>
-      <c r="M67" t="s">
+      <c r="R67" t="s">
         <v>157</v>
       </c>
-      <c r="N67" t="s">
-        <v>161</v>
-      </c>
-      <c r="O67" t="s">
-        <v>163</v>
-      </c>
-      <c r="P67" t="s">
+      <c r="S67" t="s">
+        <v>162</v>
+      </c>
+      <c r="T67" t="s">
         <v>165</v>
       </c>
-      <c r="R67" t="s">
+      <c r="U67" t="s">
         <v>167</v>
       </c>
-      <c r="S67" t="s">
-        <v>172</v>
-      </c>
-      <c r="T67" t="s">
+      <c r="V67" t="s">
+        <v>169</v>
+      </c>
+      <c r="W67" t="s">
+        <v>171</v>
+      </c>
+      <c r="X67" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z67" t="s">
         <v>175</v>
       </c>
-      <c r="U67" t="s">
-        <v>177</v>
-      </c>
-      <c r="V67" t="s">
-        <v>179</v>
-      </c>
-      <c r="W67" t="s">
-        <v>181</v>
-      </c>
-      <c r="X67" t="s">
-        <v>183</v>
-      </c>
-      <c r="Z67" t="s">
-        <v>185</v>
-      </c>
       <c r="AA67" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB67" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC67" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD67" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE67" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF67" t="s">
         <v>188</v>
       </c>
-      <c r="AB67" t="s">
-        <v>190</v>
-      </c>
-      <c r="AC67" t="s">
-        <v>192</v>
-      </c>
-      <c r="AD67" t="s">
-        <v>194</v>
-      </c>
-      <c r="AE67" t="s">
+      <c r="AG67" t="s">
+        <v>191</v>
+      </c>
+      <c r="AH67" t="s">
+        <v>193</v>
+      </c>
+      <c r="AI67" t="s">
         <v>196</v>
       </c>
-      <c r="AF67" t="s">
+      <c r="AJ67" t="s">
         <v>198</v>
       </c>
-      <c r="AG67" t="s">
-        <v>201</v>
-      </c>
-      <c r="AH67" t="s">
-        <v>203</v>
-      </c>
-      <c r="AI67" t="s">
-        <v>206</v>
-      </c>
-      <c r="AJ67" t="s">
-        <v>208</v>
-      </c>
       <c r="AL67" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="68" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C68" t="s">
+        <v>128</v>
+      </c>
+      <c r="D68" t="s">
+        <v>131</v>
+      </c>
+      <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
+        <v>136</v>
+      </c>
+      <c r="G68" t="s">
         <v>138</v>
       </c>
-      <c r="D68" t="s">
-        <v>141</v>
-      </c>
-      <c r="E68" t="s">
-        <v>144</v>
-      </c>
-      <c r="F68" t="s">
+      <c r="H68" t="s">
+        <v>140</v>
+      </c>
+      <c r="J68" t="s">
+        <v>142</v>
+      </c>
+      <c r="K68" t="s">
         <v>146</v>
       </c>
-      <c r="G68" t="s">
+      <c r="L68" t="s">
         <v>148</v>
       </c>
-      <c r="H68" t="s">
+      <c r="M68" t="s">
         <v>150</v>
       </c>
-      <c r="J68" t="s">
+      <c r="N68" t="s">
         <v>152</v>
       </c>
-      <c r="K68" t="s">
+      <c r="O68" t="s">
+        <v>154</v>
+      </c>
+      <c r="P68" t="s">
         <v>156</v>
       </c>
-      <c r="L68" t="s">
+      <c r="R68" t="s">
         <v>158</v>
       </c>
-      <c r="M68" t="s">
-        <v>160</v>
-      </c>
-      <c r="N68" t="s">
-        <v>162</v>
-      </c>
-      <c r="O68" t="s">
-        <v>164</v>
-      </c>
-      <c r="P68" t="s">
+      <c r="S68" t="s">
+        <v>163</v>
+      </c>
+      <c r="T68" t="s">
         <v>166</v>
       </c>
-      <c r="R68" t="s">
+      <c r="U68" t="s">
         <v>168</v>
       </c>
-      <c r="S68" t="s">
-        <v>173</v>
-      </c>
-      <c r="T68" t="s">
+      <c r="V68" t="s">
+        <v>115</v>
+      </c>
+      <c r="W68" t="s">
+        <v>172</v>
+      </c>
+      <c r="X68" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z68" t="s">
         <v>176</v>
       </c>
-      <c r="U68" t="s">
-        <v>178</v>
-      </c>
-      <c r="V68" t="s">
-        <v>125</v>
-      </c>
-      <c r="W68" t="s">
-        <v>182</v>
-      </c>
-      <c r="X68" t="s">
-        <v>184</v>
-      </c>
-      <c r="Z68" t="s">
-        <v>186</v>
-      </c>
       <c r="AA68" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC68" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD68" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE68" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF68" t="s">
         <v>189</v>
       </c>
-      <c r="AB68" t="s">
-        <v>191</v>
-      </c>
-      <c r="AC68" t="s">
-        <v>193</v>
-      </c>
-      <c r="AD68" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE68" t="s">
+      <c r="AG68" t="s">
+        <v>192</v>
+      </c>
+      <c r="AH68" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI68" t="s">
         <v>197</v>
       </c>
-      <c r="AF68" t="s">
+      <c r="AJ68" t="s">
         <v>199</v>
       </c>
-      <c r="AG68" t="s">
-        <v>202</v>
-      </c>
-      <c r="AH68" t="s">
-        <v>204</v>
-      </c>
-      <c r="AI68" t="s">
-        <v>207</v>
-      </c>
-      <c r="AJ68" t="s">
-        <v>209</v>
-      </c>
       <c r="AL68" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B70">
         <v>8000</v>
@@ -3637,19 +3786,19 @@
         <v>7000</v>
       </c>
       <c r="AF70" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AG70" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AH70" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="AI70">
         <v>3800</v>
       </c>
       <c r="AJ70" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="AL70">
         <v>500</v>
@@ -3657,7 +3806,7 @@
     </row>
     <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B71">
         <v>13300</v>
@@ -3740,7 +3889,7 @@
     </row>
     <row r="72" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B72">
         <v>1520</v>
@@ -3823,7 +3972,7 @@
     </row>
     <row r="73" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B73">
         <v>2600</v>
@@ -3906,7 +4055,7 @@
     </row>
     <row r="74" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B74">
         <v>40</v>
@@ -3950,7 +4099,7 @@
     </row>
     <row r="75" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="J75">
         <v>150</v>
@@ -3982,7 +4131,7 @@
     </row>
     <row r="76" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="J76">
         <v>1</v>
@@ -3990,7 +4139,7 @@
     </row>
     <row r="77" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="R77">
         <v>35</v>
@@ -4031,7 +4180,7 @@
     </row>
     <row r="78" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="R78">
         <v>44</v>
@@ -4072,7 +4221,7 @@
     </row>
     <row r="79" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="S79">
         <v>1.5</v>
@@ -4107,7 +4256,7 @@
     </row>
     <row r="80" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="R80">
         <v>2</v>
@@ -4136,7 +4285,7 @@
     </row>
     <row r="81" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="V81">
         <v>5</v>
@@ -4147,135 +4296,135 @@
     </row>
     <row r="82" spans="1:30" x14ac:dyDescent="0.25">
       <c r="Z82" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="AA82" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="AB82" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="AC82" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="87" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B87" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C87" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="D87" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="E87" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F87" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="G87" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="H87" t="s">
+        <v>228</v>
+      </c>
+      <c r="I87" t="s">
+        <v>233</v>
+      </c>
+      <c r="J87" t="s">
+        <v>233</v>
+      </c>
+      <c r="K87" t="s">
         <v>238</v>
       </c>
-      <c r="I87" t="s">
-        <v>243</v>
-      </c>
-      <c r="J87" t="s">
-        <v>243</v>
-      </c>
-      <c r="K87" t="s">
-        <v>248</v>
-      </c>
       <c r="L87" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="88" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B88" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C88" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="D88" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E88" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="F88" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="G88" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="H88" t="s">
+        <v>229</v>
+      </c>
+      <c r="I88" t="s">
+        <v>234</v>
+      </c>
+      <c r="J88" t="s">
+        <v>234</v>
+      </c>
+      <c r="K88" t="s">
         <v>239</v>
       </c>
-      <c r="I88" t="s">
-        <v>244</v>
-      </c>
-      <c r="J88" t="s">
-        <v>244</v>
-      </c>
-      <c r="K88" t="s">
-        <v>249</v>
-      </c>
       <c r="L88" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="89" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B89" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C89" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D89" t="s">
+        <v>220</v>
+      </c>
+      <c r="E89" t="s">
+        <v>220</v>
+      </c>
+      <c r="F89" t="s">
+        <v>224</v>
+      </c>
+      <c r="G89" t="s">
+        <v>224</v>
+      </c>
+      <c r="H89" t="s">
         <v>230</v>
       </c>
-      <c r="E89" t="s">
-        <v>230</v>
-      </c>
-      <c r="F89" t="s">
-        <v>234</v>
-      </c>
-      <c r="G89" t="s">
-        <v>234</v>
-      </c>
-      <c r="H89" t="s">
+      <c r="I89" t="s">
+        <v>235</v>
+      </c>
+      <c r="J89" t="s">
+        <v>235</v>
+      </c>
+      <c r="K89" t="s">
         <v>240</v>
       </c>
-      <c r="I89" t="s">
-        <v>245</v>
-      </c>
-      <c r="J89" t="s">
-        <v>245</v>
-      </c>
-      <c r="K89" t="s">
-        <v>250</v>
-      </c>
       <c r="L89" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="90" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B90">
         <v>500</v>
@@ -4304,7 +4453,7 @@
     </row>
     <row r="92" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B92">
         <v>2880</v>
@@ -4333,7 +4482,7 @@
     </row>
     <row r="93" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B93">
         <v>360</v>
@@ -4362,7 +4511,7 @@
     </row>
     <row r="94" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B94">
         <v>1440</v>
@@ -4391,7 +4540,7 @@
     </row>
     <row r="96" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B96">
         <v>6</v>
@@ -4420,45 +4569,45 @@
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D97" t="s">
+        <v>227</v>
+      </c>
+      <c r="E97" t="s">
+        <v>226</v>
+      </c>
+      <c r="F97" t="s">
+        <v>225</v>
+      </c>
+      <c r="G97" t="s">
+        <v>231</v>
+      </c>
+      <c r="H97" t="s">
+        <v>232</v>
+      </c>
+      <c r="I97" t="s">
+        <v>236</v>
+      </c>
+      <c r="J97" t="s">
         <v>237</v>
       </c>
-      <c r="E97" t="s">
-        <v>236</v>
-      </c>
-      <c r="F97" t="s">
-        <v>235</v>
-      </c>
-      <c r="G97" t="s">
-        <v>241</v>
-      </c>
-      <c r="H97" t="s">
-        <v>242</v>
-      </c>
-      <c r="I97" t="s">
+      <c r="K97" t="s">
+        <v>225</v>
+      </c>
+      <c r="L97" t="s">
+        <v>227</v>
+      </c>
+      <c r="M97" t="s">
         <v>246</v>
       </c>
-      <c r="J97" t="s">
-        <v>247</v>
-      </c>
-      <c r="K97" t="s">
-        <v>235</v>
-      </c>
-      <c r="L97" t="s">
-        <v>237</v>
-      </c>
-      <c r="M97" t="s">
-        <v>256</v>
-      </c>
       <c r="N97" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="O97" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B98">
         <v>25</v>
@@ -4505,7 +4654,7 @@
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -4549,7 +4698,7 @@
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B100">
         <v>2</v>
@@ -4596,7 +4745,7 @@
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B101">
         <v>32</v>
@@ -4643,7 +4792,7 @@
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="B102">
         <v>0.83299999999999996</v>
@@ -4690,7 +4839,7 @@
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B103">
         <v>41.6</v>
@@ -4699,7 +4848,7 @@
         <v>60</v>
       </c>
       <c r="D103" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E103">
         <v>50</v>
@@ -4737,16 +4886,16 @@
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="D105" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="J105" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="L105" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/Units.xlsx
+++ b/Units.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="272">
   <si>
     <t>Stats</t>
   </si>
@@ -228,9 +228,6 @@
     <t>Energy maintaince</t>
   </si>
   <si>
-    <t>Minimal range/lower</t>
-  </si>
-  <si>
     <t>Other weapon range</t>
   </si>
   <si>
@@ -832,6 +829,12 @@
   </si>
   <si>
     <t>Astor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">firing randomnes </t>
+  </si>
+  <si>
+    <t>0,9/1,1</t>
   </si>
 </sst>
 </file>
@@ -1514,9 +1517,9 @@
   <dimension ref="A1:AL105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection activeCell="A73" sqref="A73"/>
-      <selection pane="topRight" activeCell="S64" sqref="S64"/>
+      <selection pane="topRight" activeCell="M55" sqref="M55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1571,19 +1574,19 @@
         <v>53</v>
       </c>
       <c r="B5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E5" t="s">
+        <v>246</v>
+      </c>
+      <c r="F5" t="s">
         <v>202</v>
-      </c>
-      <c r="C5" t="s">
-        <v>201</v>
-      </c>
-      <c r="D5" t="s">
-        <v>200</v>
-      </c>
-      <c r="E5" t="s">
-        <v>247</v>
-      </c>
-      <c r="F5" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1624,7 +1627,7 @@
         <v>37</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>43</v>
@@ -1633,7 +1636,7 @@
         <v>51</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>47</v>
@@ -2462,134 +2465,134 @@
         <v>60</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F38" s="26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G38" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H38" s="26"/>
       <c r="I38" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J38" t="s">
+        <v>87</v>
+      </c>
+      <c r="L38" t="s">
         <v>88</v>
       </c>
-      <c r="L38" t="s">
-        <v>89</v>
-      </c>
       <c r="M38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="S38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="T38" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="U38" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="V38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="W38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C39" s="21" t="s">
         <v>21</v>
       </c>
       <c r="D39" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="G39" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="E39" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="F39" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="G39" s="22" t="s">
+      <c r="H39" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="H39" s="22" t="s">
-        <v>80</v>
-      </c>
       <c r="I39" s="22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J39" s="22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K39" s="27"/>
       <c r="L39" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M39" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N39" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O39" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P39" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q39" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R39" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S39" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T39" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="U39" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="V39" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W39" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
@@ -2598,59 +2601,59 @@
       </c>
       <c r="B40" s="24"/>
       <c r="C40" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E40" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="F40" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="G40" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="H40" s="24" t="s">
         <v>85</v>
-      </c>
-      <c r="F40" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="G40" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="H40" s="24" t="s">
-        <v>86</v>
       </c>
       <c r="I40" s="24"/>
       <c r="J40" s="24"/>
       <c r="K40" s="25"/>
       <c r="L40" s="25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M40" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N40" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O40" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P40" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q40" s="15"/>
       <c r="R40" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S40" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T40" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="U40" s="28" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="V40" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W40" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
@@ -3113,10 +3116,10 @@
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C50" s="16"/>
       <c r="D50" s="16">
@@ -3133,14 +3136,16 @@
         <v>300</v>
       </c>
       <c r="I50" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="J50" s="17" t="s">
         <v>265</v>
-      </c>
-      <c r="J50" s="17" t="s">
-        <v>266</v>
       </c>
       <c r="K50" s="18"/>
       <c r="L50" s="18"/>
-      <c r="M50" s="18"/>
+      <c r="M50" s="18">
+        <v>200</v>
+      </c>
       <c r="N50" s="19"/>
       <c r="O50" s="29"/>
       <c r="P50" s="29"/>
@@ -3155,7 +3160,7 @@
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
@@ -3174,7 +3179,9 @@
       <c r="J51" s="16"/>
       <c r="K51" s="18"/>
       <c r="L51" s="18"/>
-      <c r="M51" s="18"/>
+      <c r="M51" s="18">
+        <v>1.75</v>
+      </c>
       <c r="N51" s="19"/>
       <c r="O51" s="29"/>
       <c r="P51" s="29"/>
@@ -3191,7 +3198,7 @@
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
@@ -3210,7 +3217,9 @@
       <c r="J52" s="16"/>
       <c r="K52" s="18"/>
       <c r="L52" s="18"/>
-      <c r="M52" s="18"/>
+      <c r="M52" s="18">
+        <v>2</v>
+      </c>
       <c r="N52" s="18"/>
       <c r="O52" s="29"/>
       <c r="P52" s="29"/>
@@ -3225,7 +3234,7 @@
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B53" s="16"/>
       <c r="C53" s="16"/>
@@ -3244,7 +3253,9 @@
       <c r="J53" s="17"/>
       <c r="K53" s="18"/>
       <c r="L53" s="18"/>
-      <c r="M53" s="18"/>
+      <c r="M53" s="18">
+        <v>0.125</v>
+      </c>
       <c r="N53" s="20"/>
       <c r="O53" s="29"/>
       <c r="P53" s="29"/>
@@ -3259,7 +3270,7 @@
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B54" s="16"/>
       <c r="C54" s="16"/>
@@ -3278,7 +3289,9 @@
       <c r="L54" s="18">
         <v>35</v>
       </c>
-      <c r="M54" s="18"/>
+      <c r="M54" s="18">
+        <v>50</v>
+      </c>
       <c r="N54" s="18"/>
       <c r="O54" s="29">
         <v>75</v>
@@ -3301,7 +3314,7 @@
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>69</v>
+        <v>270</v>
       </c>
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
@@ -3316,7 +3329,9 @@
       <c r="J55" s="16"/>
       <c r="K55" s="18"/>
       <c r="L55" s="18"/>
-      <c r="M55" s="18"/>
+      <c r="M55" s="18" t="s">
+        <v>271</v>
+      </c>
       <c r="N55" s="18"/>
       <c r="O55" s="29"/>
       <c r="P55" s="29"/>
@@ -3329,7 +3344,7 @@
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
@@ -3342,7 +3357,9 @@
       <c r="J56" s="16"/>
       <c r="K56" s="18"/>
       <c r="L56" s="18"/>
-      <c r="M56" s="18"/>
+      <c r="M56" s="18">
+        <v>5</v>
+      </c>
       <c r="N56" s="19"/>
       <c r="O56" s="29"/>
       <c r="P56" s="29"/>
@@ -3355,7 +3372,7 @@
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
@@ -3376,7 +3393,9 @@
       <c r="L57" s="18">
         <v>23</v>
       </c>
-      <c r="M57" s="18"/>
+      <c r="M57" s="18">
+        <v>60</v>
+      </c>
       <c r="N57" s="20"/>
       <c r="O57" s="29">
         <v>20</v>
@@ -3399,13 +3418,13 @@
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D58" s="16"/>
       <c r="E58" s="16"/>
@@ -3437,22 +3456,22 @@
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E59" s="14"/>
       <c r="F59" s="14"/>
       <c r="G59" s="15"/>
       <c r="H59" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I59" s="15"/>
       <c r="J59" s="15"/>
@@ -3461,21 +3480,21 @@
       <c r="M59" s="15"/>
       <c r="N59" s="15"/>
       <c r="O59" t="s">
+        <v>103</v>
+      </c>
+      <c r="P59" t="s">
         <v>104</v>
       </c>
-      <c r="P59" t="s">
-        <v>105</v>
-      </c>
       <c r="R59" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="V59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
@@ -3492,7 +3511,7 @@
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
@@ -3509,209 +3528,209 @@
     </row>
     <row r="67" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C67" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E67" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F67" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G67" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J67" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K67" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L67" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M67" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N67" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O67" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P67" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R67" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S67" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T67" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U67" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="V67" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W67" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="X67" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Z67" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AA67" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AB67" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AC67" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AD67" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AE67" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF67" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AG67" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AH67" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AI67" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AJ67" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AL67" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="68" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D68" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E68" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F68" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G68" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H68" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J68" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K68" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L68" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M68" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N68" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O68" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P68" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="R68" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="S68" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="T68" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="U68" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="V68" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W68" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="X68" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Z68" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AA68" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AB68" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AC68" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AD68" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AE68" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF68" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AG68" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AH68" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AI68" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AJ68" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AL68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B70">
         <v>8000</v>
@@ -3786,19 +3805,19 @@
         <v>7000</v>
       </c>
       <c r="AF70" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AG70" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AH70" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AI70">
         <v>3800</v>
       </c>
       <c r="AJ70" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AL70">
         <v>500</v>
@@ -3806,7 +3825,7 @@
     </row>
     <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B71">
         <v>13300</v>
@@ -3889,7 +3908,7 @@
     </row>
     <row r="72" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B72">
         <v>1520</v>
@@ -3972,7 +3991,7 @@
     </row>
     <row r="73" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B73">
         <v>2600</v>
@@ -4055,7 +4074,7 @@
     </row>
     <row r="74" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B74">
         <v>40</v>
@@ -4099,7 +4118,7 @@
     </row>
     <row r="75" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J75">
         <v>150</v>
@@ -4131,7 +4150,7 @@
     </row>
     <row r="76" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J76">
         <v>1</v>
@@ -4139,7 +4158,7 @@
     </row>
     <row r="77" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R77">
         <v>35</v>
@@ -4180,7 +4199,7 @@
     </row>
     <row r="78" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R78">
         <v>44</v>
@@ -4221,7 +4240,7 @@
     </row>
     <row r="79" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S79">
         <v>1.5</v>
@@ -4256,7 +4275,7 @@
     </row>
     <row r="80" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R80">
         <v>2</v>
@@ -4285,7 +4304,7 @@
     </row>
     <row r="81" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="V81">
         <v>5</v>
@@ -4296,135 +4315,135 @@
     </row>
     <row r="82" spans="1:30" x14ac:dyDescent="0.25">
       <c r="Z82" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AA82" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AB82" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AC82" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="87" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B87" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C87" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D87" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E87" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F87" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G87" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H87" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I87" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J87" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K87" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L87" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="88" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B88" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C88" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D88" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E88" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F88" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G88" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H88" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I88" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J88" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K88" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L88" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="89" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B89" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C89" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D89" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E89" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F89" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G89" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H89" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I89" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J89" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K89" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L89" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="90" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B90">
         <v>500</v>
@@ -4453,7 +4472,7 @@
     </row>
     <row r="92" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B92">
         <v>2880</v>
@@ -4482,7 +4501,7 @@
     </row>
     <row r="93" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B93">
         <v>360</v>
@@ -4511,7 +4530,7 @@
     </row>
     <row r="94" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B94">
         <v>1440</v>
@@ -4540,7 +4559,7 @@
     </row>
     <row r="96" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B96">
         <v>6</v>
@@ -4569,45 +4588,45 @@
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D97" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E97" t="s">
+        <v>225</v>
+      </c>
+      <c r="F97" t="s">
+        <v>224</v>
+      </c>
+      <c r="G97" t="s">
+        <v>230</v>
+      </c>
+      <c r="H97" t="s">
+        <v>231</v>
+      </c>
+      <c r="I97" t="s">
+        <v>235</v>
+      </c>
+      <c r="J97" t="s">
+        <v>236</v>
+      </c>
+      <c r="K97" t="s">
+        <v>224</v>
+      </c>
+      <c r="L97" t="s">
         <v>226</v>
       </c>
-      <c r="F97" t="s">
-        <v>225</v>
-      </c>
-      <c r="G97" t="s">
+      <c r="M97" t="s">
+        <v>245</v>
+      </c>
+      <c r="N97" t="s">
         <v>231</v>
       </c>
-      <c r="H97" t="s">
-        <v>232</v>
-      </c>
-      <c r="I97" t="s">
-        <v>236</v>
-      </c>
-      <c r="J97" t="s">
-        <v>237</v>
-      </c>
-      <c r="K97" t="s">
-        <v>225</v>
-      </c>
-      <c r="L97" t="s">
-        <v>227</v>
-      </c>
-      <c r="M97" t="s">
-        <v>246</v>
-      </c>
-      <c r="N97" t="s">
-        <v>232</v>
-      </c>
       <c r="O97" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B98">
         <v>25</v>
@@ -4654,7 +4673,7 @@
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -4698,7 +4717,7 @@
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B100">
         <v>2</v>
@@ -4745,7 +4764,7 @@
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B101">
         <v>32</v>
@@ -4792,7 +4811,7 @@
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B102">
         <v>0.83299999999999996</v>
@@ -4839,7 +4858,7 @@
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B103">
         <v>41.6</v>
@@ -4848,7 +4867,7 @@
         <v>60</v>
       </c>
       <c r="D103" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E103">
         <v>50</v>
@@ -4886,16 +4905,16 @@
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>217</v>
+      </c>
+      <c r="D105" t="s">
         <v>218</v>
       </c>
-      <c r="D105" t="s">
-        <v>219</v>
-      </c>
       <c r="J105" t="s">
+        <v>243</v>
+      </c>
+      <c r="L105" t="s">
         <v>244</v>
-      </c>
-      <c r="L105" t="s">
-        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/Units.xlsx
+++ b/Units.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="273">
   <si>
     <t>Stats</t>
   </si>
@@ -835,6 +835,9 @@
   </si>
   <si>
     <t>0,9/1,1</t>
+  </si>
+  <si>
+    <t>20/140</t>
   </si>
 </sst>
 </file>
@@ -1516,10 +1519,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection activeCell="A73" sqref="A73"/>
-      <selection pane="topRight" activeCell="M55" sqref="M55"/>
+      <selection pane="topRight" activeCell="S47" sqref="S47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3050,7 +3053,7 @@
         <v>3500</v>
       </c>
       <c r="S48" s="23">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="T48" s="23">
         <v>2200</v>
@@ -3103,7 +3106,9 @@
       <c r="R49" s="23">
         <v>3.75</v>
       </c>
-      <c r="S49" s="29"/>
+      <c r="S49" s="29">
+        <v>2.7</v>
+      </c>
       <c r="T49" s="23">
         <v>3</v>
       </c>
@@ -3151,7 +3156,9 @@
       <c r="P50" s="29"/>
       <c r="Q50" s="29"/>
       <c r="R50" s="29"/>
-      <c r="S50" s="29"/>
+      <c r="S50" s="29" t="s">
+        <v>272</v>
+      </c>
       <c r="T50" s="29">
         <v>200</v>
       </c>
@@ -3187,7 +3194,9 @@
       <c r="P51" s="29"/>
       <c r="Q51" s="29"/>
       <c r="R51" s="29"/>
-      <c r="S51" s="29"/>
+      <c r="S51" s="29">
+        <v>1.3</v>
+      </c>
       <c r="T51" s="29">
         <v>0</v>
       </c>
@@ -3225,7 +3234,9 @@
       <c r="P52" s="29"/>
       <c r="Q52" s="29"/>
       <c r="R52" s="29"/>
-      <c r="S52" s="29"/>
+      <c r="S52" s="29">
+        <v>1</v>
+      </c>
       <c r="T52" s="29">
         <v>1</v>
       </c>
@@ -3261,7 +3272,9 @@
       <c r="P53" s="29"/>
       <c r="Q53" s="29"/>
       <c r="R53" s="29"/>
-      <c r="S53" s="29"/>
+      <c r="S53" s="29">
+        <v>0.76900000000000002</v>
+      </c>
       <c r="T53" s="29">
         <v>1.25</v>
       </c>

--- a/Units.xlsx
+++ b/Units.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="273">
   <si>
     <t>Stats</t>
   </si>
@@ -228,24 +228,6 @@
     <t>Energy maintaince</t>
   </si>
   <si>
-    <t>DPS 1st weapon</t>
-  </si>
-  <si>
-    <t>DPS 2th weapon</t>
-  </si>
-  <si>
-    <t>DPS 3rd weapon</t>
-  </si>
-  <si>
-    <t>shot/second</t>
-  </si>
-  <si>
-    <t>Area efect</t>
-  </si>
-  <si>
-    <t>Minimal range/lower</t>
-  </si>
-  <si>
     <t>Other weapon range</t>
   </si>
   <si>
@@ -273,18 +255,12 @@
     <t>lab</t>
   </si>
   <si>
-    <t>aa/arty</t>
-  </si>
-  <si>
     <t>tank</t>
   </si>
   <si>
     <t>tank destroyer</t>
   </si>
   <si>
-    <t>Enginer</t>
-  </si>
-  <si>
     <t>Silhouette</t>
   </si>
   <si>
@@ -297,9 +273,6 @@
     <t>Intel</t>
   </si>
   <si>
-    <t>T2 enginer</t>
-  </si>
-  <si>
     <t>Barrager</t>
   </si>
   <si>
@@ -312,9 +285,6 @@
     <t>inu201</t>
   </si>
   <si>
-    <t>t3 engie</t>
-  </si>
-  <si>
     <t>inu2002</t>
   </si>
   <si>
@@ -366,9 +336,6 @@
     <t>transportable</t>
   </si>
   <si>
-    <t>inu3001</t>
-  </si>
-  <si>
     <t>Sacu</t>
   </si>
   <si>
@@ -796,6 +763,81 @@
   </si>
   <si>
     <t>Golem</t>
+  </si>
+  <si>
+    <t>inu3008</t>
+  </si>
+  <si>
+    <t>inu3007</t>
+  </si>
+  <si>
+    <t>T3 mAA</t>
+  </si>
+  <si>
+    <t>Watchman</t>
+  </si>
+  <si>
+    <t>arty</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>T2 field enginer</t>
+  </si>
+  <si>
+    <t>Scarab</t>
+  </si>
+  <si>
+    <t>inu1002</t>
+  </si>
+  <si>
+    <t>inu1001</t>
+  </si>
+  <si>
+    <t>44 radar 24 vision</t>
+  </si>
+  <si>
+    <t>T1 enginer</t>
+  </si>
+  <si>
+    <t>inu1004</t>
+  </si>
+  <si>
+    <t>T2 Enginer</t>
+  </si>
+  <si>
+    <t>inu1005</t>
+  </si>
+  <si>
+    <t>T3 enginer</t>
+  </si>
+  <si>
+    <t>12,5bp</t>
+  </si>
+  <si>
+    <t>30bp</t>
+  </si>
+  <si>
+    <t>5bp</t>
+  </si>
+  <si>
+    <t>inu1006</t>
+  </si>
+  <si>
+    <t>inu1007</t>
+  </si>
+  <si>
+    <t>Astor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">firing randomnes </t>
+  </si>
+  <si>
+    <t>0,9/1,1</t>
+  </si>
+  <si>
+    <t>20/140</t>
   </si>
 </sst>
 </file>
@@ -1477,10 +1519,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection activeCell="A73" sqref="A73"/>
-      <selection pane="topRight" activeCell="D49" sqref="D49"/>
+      <selection pane="topRight" activeCell="S47" sqref="S47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1535,19 +1577,19 @@
         <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C5" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="D5" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="E5" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="F5" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1588,7 +1630,7 @@
         <v>37</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>43</v>
@@ -1597,7 +1639,7 @@
         <v>51</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>47</v>
@@ -2369,7 +2411,7 @@
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>14</v>
       </c>
@@ -2386,12 +2428,12 @@
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H34" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>15</v>
       </c>
@@ -2406,7 +2448,7 @@
       </c>
       <c r="E35" s="8"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>19</v>
       </c>
@@ -2421,481 +2463,521 @@
       </c>
       <c r="E36" s="8"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
+      <c r="B38" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="F38" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="H38" s="26"/>
       <c r="I38" t="s">
-        <v>96</v>
+        <v>262</v>
       </c>
       <c r="J38" t="s">
+        <v>87</v>
+      </c>
+      <c r="L38" t="s">
+        <v>88</v>
+      </c>
+      <c r="M38" t="s">
+        <v>91</v>
+      </c>
+      <c r="N38" t="s">
+        <v>94</v>
+      </c>
+      <c r="O38" t="s">
+        <v>97</v>
+      </c>
+      <c r="P38" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>106</v>
+      </c>
+      <c r="R38" t="s">
+        <v>106</v>
+      </c>
+      <c r="S38" t="s">
+        <v>110</v>
+      </c>
+      <c r="T38" t="s">
+        <v>249</v>
+      </c>
+      <c r="U38" t="s">
+        <v>248</v>
+      </c>
+      <c r="V38" t="s">
+        <v>113</v>
+      </c>
+      <c r="W38" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="G39" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="H39" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="I39" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="J39" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="M39" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="N39" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="O39" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="K38" t="s">
+      <c r="P39" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="L38" t="s">
-        <v>104</v>
-      </c>
-      <c r="M38" t="s">
+      <c r="Q39" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="R39" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="N38" t="s">
-        <v>110</v>
-      </c>
-      <c r="O38" t="s">
-        <v>115</v>
-      </c>
-      <c r="P38" t="s">
+      <c r="S39" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="T39" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="U39" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="V39" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="W39" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="Q38" t="s">
-        <v>121</v>
-      </c>
-      <c r="R38" t="s">
-        <v>124</v>
-      </c>
-      <c r="S38" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="E39" s="21"/>
-      <c r="F39" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="G39" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="H39" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="I39" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="J39" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="K39" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="L39" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="M39" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="N39" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="O39" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="P39" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q39" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="R39" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="S39" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="T39" s="22" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C40" s="24"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24" t="s">
+        <v>80</v>
+      </c>
       <c r="D40" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="F40" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="G40" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="H40" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="M40" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="G40" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="L40" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="M40" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="N40" s="28" t="s">
-        <v>109</v>
+      <c r="N40" s="25" t="s">
+        <v>96</v>
       </c>
       <c r="O40" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="P40" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="S40" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="Q40" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="R40" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="S40" s="28" t="s">
-        <v>126</v>
-      </c>
       <c r="T40" s="28" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+      <c r="U40" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="V40" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="W40" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>62</v>
       </c>
       <c r="B41" s="16">
+        <v>52</v>
+      </c>
+      <c r="C41" s="16">
         <v>12</v>
       </c>
-      <c r="C41" s="16">
+      <c r="D41" s="16">
         <v>35</v>
       </c>
-      <c r="D41" s="16"/>
       <c r="E41" s="16"/>
-      <c r="F41" s="16">
+      <c r="F41" s="16"/>
+      <c r="G41" s="16">
         <v>54</v>
       </c>
-      <c r="G41" s="17">
+      <c r="H41" s="17">
         <v>66</v>
       </c>
-      <c r="H41" s="17"/>
       <c r="I41" s="17">
         <v>130</v>
       </c>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18">
+      <c r="J41" s="17">
+        <v>312</v>
+      </c>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18">
         <v>100</v>
       </c>
-      <c r="L41" s="18">
+      <c r="M41" s="18">
         <v>220</v>
       </c>
-      <c r="M41" s="19"/>
-      <c r="N41" s="23">
+      <c r="N41" s="19"/>
+      <c r="O41" s="23">
         <v>197</v>
       </c>
-      <c r="O41" s="23">
+      <c r="P41" s="23">
         <v>12500</v>
       </c>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="23">
+      <c r="Q41" s="29"/>
+      <c r="R41" s="23">
         <v>640</v>
       </c>
-      <c r="R41" s="23">
+      <c r="S41" s="23">
         <v>360</v>
       </c>
-      <c r="S41" s="23">
+      <c r="T41" s="23">
+        <v>640</v>
+      </c>
+      <c r="V41" s="23">
         <v>960</v>
       </c>
-      <c r="T41" s="23">
+      <c r="W41" s="23">
         <v>480</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>63</v>
       </c>
       <c r="B42" s="16">
+        <v>260</v>
+      </c>
+      <c r="C42" s="16">
         <v>40</v>
       </c>
-      <c r="C42" s="16">
+      <c r="D42" s="16">
         <v>140</v>
       </c>
-      <c r="D42" s="16"/>
       <c r="E42" s="16"/>
-      <c r="F42" s="17">
+      <c r="F42" s="16"/>
+      <c r="G42" s="17">
         <v>270</v>
       </c>
-      <c r="G42" s="17">
+      <c r="H42" s="17">
         <v>330</v>
       </c>
-      <c r="H42" s="17"/>
       <c r="I42" s="17">
         <v>650</v>
       </c>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18">
+      <c r="J42" s="17">
+        <v>1560</v>
+      </c>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18">
         <v>750</v>
       </c>
-      <c r="L42" s="18">
+      <c r="M42" s="18">
         <v>1650</v>
       </c>
-      <c r="M42" s="20"/>
-      <c r="N42" s="23">
+      <c r="N42" s="20"/>
+      <c r="O42" s="23">
         <v>990</v>
       </c>
-      <c r="O42" s="23">
+      <c r="P42" s="23">
         <v>240000</v>
       </c>
-      <c r="P42" s="29"/>
-      <c r="Q42" s="23">
+      <c r="Q42" s="29"/>
+      <c r="R42" s="23">
         <v>8000</v>
       </c>
-      <c r="R42" s="23">
+      <c r="S42" s="23">
         <v>1800</v>
       </c>
-      <c r="S42" s="23">
+      <c r="T42" s="23">
+        <v>6400</v>
+      </c>
+      <c r="V42" s="23">
         <v>9600</v>
       </c>
-      <c r="T42" s="23">
+      <c r="W42" s="23">
         <v>5400</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>64</v>
       </c>
       <c r="B43" s="16">
+        <v>260</v>
+      </c>
+      <c r="C43" s="16">
         <v>80</v>
       </c>
-      <c r="C43" s="16">
+      <c r="D43" s="16">
         <v>120</v>
       </c>
-      <c r="D43" s="16"/>
       <c r="E43" s="16"/>
-      <c r="F43" s="16">
+      <c r="F43" s="16"/>
+      <c r="G43" s="16">
         <v>270</v>
       </c>
-      <c r="G43" s="17">
+      <c r="H43" s="17">
         <v>330</v>
       </c>
-      <c r="H43" s="17"/>
       <c r="I43" s="17">
         <v>650</v>
       </c>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18">
+      <c r="J43" s="17">
+        <v>1560</v>
+      </c>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18">
         <v>500</v>
       </c>
-      <c r="L43" s="18">
+      <c r="M43" s="18">
         <v>1100</v>
       </c>
-      <c r="M43" s="19"/>
-      <c r="N43" s="23">
+      <c r="N43" s="19"/>
+      <c r="O43" s="23">
         <v>880</v>
       </c>
-      <c r="O43" s="23">
+      <c r="P43" s="23">
         <v>12000</v>
       </c>
-      <c r="P43" s="29"/>
-      <c r="Q43" s="23">
+      <c r="Q43" s="29"/>
+      <c r="R43" s="23">
         <v>640</v>
       </c>
-      <c r="R43" s="23">
+      <c r="S43" s="23">
         <v>1600</v>
       </c>
-      <c r="S43" s="23">
+      <c r="T43" s="23">
+        <v>3200</v>
+      </c>
+      <c r="V43" s="23">
         <v>5000</v>
       </c>
-      <c r="T43" s="23">
+      <c r="W43" s="23">
         <v>2400</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="16">
-        <f>B43/$B$36</f>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16">
+        <f>C43/$B$36</f>
         <v>4</v>
       </c>
-      <c r="C44" s="16">
-        <f t="shared" ref="C44:M44" si="9">C43/$B$36</f>
+      <c r="D44" s="16">
+        <f t="shared" ref="D44:N44" si="9">D43/$B$36</f>
         <v>6</v>
       </c>
-      <c r="D44" s="16">
+      <c r="E44" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16">
+      <c r="F44" s="16"/>
+      <c r="G44" s="16">
         <f t="shared" si="9"/>
         <v>13.5</v>
       </c>
-      <c r="G44" s="16">
-        <f t="shared" ref="G44" si="10">G43/$B$36</f>
+      <c r="H44" s="16">
+        <f t="shared" ref="H44" si="10">H43/$B$36</f>
         <v>16.5</v>
       </c>
-      <c r="H44" s="16">
-        <f t="shared" ref="H44" si="11">H43/$B$36</f>
-        <v>0</v>
-      </c>
-      <c r="I44" s="16">
-        <f>I43/$B$36</f>
-        <v>32.5</v>
-      </c>
-      <c r="J44" s="16">
-        <f t="shared" ref="J44" si="12">J43/$B$36</f>
-        <v>0</v>
-      </c>
-      <c r="K44" s="16">
-        <f>K43/$C$36</f>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16">
+        <f>L43/$C$36</f>
         <v>12.5</v>
       </c>
-      <c r="L44" s="16">
+      <c r="M44" s="16">
         <f t="shared" si="9"/>
         <v>55</v>
       </c>
-      <c r="M44" s="16">
+      <c r="N44" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N44" s="29"/>
       <c r="O44" s="29"/>
       <c r="P44" s="29"/>
       <c r="Q44" s="29"/>
       <c r="R44" s="29"/>
       <c r="S44" s="29"/>
       <c r="T44" s="29"/>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V44" s="29"/>
+      <c r="W44" s="29"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B45" s="16">
-        <f>B41/$B$44</f>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16">
+        <f t="shared" ref="C45:E46" si="11">C41/$C$44</f>
         <v>3</v>
       </c>
-      <c r="C45" s="16">
-        <f t="shared" ref="C45:M45" si="13">C41/$B$44</f>
+      <c r="D45" s="16">
+        <f t="shared" si="11"/>
         <v>8.75</v>
       </c>
-      <c r="D45" s="16">
-        <f t="shared" si="13"/>
+      <c r="E45" s="16">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16">
-        <f>F41/$F$44</f>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16">
+        <f>G41/$G$44</f>
         <v>4</v>
       </c>
-      <c r="G45" s="16">
-        <f t="shared" ref="G45:J45" si="14">G41/$F$44</f>
-        <v>4.8888888888888893</v>
-      </c>
-      <c r="H45" s="16">
-        <f t="shared" si="14"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16">
+        <f>L41/$L$44</f>
+        <v>8</v>
+      </c>
+      <c r="M45" s="16">
+        <f>M41/$C$44</f>
+        <v>55</v>
+      </c>
+      <c r="N45" s="16">
+        <f>N41/$C$44</f>
         <v>0</v>
       </c>
-      <c r="I45" s="16">
-        <f t="shared" si="14"/>
-        <v>9.6296296296296298</v>
-      </c>
-      <c r="J45" s="16">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="K45" s="16">
-        <f>K41/$K$44</f>
-        <v>8</v>
-      </c>
-      <c r="L45" s="16">
-        <f t="shared" si="13"/>
-        <v>55</v>
-      </c>
-      <c r="M45" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N45" s="29"/>
       <c r="O45" s="29"/>
       <c r="P45" s="29"/>
       <c r="Q45" s="29"/>
       <c r="R45" s="29"/>
       <c r="S45" s="29"/>
       <c r="T45" s="29"/>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V45" s="29"/>
+      <c r="W45" s="29"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="16">
-        <f>B42/$B$44</f>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16">
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
-      <c r="C46" s="16">
-        <f t="shared" ref="C46:M46" si="15">C42/$B$44</f>
+      <c r="D46" s="16">
+        <f t="shared" si="11"/>
         <v>35</v>
       </c>
-      <c r="D46" s="16">
-        <f t="shared" si="15"/>
+      <c r="E46" s="16">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16">
-        <f>F42/$F$44</f>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16">
+        <f>G42/$G$44</f>
         <v>20</v>
       </c>
-      <c r="G46" s="16">
-        <f t="shared" ref="G46:J46" si="16">G42/$F$44</f>
-        <v>24.444444444444443</v>
-      </c>
-      <c r="H46" s="16">
-        <f t="shared" si="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16">
+        <f>L42/$L$44</f>
+        <v>60</v>
+      </c>
+      <c r="M46" s="16">
+        <f>M42/$C$44</f>
+        <v>412.5</v>
+      </c>
+      <c r="N46" s="16">
+        <f>N42/$C$44</f>
         <v>0</v>
       </c>
-      <c r="I46" s="16">
-        <f t="shared" si="16"/>
-        <v>48.148148148148145</v>
-      </c>
-      <c r="J46" s="16">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="K46" s="16">
-        <f>K42/$K$44</f>
-        <v>60</v>
-      </c>
-      <c r="L46" s="16">
-        <f t="shared" si="15"/>
-        <v>412.5</v>
-      </c>
-      <c r="M46" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="N46" s="29"/>
       <c r="O46" s="29"/>
       <c r="P46" s="29"/>
       <c r="Q46" s="29"/>
       <c r="R46" s="29"/>
       <c r="S46" s="29"/>
       <c r="T46" s="29"/>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V46" s="29"/>
+      <c r="W46" s="29"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>68</v>
       </c>
@@ -2903,299 +2985,379 @@
       <c r="C47" s="16"/>
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
-      <c r="F47" s="17"/>
+      <c r="F47" s="16"/>
       <c r="G47" s="17"/>
       <c r="H47" s="17"/>
       <c r="I47" s="17"/>
-      <c r="J47" s="18"/>
+      <c r="J47" s="17"/>
       <c r="K47" s="18"/>
       <c r="L47" s="18"/>
-      <c r="M47" s="20"/>
-      <c r="N47" s="29"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="20"/>
       <c r="O47" s="29"/>
       <c r="P47" s="29"/>
       <c r="Q47" s="29"/>
       <c r="R47" s="29"/>
       <c r="S47" s="29"/>
       <c r="T47" s="29"/>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V47" s="29"/>
+      <c r="W47" s="29"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B48" s="16">
+        <v>130</v>
+      </c>
+      <c r="C48" s="16">
         <v>23</v>
       </c>
-      <c r="C48" s="16">
+      <c r="D48" s="16">
         <v>65</v>
       </c>
-      <c r="D48" s="16">
+      <c r="E48" s="16">
         <v>280</v>
       </c>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16">
+      <c r="F48" s="16"/>
+      <c r="G48" s="16">
         <v>265</v>
       </c>
-      <c r="G48" s="17">
+      <c r="H48" s="17">
         <v>150</v>
       </c>
-      <c r="H48" s="17"/>
       <c r="I48" s="17">
         <v>375</v>
       </c>
-      <c r="J48" s="18">
+      <c r="J48" s="17">
         <v>640</v>
       </c>
-      <c r="K48" s="18">
+      <c r="K48" s="18"/>
+      <c r="L48" s="18">
         <v>400</v>
       </c>
-      <c r="L48" s="18">
+      <c r="M48" s="18">
         <v>600</v>
       </c>
-      <c r="M48" s="19">
+      <c r="N48" s="19">
         <v>900</v>
       </c>
-      <c r="N48" s="23">
+      <c r="O48" s="23">
         <v>1200</v>
       </c>
-      <c r="O48" s="23">
+      <c r="P48" s="23">
         <v>30000</v>
       </c>
-      <c r="P48" s="29"/>
-      <c r="Q48" s="23">
+      <c r="Q48" s="29"/>
+      <c r="R48" s="23">
         <v>3500</v>
       </c>
-      <c r="R48" s="23">
-        <v>2750</v>
-      </c>
       <c r="S48" s="23">
+        <v>3000</v>
+      </c>
+      <c r="T48" s="23">
+        <v>2200</v>
+      </c>
+      <c r="V48" s="23">
         <v>1600</v>
       </c>
-      <c r="T48" s="23">
+      <c r="W48" s="23">
         <v>4200</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="16">
+      <c r="B49" s="16"/>
+      <c r="C49" s="16">
         <v>5</v>
       </c>
-      <c r="C49" s="16"/>
       <c r="D49" s="16">
+        <v>4</v>
+      </c>
+      <c r="E49" s="16">
         <v>3</v>
       </c>
-      <c r="E49" s="16"/>
-      <c r="F49" s="17">
+      <c r="F49" s="16"/>
+      <c r="G49" s="17">
         <v>3.6</v>
       </c>
-      <c r="G49" s="17">
+      <c r="H49" s="17">
         <v>2.6</v>
       </c>
-      <c r="H49" s="17"/>
       <c r="I49" s="17"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18">
+      <c r="J49" s="17"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18">
         <v>4.5</v>
       </c>
-      <c r="L49" s="18">
+      <c r="M49" s="18">
         <v>2.6</v>
       </c>
-      <c r="M49" s="20"/>
-      <c r="N49" s="29">
+      <c r="N49" s="20"/>
+      <c r="O49" s="29">
         <v>3.2</v>
       </c>
-      <c r="O49" s="23">
+      <c r="P49" s="23">
         <v>2.7</v>
       </c>
-      <c r="P49" s="29"/>
-      <c r="Q49" s="23">
+      <c r="Q49" s="29"/>
+      <c r="R49" s="23">
         <v>3.75</v>
       </c>
-      <c r="R49" s="29"/>
-      <c r="S49" s="23">
+      <c r="S49" s="29">
+        <v>2.7</v>
+      </c>
+      <c r="T49" s="23">
+        <v>3</v>
+      </c>
+      <c r="V49" s="23">
         <v>2.2999999999999998</v>
       </c>
-      <c r="T49" s="29">
+      <c r="W49" s="29">
         <v>3.6</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16">
-        <v>20</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="C50" s="16"/>
       <c r="D50" s="16">
+        <v>8</v>
+      </c>
+      <c r="E50" s="16">
+        <v>50</v>
+      </c>
+      <c r="F50" s="16">
         <v>30</v>
       </c>
-      <c r="E50" s="16">
-        <v>30</v>
-      </c>
-      <c r="F50" s="16">
-        <v>25</v>
-      </c>
-      <c r="G50" s="17">
-        <v>33</v>
-      </c>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18">
-        <v>35</v>
-      </c>
+      <c r="G50" s="16"/>
+      <c r="H50" s="17">
+        <v>300</v>
+      </c>
+      <c r="I50" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="J50" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="K50" s="18"/>
       <c r="L50" s="18"/>
-      <c r="M50" s="19"/>
-      <c r="N50" s="29">
-        <v>75</v>
-      </c>
-      <c r="O50" s="29">
-        <v>1380</v>
-      </c>
+      <c r="M50" s="18">
+        <v>200</v>
+      </c>
+      <c r="N50" s="19"/>
+      <c r="O50" s="29"/>
       <c r="P50" s="29"/>
       <c r="Q50" s="29"/>
       <c r="R50" s="29"/>
-      <c r="S50" s="29">
-        <v>600</v>
+      <c r="S50" s="29" t="s">
+        <v>272</v>
       </c>
       <c r="T50" s="29">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+      <c r="V50" s="29"/>
+      <c r="W50" s="29"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>70</v>
+        <v>163</v>
       </c>
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
+      <c r="D51" s="16">
+        <v>0</v>
+      </c>
+      <c r="E51" s="16">
+        <v>1.5</v>
+      </c>
       <c r="F51" s="16"/>
       <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
+      <c r="H51" s="16">
+        <v>1.5</v>
+      </c>
       <c r="I51" s="16"/>
-      <c r="J51" s="18"/>
+      <c r="J51" s="16"/>
       <c r="K51" s="18"/>
       <c r="L51" s="18"/>
-      <c r="M51" s="19"/>
-      <c r="N51" s="29"/>
+      <c r="M51" s="18">
+        <v>1.75</v>
+      </c>
+      <c r="N51" s="19"/>
       <c r="O51" s="29"/>
       <c r="P51" s="29"/>
       <c r="Q51" s="29"/>
       <c r="R51" s="29"/>
-      <c r="S51" s="29"/>
-      <c r="T51" s="29"/>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S51" s="29">
+        <v>1.3</v>
+      </c>
+      <c r="T51" s="29">
+        <v>0</v>
+      </c>
+      <c r="V51" s="29">
+        <v>5</v>
+      </c>
+      <c r="W51" s="29"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>71</v>
+        <v>169</v>
       </c>
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
+      <c r="D52" s="16">
+        <v>1</v>
+      </c>
+      <c r="E52" s="16">
+        <v>4</v>
+      </c>
       <c r="F52" s="16"/>
       <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
+      <c r="H52" s="16">
+        <v>1</v>
+      </c>
       <c r="I52" s="16"/>
-      <c r="J52" s="18"/>
+      <c r="J52" s="16"/>
       <c r="K52" s="18"/>
       <c r="L52" s="18"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="29"/>
+      <c r="M52" s="18">
+        <v>2</v>
+      </c>
+      <c r="N52" s="18"/>
       <c r="O52" s="29"/>
       <c r="P52" s="29"/>
       <c r="Q52" s="29"/>
       <c r="R52" s="29"/>
-      <c r="S52" s="29"/>
-      <c r="T52" s="29"/>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S52" s="29">
+        <v>1</v>
+      </c>
+      <c r="T52" s="29">
+        <v>1</v>
+      </c>
+      <c r="V52" s="29"/>
+      <c r="W52" s="29"/>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>72</v>
+        <v>159</v>
       </c>
       <c r="B53" s="16"/>
       <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17">
-        <v>9</v>
-      </c>
-      <c r="H53" s="17"/>
+      <c r="D53" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="E53" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="F53" s="16"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17">
+        <v>0.111</v>
+      </c>
       <c r="I53" s="17"/>
-      <c r="J53" s="18"/>
+      <c r="J53" s="17"/>
       <c r="K53" s="18"/>
       <c r="L53" s="18"/>
-      <c r="M53" s="20"/>
-      <c r="N53" s="29"/>
+      <c r="M53" s="18">
+        <v>0.125</v>
+      </c>
+      <c r="N53" s="20"/>
       <c r="O53" s="29"/>
       <c r="P53" s="29"/>
       <c r="Q53" s="29"/>
       <c r="R53" s="29"/>
-      <c r="S53" s="29"/>
-      <c r="T53" s="29"/>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S53" s="29">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="T53" s="29">
+        <v>1.25</v>
+      </c>
+      <c r="V53" s="29"/>
+      <c r="W53" s="29"/>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>73</v>
+        <v>211</v>
       </c>
       <c r="B54" s="16"/>
       <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
+      <c r="D54" s="16">
+        <v>20</v>
+      </c>
       <c r="E54" s="16"/>
       <c r="F54" s="16"/>
       <c r="G54" s="16">
-        <v>1.5</v>
+        <v>25</v>
       </c>
       <c r="H54" s="16"/>
       <c r="I54" s="16"/>
-      <c r="J54" s="18"/>
+      <c r="J54" s="16"/>
       <c r="K54" s="18"/>
-      <c r="L54" s="18"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="29"/>
-      <c r="O54" s="29"/>
-      <c r="P54" s="29"/>
+      <c r="L54" s="18">
+        <v>35</v>
+      </c>
+      <c r="M54" s="18">
+        <v>50</v>
+      </c>
+      <c r="N54" s="18"/>
+      <c r="O54" s="29">
+        <v>75</v>
+      </c>
+      <c r="P54" s="29">
+        <v>1380</v>
+      </c>
       <c r="Q54" s="29"/>
       <c r="R54" s="29"/>
-      <c r="S54" s="29">
-        <v>5</v>
-      </c>
-      <c r="T54" s="29"/>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S54" s="29"/>
+      <c r="T54" s="29">
+        <v>250</v>
+      </c>
+      <c r="V54" s="29">
+        <v>600</v>
+      </c>
+      <c r="W54" s="29">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>74</v>
+        <v>270</v>
       </c>
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
       <c r="D55" s="16"/>
       <c r="E55" s="16"/>
       <c r="F55" s="16"/>
-      <c r="G55" s="16">
+      <c r="G55" s="16"/>
+      <c r="H55" s="16">
         <v>5</v>
       </c>
-      <c r="H55" s="16"/>
       <c r="I55" s="16"/>
-      <c r="J55" s="18"/>
+      <c r="J55" s="16"/>
       <c r="K55" s="18"/>
       <c r="L55" s="18"/>
-      <c r="M55" s="18"/>
-      <c r="N55" s="29"/>
+      <c r="M55" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="N55" s="18"/>
       <c r="O55" s="29"/>
       <c r="P55" s="29"/>
       <c r="Q55" s="29"/>
       <c r="R55" s="29"/>
       <c r="S55" s="29"/>
       <c r="T55" s="29"/>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V55" s="29"/>
+      <c r="W55" s="29"/>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
@@ -3205,135 +3367,152 @@
       <c r="G56" s="16"/>
       <c r="H56" s="16"/>
       <c r="I56" s="16"/>
-      <c r="J56" s="18"/>
+      <c r="J56" s="16"/>
       <c r="K56" s="18"/>
       <c r="L56" s="18"/>
-      <c r="M56" s="19"/>
-      <c r="N56" s="29"/>
+      <c r="M56" s="18">
+        <v>5</v>
+      </c>
+      <c r="N56" s="19"/>
       <c r="O56" s="29"/>
       <c r="P56" s="29"/>
       <c r="Q56" s="29"/>
       <c r="R56" s="29"/>
       <c r="S56" s="29"/>
       <c r="T56" s="29"/>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V56" s="29"/>
+      <c r="W56" s="29"/>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B57" s="16"/>
-      <c r="C57" s="16">
+      <c r="C57" s="16"/>
+      <c r="D57" s="16">
         <v>14</v>
       </c>
-      <c r="D57" s="16"/>
       <c r="E57" s="16"/>
-      <c r="F57" s="17">
+      <c r="F57" s="16"/>
+      <c r="G57" s="17">
         <v>18</v>
       </c>
-      <c r="G57" s="17">
+      <c r="H57" s="17">
         <v>28</v>
       </c>
-      <c r="H57" s="17"/>
       <c r="I57" s="17"/>
-      <c r="J57" s="18"/>
-      <c r="K57" s="18">
+      <c r="J57" s="17"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="18">
         <v>23</v>
       </c>
-      <c r="L57" s="18"/>
-      <c r="M57" s="20"/>
-      <c r="N57" s="29">
+      <c r="M57" s="18">
+        <v>60</v>
+      </c>
+      <c r="N57" s="20"/>
+      <c r="O57" s="29">
         <v>20</v>
       </c>
-      <c r="O57" s="23">
+      <c r="P57" s="23">
         <v>35</v>
       </c>
-      <c r="P57" s="29"/>
       <c r="Q57" s="29"/>
-      <c r="R57" s="29">
+      <c r="R57" s="29"/>
+      <c r="S57" s="29">
         <v>35</v>
       </c>
-      <c r="S57" s="29"/>
       <c r="T57" s="29">
+        <v>46</v>
+      </c>
+      <c r="V57" s="29"/>
+      <c r="W57" s="29">
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="16"/>
+        <v>258</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>81</v>
+      </c>
       <c r="D58" s="16"/>
       <c r="E58" s="16"/>
-      <c r="F58" s="17">
-        <v>20</v>
-      </c>
+      <c r="F58" s="16"/>
       <c r="G58" s="17">
         <v>20</v>
       </c>
-      <c r="H58" s="17"/>
+      <c r="H58" s="17">
+        <v>20</v>
+      </c>
       <c r="I58" s="17"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="18">
+      <c r="J58" s="17"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18">
         <v>15</v>
       </c>
-      <c r="L58" s="18">
+      <c r="M58" s="18">
         <v>18</v>
       </c>
-      <c r="M58" s="23"/>
-      <c r="N58" s="29"/>
+      <c r="N58" s="23"/>
       <c r="O58" s="29"/>
       <c r="P58" s="29"/>
       <c r="Q58" s="29"/>
       <c r="R58" s="29"/>
       <c r="S58" s="29"/>
       <c r="T58" s="29"/>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V58" s="29"/>
+      <c r="W58" s="29"/>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="D59" s="14"/>
+        <v>75</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>75</v>
+      </c>
       <c r="E59" s="14"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="H59" s="15"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15" t="s">
+        <v>86</v>
+      </c>
       <c r="I59" s="15"/>
       <c r="J59" s="15"/>
       <c r="K59" s="15"/>
       <c r="L59" s="15"/>
       <c r="M59" s="15"/>
-      <c r="N59" t="s">
-        <v>113</v>
-      </c>
+      <c r="N59" s="15"/>
       <c r="O59" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>120</v>
-      </c>
-      <c r="S59" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="P59" t="s">
+        <v>104</v>
+      </c>
+      <c r="R59" t="s">
+        <v>109</v>
+      </c>
+      <c r="V59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B60" s="14"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="15"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="14"/>
       <c r="F60" s="15"/>
       <c r="G60" s="15"/>
       <c r="H60" s="15"/>
@@ -3341,14 +3520,15 @@
       <c r="J60" s="15"/>
       <c r="K60" s="15"/>
       <c r="L60" s="15"/>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M60" s="15"/>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
-      <c r="D61" s="15"/>
+      <c r="D61" s="14"/>
       <c r="E61" s="15"/>
       <c r="F61" s="15"/>
       <c r="G61" s="15"/>
@@ -3357,212 +3537,213 @@
       <c r="J61" s="15"/>
       <c r="K61" s="15"/>
       <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
     </row>
     <row r="67" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C67" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D67" t="s">
+        <v>129</v>
+      </c>
+      <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
+        <v>134</v>
+      </c>
+      <c r="G67" t="s">
+        <v>136</v>
+      </c>
+      <c r="H67" t="s">
+        <v>138</v>
+      </c>
+      <c r="J67" t="s">
         <v>140</v>
       </c>
-      <c r="E67" t="s">
-        <v>143</v>
-      </c>
-      <c r="F67" t="s">
-        <v>145</v>
-      </c>
-      <c r="G67" t="s">
-        <v>147</v>
-      </c>
-      <c r="H67" t="s">
-        <v>149</v>
-      </c>
-      <c r="J67" t="s">
-        <v>151</v>
-      </c>
       <c r="K67" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="L67" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="M67" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="N67" t="s">
+        <v>150</v>
+      </c>
+      <c r="O67" t="s">
+        <v>152</v>
+      </c>
+      <c r="P67" t="s">
+        <v>154</v>
+      </c>
+      <c r="R67" t="s">
+        <v>156</v>
+      </c>
+      <c r="S67" t="s">
         <v>161</v>
       </c>
-      <c r="O67" t="s">
-        <v>163</v>
-      </c>
-      <c r="P67" t="s">
-        <v>165</v>
-      </c>
-      <c r="R67" t="s">
-        <v>167</v>
-      </c>
-      <c r="S67" t="s">
+      <c r="T67" t="s">
+        <v>164</v>
+      </c>
+      <c r="U67" t="s">
+        <v>166</v>
+      </c>
+      <c r="V67" t="s">
+        <v>168</v>
+      </c>
+      <c r="W67" t="s">
+        <v>170</v>
+      </c>
+      <c r="X67" t="s">
         <v>172</v>
       </c>
-      <c r="T67" t="s">
-        <v>175</v>
-      </c>
-      <c r="U67" t="s">
+      <c r="Z67" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA67" t="s">
         <v>177</v>
       </c>
-      <c r="V67" t="s">
+      <c r="AB67" t="s">
         <v>179</v>
       </c>
-      <c r="W67" t="s">
+      <c r="AC67" t="s">
         <v>181</v>
       </c>
-      <c r="X67" t="s">
+      <c r="AD67" t="s">
         <v>183</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="AE67" t="s">
         <v>185</v>
       </c>
-      <c r="AA67" t="s">
-        <v>188</v>
-      </c>
-      <c r="AB67" t="s">
+      <c r="AF67" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG67" t="s">
         <v>190</v>
       </c>
-      <c r="AC67" t="s">
+      <c r="AH67" t="s">
         <v>192</v>
       </c>
-      <c r="AD67" t="s">
-        <v>194</v>
-      </c>
-      <c r="AE67" t="s">
-        <v>196</v>
-      </c>
-      <c r="AF67" t="s">
-        <v>198</v>
-      </c>
-      <c r="AG67" t="s">
-        <v>201</v>
-      </c>
-      <c r="AH67" t="s">
-        <v>203</v>
-      </c>
       <c r="AI67" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="AJ67" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="AL67" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="68" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
+        <v>128</v>
+      </c>
+      <c r="C68" t="s">
+        <v>127</v>
+      </c>
+      <c r="D68" t="s">
+        <v>130</v>
+      </c>
+      <c r="E68" t="s">
+        <v>133</v>
+      </c>
+      <c r="F68" t="s">
+        <v>135</v>
+      </c>
+      <c r="G68" t="s">
+        <v>137</v>
+      </c>
+      <c r="H68" t="s">
         <v>139</v>
       </c>
-      <c r="C68" t="s">
-        <v>138</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="J68" t="s">
         <v>141</v>
       </c>
-      <c r="E68" t="s">
-        <v>144</v>
-      </c>
-      <c r="F68" t="s">
-        <v>146</v>
-      </c>
-      <c r="G68" t="s">
-        <v>148</v>
-      </c>
-      <c r="H68" t="s">
-        <v>150</v>
-      </c>
-      <c r="J68" t="s">
-        <v>152</v>
-      </c>
       <c r="K68" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="L68" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="M68" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="N68" t="s">
+        <v>151</v>
+      </c>
+      <c r="O68" t="s">
+        <v>153</v>
+      </c>
+      <c r="P68" t="s">
+        <v>155</v>
+      </c>
+      <c r="R68" t="s">
+        <v>157</v>
+      </c>
+      <c r="S68" t="s">
         <v>162</v>
       </c>
-      <c r="O68" t="s">
-        <v>164</v>
-      </c>
-      <c r="P68" t="s">
-        <v>166</v>
-      </c>
-      <c r="R68" t="s">
-        <v>168</v>
-      </c>
-      <c r="S68" t="s">
+      <c r="T68" t="s">
+        <v>165</v>
+      </c>
+      <c r="U68" t="s">
+        <v>167</v>
+      </c>
+      <c r="V68" t="s">
+        <v>114</v>
+      </c>
+      <c r="W68" t="s">
+        <v>171</v>
+      </c>
+      <c r="X68" t="s">
         <v>173</v>
       </c>
-      <c r="T68" t="s">
-        <v>176</v>
-      </c>
-      <c r="U68" t="s">
+      <c r="Z68" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA68" t="s">
         <v>178</v>
       </c>
-      <c r="V68" t="s">
-        <v>125</v>
-      </c>
-      <c r="W68" t="s">
+      <c r="AB68" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC68" t="s">
         <v>182</v>
       </c>
-      <c r="X68" t="s">
+      <c r="AD68" t="s">
         <v>184</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="AE68" t="s">
         <v>186</v>
       </c>
-      <c r="AA68" t="s">
-        <v>189</v>
-      </c>
-      <c r="AB68" t="s">
+      <c r="AF68" t="s">
+        <v>188</v>
+      </c>
+      <c r="AG68" t="s">
         <v>191</v>
       </c>
-      <c r="AC68" t="s">
+      <c r="AH68" t="s">
         <v>193</v>
       </c>
-      <c r="AD68" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE68" t="s">
-        <v>197</v>
-      </c>
-      <c r="AF68" t="s">
-        <v>199</v>
-      </c>
-      <c r="AG68" t="s">
-        <v>202</v>
-      </c>
-      <c r="AH68" t="s">
-        <v>204</v>
-      </c>
       <c r="AI68" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="AJ68" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="AL68" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B70">
         <v>8000</v>
@@ -3637,19 +3818,19 @@
         <v>7000</v>
       </c>
       <c r="AF70" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="AG70" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="AH70" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AI70">
         <v>3800</v>
       </c>
       <c r="AJ70" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AL70">
         <v>500</v>
@@ -3657,7 +3838,7 @@
     </row>
     <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B71">
         <v>13300</v>
@@ -3740,7 +3921,7 @@
     </row>
     <row r="72" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B72">
         <v>1520</v>
@@ -3823,7 +4004,7 @@
     </row>
     <row r="73" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B73">
         <v>2600</v>
@@ -3906,7 +4087,7 @@
     </row>
     <row r="74" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B74">
         <v>40</v>
@@ -3950,7 +4131,7 @@
     </row>
     <row r="75" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="J75">
         <v>150</v>
@@ -3982,7 +4163,7 @@
     </row>
     <row r="76" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="J76">
         <v>1</v>
@@ -3990,7 +4171,7 @@
     </row>
     <row r="77" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="R77">
         <v>35</v>
@@ -4031,7 +4212,7 @@
     </row>
     <row r="78" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="R78">
         <v>44</v>
@@ -4072,7 +4253,7 @@
     </row>
     <row r="79" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="S79">
         <v>1.5</v>
@@ -4107,7 +4288,7 @@
     </row>
     <row r="80" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="R80">
         <v>2</v>
@@ -4136,7 +4317,7 @@
     </row>
     <row r="81" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="V81">
         <v>5</v>
@@ -4147,135 +4328,135 @@
     </row>
     <row r="82" spans="1:30" x14ac:dyDescent="0.25">
       <c r="Z82" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="AA82" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="AB82" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="AC82" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="87" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="B87" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C87" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="D87" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="E87" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="F87" t="s">
+        <v>221</v>
+      </c>
+      <c r="G87" t="s">
+        <v>221</v>
+      </c>
+      <c r="H87" t="s">
+        <v>227</v>
+      </c>
+      <c r="I87" t="s">
         <v>232</v>
       </c>
-      <c r="G87" t="s">
+      <c r="J87" t="s">
         <v>232</v>
       </c>
-      <c r="H87" t="s">
-        <v>238</v>
-      </c>
-      <c r="I87" t="s">
-        <v>243</v>
-      </c>
-      <c r="J87" t="s">
-        <v>243</v>
-      </c>
       <c r="K87" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="L87" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
     </row>
     <row r="88" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="B88" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="C88" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="D88" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="E88" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="F88" t="s">
+        <v>222</v>
+      </c>
+      <c r="G88" t="s">
+        <v>222</v>
+      </c>
+      <c r="H88" t="s">
+        <v>228</v>
+      </c>
+      <c r="I88" t="s">
         <v>233</v>
       </c>
-      <c r="G88" t="s">
+      <c r="J88" t="s">
         <v>233</v>
       </c>
-      <c r="H88" t="s">
-        <v>239</v>
-      </c>
-      <c r="I88" t="s">
-        <v>244</v>
-      </c>
-      <c r="J88" t="s">
-        <v>244</v>
-      </c>
       <c r="K88" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="L88" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
     </row>
     <row r="89" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="B89" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="C89" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="D89" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="E89" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="F89" t="s">
+        <v>223</v>
+      </c>
+      <c r="G89" t="s">
+        <v>223</v>
+      </c>
+      <c r="H89" t="s">
+        <v>229</v>
+      </c>
+      <c r="I89" t="s">
         <v>234</v>
       </c>
-      <c r="G89" t="s">
+      <c r="J89" t="s">
         <v>234</v>
       </c>
-      <c r="H89" t="s">
-        <v>240</v>
-      </c>
-      <c r="I89" t="s">
-        <v>245</v>
-      </c>
-      <c r="J89" t="s">
-        <v>245</v>
-      </c>
       <c r="K89" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="L89" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
     </row>
     <row r="90" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B90">
         <v>500</v>
@@ -4304,7 +4485,7 @@
     </row>
     <row r="92" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B92">
         <v>2880</v>
@@ -4333,7 +4514,7 @@
     </row>
     <row r="93" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B93">
         <v>360</v>
@@ -4362,7 +4543,7 @@
     </row>
     <row r="94" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B94">
         <v>1440</v>
@@ -4391,7 +4572,7 @@
     </row>
     <row r="96" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B96">
         <v>6</v>
@@ -4420,45 +4601,45 @@
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D97" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="E97" t="s">
+        <v>225</v>
+      </c>
+      <c r="F97" t="s">
+        <v>224</v>
+      </c>
+      <c r="G97" t="s">
+        <v>230</v>
+      </c>
+      <c r="H97" t="s">
+        <v>231</v>
+      </c>
+      <c r="I97" t="s">
+        <v>235</v>
+      </c>
+      <c r="J97" t="s">
         <v>236</v>
       </c>
-      <c r="F97" t="s">
-        <v>235</v>
-      </c>
-      <c r="G97" t="s">
-        <v>241</v>
-      </c>
-      <c r="H97" t="s">
-        <v>242</v>
-      </c>
-      <c r="I97" t="s">
-        <v>246</v>
-      </c>
-      <c r="J97" t="s">
-        <v>247</v>
-      </c>
       <c r="K97" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="L97" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="M97" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="N97" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="O97" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="B98">
         <v>25</v>
@@ -4505,7 +4686,7 @@
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -4549,7 +4730,7 @@
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B100">
         <v>2</v>
@@ -4596,7 +4777,7 @@
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="B101">
         <v>32</v>
@@ -4643,7 +4824,7 @@
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B102">
         <v>0.83299999999999996</v>
@@ -4690,7 +4871,7 @@
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="B103">
         <v>41.6</v>
@@ -4699,7 +4880,7 @@
         <v>60</v>
       </c>
       <c r="D103" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="E103">
         <v>50</v>
@@ -4737,16 +4918,16 @@
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D105" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="J105" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="L105" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/Units.xlsx
+++ b/Units.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="275">
   <si>
     <t>Stats</t>
   </si>
@@ -330,9 +330,6 @@
     <t>Beamer</t>
   </si>
   <si>
-    <t>artilery suport</t>
-  </si>
-  <si>
     <t>transportable</t>
   </si>
   <si>
@@ -348,9 +345,6 @@
     <t>Nova</t>
   </si>
   <si>
-    <t>arti suport</t>
-  </si>
-  <si>
     <t>inu3003</t>
   </si>
   <si>
@@ -838,6 +832,18 @@
   </si>
   <si>
     <t>20/140</t>
+  </si>
+  <si>
+    <t>inb1101</t>
+  </si>
+  <si>
+    <t>t1pgen</t>
+  </si>
+  <si>
+    <t>teoreticky zmenit rof na 4s ako obsidian = 100x3=300dmg/4s =&gt; 75dps</t>
+  </si>
+  <si>
+    <t>bombard</t>
   </si>
 </sst>
 </file>
@@ -1519,8 +1525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection activeCell="A73" sqref="A73"/>
       <selection pane="topRight" activeCell="S47" sqref="S47"/>
     </sheetView>
@@ -1577,19 +1583,19 @@
         <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E5" t="s">
+        <v>244</v>
+      </c>
+      <c r="F5" t="s">
         <v>200</v>
-      </c>
-      <c r="D5" t="s">
-        <v>199</v>
-      </c>
-      <c r="E5" t="s">
-        <v>246</v>
-      </c>
-      <c r="F5" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1630,7 +1636,7 @@
         <v>37</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>43</v>
@@ -2411,7 +2417,7 @@
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>14</v>
       </c>
@@ -2428,12 +2434,12 @@
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H34" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>15</v>
       </c>
@@ -2448,7 +2454,7 @@
       </c>
       <c r="E35" s="8"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>19</v>
       </c>
@@ -2463,31 +2469,31 @@
       </c>
       <c r="E36" s="8"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>60</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F38" s="26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G38" s="26" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H38" s="26"/>
       <c r="I38" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J38" t="s">
         <v>87</v>
@@ -2508,33 +2514,36 @@
         <v>100</v>
       </c>
       <c r="Q38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S38" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="T38" t="s">
-        <v>249</v>
+        <v>108</v>
       </c>
       <c r="U38" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="V38" t="s">
-        <v>113</v>
+        <v>246</v>
       </c>
       <c r="W38" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="X38" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>76</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C39" s="21" t="s">
         <v>21</v>
@@ -2543,10 +2552,10 @@
         <v>77</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G39" s="22" t="s">
         <v>78</v>
@@ -2555,10 +2564,10 @@
         <v>79</v>
       </c>
       <c r="I39" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="J39" s="22" t="s">
         <v>261</v>
-      </c>
-      <c r="J39" s="22" t="s">
-        <v>263</v>
       </c>
       <c r="K39" s="27"/>
       <c r="L39" s="27" t="s">
@@ -2577,28 +2586,31 @@
         <v>101</v>
       </c>
       <c r="Q39" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R39" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="S39" s="22" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="T39" s="22" t="s">
-        <v>250</v>
+        <v>109</v>
       </c>
       <c r="U39" s="22" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="V39" s="22" t="s">
-        <v>114</v>
+        <v>252</v>
       </c>
       <c r="W39" s="22" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="X39" s="22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>61</v>
       </c>
@@ -2607,7 +2619,7 @@
         <v>80</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E40" s="24" t="s">
         <v>84</v>
@@ -2641,25 +2653,28 @@
       </c>
       <c r="Q40" s="15"/>
       <c r="R40" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S40" s="28" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="T40" s="28" t="s">
-        <v>251</v>
+        <v>110</v>
       </c>
       <c r="U40" s="28" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="V40" s="28" t="s">
-        <v>115</v>
+        <v>253</v>
       </c>
       <c r="W40" s="28" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="X40" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>62</v>
       </c>
@@ -2704,20 +2719,21 @@
       <c r="R41" s="23">
         <v>640</v>
       </c>
-      <c r="S41" s="23">
+      <c r="S41" s="23"/>
+      <c r="T41" s="23">
         <v>360</v>
       </c>
-      <c r="T41" s="23">
+      <c r="U41" s="23">
         <v>640</v>
       </c>
-      <c r="V41" s="23">
+      <c r="W41" s="23">
         <v>960</v>
       </c>
-      <c r="W41" s="23">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X41" s="23">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>63</v>
       </c>
@@ -2762,20 +2778,21 @@
       <c r="R42" s="23">
         <v>8000</v>
       </c>
-      <c r="S42" s="23">
+      <c r="S42" s="23"/>
+      <c r="T42" s="23">
         <v>1800</v>
       </c>
-      <c r="T42" s="23">
-        <v>6400</v>
-      </c>
-      <c r="V42" s="23">
+      <c r="U42" s="23">
+        <v>8000</v>
+      </c>
+      <c r="W42" s="23">
         <v>9600</v>
       </c>
-      <c r="W42" s="23">
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X42" s="23">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>64</v>
       </c>
@@ -2820,20 +2837,21 @@
       <c r="R43" s="23">
         <v>640</v>
       </c>
-      <c r="S43" s="23">
+      <c r="S43" s="23"/>
+      <c r="T43" s="23">
         <v>1600</v>
       </c>
-      <c r="T43" s="23">
+      <c r="U43" s="23">
         <v>3200</v>
       </c>
-      <c r="V43" s="23">
+      <c r="W43" s="23">
         <v>5000</v>
       </c>
-      <c r="W43" s="23">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X43" s="23">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>65</v>
       </c>
@@ -2880,10 +2898,11 @@
       <c r="R44" s="29"/>
       <c r="S44" s="29"/>
       <c r="T44" s="29"/>
-      <c r="V44" s="29"/>
+      <c r="U44" s="29"/>
       <c r="W44" s="29"/>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X44" s="29"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>66</v>
       </c>
@@ -2927,10 +2946,11 @@
       <c r="R45" s="29"/>
       <c r="S45" s="29"/>
       <c r="T45" s="29"/>
-      <c r="V45" s="29"/>
+      <c r="U45" s="29"/>
       <c r="W45" s="29"/>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X45" s="29"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>67</v>
       </c>
@@ -2974,10 +2994,11 @@
       <c r="R46" s="29"/>
       <c r="S46" s="29"/>
       <c r="T46" s="29"/>
-      <c r="V46" s="29"/>
+      <c r="U46" s="29"/>
       <c r="W46" s="29"/>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X46" s="29"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>68</v>
       </c>
@@ -3000,10 +3021,11 @@
       <c r="R47" s="29"/>
       <c r="S47" s="29"/>
       <c r="T47" s="29"/>
-      <c r="V47" s="29"/>
+      <c r="U47" s="29"/>
       <c r="W47" s="29"/>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X47" s="29"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>7</v>
       </c>
@@ -3043,7 +3065,7 @@
         <v>900</v>
       </c>
       <c r="O48" s="23">
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="P48" s="23">
         <v>30000</v>
@@ -3052,20 +3074,24 @@
       <c r="R48" s="23">
         <v>3500</v>
       </c>
-      <c r="S48" s="23">
+      <c r="S48" s="23"/>
+      <c r="T48" s="23">
         <v>3000</v>
       </c>
-      <c r="T48" s="23">
-        <v>2200</v>
+      <c r="U48" s="23">
+        <v>1800</v>
       </c>
       <c r="V48" s="23">
+        <v>860</v>
+      </c>
+      <c r="W48" s="23">
         <v>1600</v>
       </c>
-      <c r="W48" s="23">
-        <v>4200</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X48" s="23">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
         <v>9</v>
       </c>
@@ -3104,27 +3130,31 @@
       </c>
       <c r="Q49" s="29"/>
       <c r="R49" s="23">
-        <v>3.75</v>
-      </c>
-      <c r="S49" s="29">
+        <v>3.2</v>
+      </c>
+      <c r="S49" s="23"/>
+      <c r="T49" s="29">
         <v>2.7</v>
       </c>
-      <c r="T49" s="23">
+      <c r="U49" s="23">
+        <v>3.2</v>
+      </c>
+      <c r="V49" s="29">
+        <v>3.5</v>
+      </c>
+      <c r="W49" s="23">
+        <v>2.5</v>
+      </c>
+      <c r="X49" s="29">
         <v>3</v>
       </c>
-      <c r="V49" s="23">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="W49" s="29">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C50" s="16"/>
       <c r="D50" s="16">
@@ -3141,33 +3171,44 @@
         <v>300</v>
       </c>
       <c r="I50" s="17" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J50" s="17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K50" s="18"/>
-      <c r="L50" s="18"/>
+      <c r="L50" s="18">
+        <v>8</v>
+      </c>
       <c r="M50" s="18">
         <v>200</v>
       </c>
       <c r="N50" s="19"/>
-      <c r="O50" s="29"/>
+      <c r="O50" s="29">
+        <v>50</v>
+      </c>
       <c r="P50" s="29"/>
       <c r="Q50" s="29"/>
-      <c r="R50" s="29"/>
-      <c r="S50" s="29" t="s">
-        <v>272</v>
-      </c>
-      <c r="T50" s="29">
+      <c r="R50" s="29">
+        <v>100</v>
+      </c>
+      <c r="S50" s="29">
+        <v>300</v>
+      </c>
+      <c r="T50" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="U50" s="29">
         <v>200</v>
       </c>
-      <c r="V50" s="29"/>
       <c r="W50" s="29"/>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X50" s="29">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
@@ -3190,24 +3231,33 @@
         <v>1.75</v>
       </c>
       <c r="N51" s="19"/>
-      <c r="O51" s="29"/>
+      <c r="O51" s="29">
+        <v>0</v>
+      </c>
       <c r="P51" s="29"/>
       <c r="Q51" s="29"/>
-      <c r="R51" s="29"/>
+      <c r="R51" s="29">
+        <v>0</v>
+      </c>
       <c r="S51" s="29">
+        <v>0</v>
+      </c>
+      <c r="T51" s="29">
         <v>1.3</v>
       </c>
-      <c r="T51" s="29">
+      <c r="U51" s="29">
+        <v>1.5</v>
+      </c>
+      <c r="W51" s="29">
+        <v>5</v>
+      </c>
+      <c r="X51" s="29">
         <v>0</v>
       </c>
-      <c r="V51" s="29">
-        <v>5</v>
-      </c>
-      <c r="W51" s="29"/>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
@@ -3225,27 +3275,38 @@
       <c r="I52" s="16"/>
       <c r="J52" s="16"/>
       <c r="K52" s="18"/>
-      <c r="L52" s="18"/>
+      <c r="L52" s="18">
+        <v>1</v>
+      </c>
       <c r="M52" s="18">
         <v>2</v>
       </c>
       <c r="N52" s="18"/>
-      <c r="O52" s="29"/>
+      <c r="O52" s="29">
+        <v>3</v>
+      </c>
       <c r="P52" s="29"/>
       <c r="Q52" s="29"/>
-      <c r="R52" s="29"/>
+      <c r="R52" s="29">
+        <v>4</v>
+      </c>
       <c r="S52" s="29">
         <v>1</v>
       </c>
       <c r="T52" s="29">
         <v>1</v>
       </c>
-      <c r="V52" s="29"/>
+      <c r="U52" s="29">
+        <v>1</v>
+      </c>
       <c r="W52" s="29"/>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X52" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B53" s="16"/>
       <c r="C53" s="16"/>
@@ -3263,27 +3324,38 @@
       <c r="I53" s="17"/>
       <c r="J53" s="17"/>
       <c r="K53" s="18"/>
-      <c r="L53" s="18"/>
+      <c r="L53" s="18">
+        <v>4</v>
+      </c>
       <c r="M53" s="18">
         <v>0.125</v>
       </c>
       <c r="N53" s="20"/>
-      <c r="O53" s="29"/>
+      <c r="O53" s="29">
+        <v>0.5</v>
+      </c>
       <c r="P53" s="29"/>
       <c r="Q53" s="29"/>
-      <c r="R53" s="29"/>
+      <c r="R53" s="29">
+        <v>0.25</v>
+      </c>
       <c r="S53" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="T53" s="29">
         <v>0.76900000000000002</v>
       </c>
-      <c r="T53" s="29">
-        <v>1.25</v>
-      </c>
-      <c r="V53" s="29"/>
+      <c r="U53" s="29">
+        <v>1</v>
+      </c>
       <c r="W53" s="29"/>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X53" s="29">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B54" s="16"/>
       <c r="C54" s="16"/>
@@ -3300,7 +3372,7 @@
       <c r="J54" s="16"/>
       <c r="K54" s="18"/>
       <c r="L54" s="18">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M54" s="18">
         <v>50</v>
@@ -3313,21 +3385,26 @@
         <v>1380</v>
       </c>
       <c r="Q54" s="29"/>
-      <c r="R54" s="29"/>
-      <c r="S54" s="29"/>
-      <c r="T54" s="29">
-        <v>250</v>
-      </c>
-      <c r="V54" s="29">
+      <c r="R54" s="29">
+        <v>100</v>
+      </c>
+      <c r="S54" s="29">
+        <v>150</v>
+      </c>
+      <c r="T54" s="29"/>
+      <c r="U54" s="29">
+        <v>200</v>
+      </c>
+      <c r="W54" s="29">
         <v>600</v>
       </c>
-      <c r="W54" s="29">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X54" s="29">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
@@ -3343,19 +3420,22 @@
       <c r="K55" s="18"/>
       <c r="L55" s="18"/>
       <c r="M55" s="18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="N55" s="18"/>
       <c r="O55" s="29"/>
       <c r="P55" s="29"/>
       <c r="Q55" s="29"/>
-      <c r="R55" s="29"/>
+      <c r="R55" s="29">
+        <v>0.1</v>
+      </c>
       <c r="S55" s="29"/>
       <c r="T55" s="29"/>
-      <c r="V55" s="29"/>
+      <c r="U55" s="29"/>
       <c r="W55" s="29"/>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X55" s="29"/>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
         <v>69</v>
       </c>
@@ -3380,10 +3460,11 @@
       <c r="R56" s="29"/>
       <c r="S56" s="29"/>
       <c r="T56" s="29"/>
-      <c r="V56" s="29"/>
+      <c r="U56" s="29"/>
       <c r="W56" s="29"/>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X56" s="29"/>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>70</v>
       </c>
@@ -3417,24 +3498,29 @@
         <v>35</v>
       </c>
       <c r="Q57" s="29"/>
-      <c r="R57" s="29"/>
+      <c r="R57" s="29">
+        <v>23</v>
+      </c>
       <c r="S57" s="29">
+        <v>26</v>
+      </c>
+      <c r="T57" s="29">
         <v>35</v>
       </c>
-      <c r="T57" s="29">
+      <c r="U57" s="29">
         <v>46</v>
       </c>
-      <c r="V57" s="29"/>
-      <c r="W57" s="29">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W57" s="29"/>
+      <c r="X57" s="29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
         <v>83</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C58" s="14" t="s">
         <v>81</v>
@@ -3464,10 +3550,11 @@
       <c r="R58" s="29"/>
       <c r="S58" s="29"/>
       <c r="T58" s="29"/>
-      <c r="V58" s="29"/>
+      <c r="U58" s="29"/>
       <c r="W58" s="29"/>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X58" s="29"/>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
         <v>71</v>
       </c>
@@ -3490,27 +3577,31 @@
       <c r="J59" s="15"/>
       <c r="K59" s="15"/>
       <c r="L59" s="15"/>
-      <c r="M59" s="15"/>
+      <c r="M59" s="15" t="s">
+        <v>86</v>
+      </c>
       <c r="N59" s="15"/>
-      <c r="O59" t="s">
+      <c r="P59" t="s">
         <v>103</v>
       </c>
-      <c r="P59" t="s">
-        <v>104</v>
-      </c>
-      <c r="R59" t="s">
-        <v>109</v>
-      </c>
-      <c r="V59" t="s">
+      <c r="T59" t="s">
+        <v>274</v>
+      </c>
+      <c r="U59" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W59" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
         <v>72</v>
       </c>
       <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
+      <c r="C60" s="14" t="s">
+        <v>86</v>
+      </c>
       <c r="D60" s="15"/>
       <c r="E60" s="14"/>
       <c r="F60" s="15"/>
@@ -3522,7 +3613,7 @@
       <c r="L60" s="15"/>
       <c r="M60" s="15"/>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
         <v>73</v>
       </c>
@@ -3539,211 +3630,222 @@
       <c r="L61" s="15"/>
       <c r="M61" s="15"/>
     </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="O62" t="s">
+        <v>273</v>
+      </c>
+    </row>
     <row r="67" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
+        <v>117</v>
+      </c>
+      <c r="C67" t="s">
+        <v>124</v>
+      </c>
+      <c r="D67" t="s">
+        <v>127</v>
+      </c>
+      <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
+        <v>132</v>
+      </c>
+      <c r="G67" t="s">
+        <v>134</v>
+      </c>
+      <c r="H67" t="s">
+        <v>136</v>
+      </c>
+      <c r="I67" t="s">
+        <v>271</v>
+      </c>
+      <c r="J67" t="s">
+        <v>138</v>
+      </c>
+      <c r="K67" t="s">
+        <v>142</v>
+      </c>
+      <c r="L67" t="s">
+        <v>146</v>
+      </c>
+      <c r="M67" t="s">
+        <v>144</v>
+      </c>
+      <c r="N67" t="s">
+        <v>148</v>
+      </c>
+      <c r="O67" t="s">
+        <v>150</v>
+      </c>
+      <c r="P67" t="s">
+        <v>152</v>
+      </c>
+      <c r="R67" t="s">
+        <v>154</v>
+      </c>
+      <c r="S67" t="s">
+        <v>159</v>
+      </c>
+      <c r="T67" t="s">
+        <v>162</v>
+      </c>
+      <c r="U67" t="s">
+        <v>164</v>
+      </c>
+      <c r="V67" t="s">
+        <v>166</v>
+      </c>
+      <c r="W67" t="s">
+        <v>168</v>
+      </c>
+      <c r="X67" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB67" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC67" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD67" t="s">
+        <v>181</v>
+      </c>
+      <c r="AE67" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF67" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG67" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH67" t="s">
+        <v>190</v>
+      </c>
+      <c r="AI67" t="s">
+        <v>193</v>
+      </c>
+      <c r="AJ67" t="s">
+        <v>195</v>
+      </c>
+      <c r="AL67" t="s">
         <v>119</v>
-      </c>
-      <c r="C67" t="s">
-        <v>126</v>
-      </c>
-      <c r="D67" t="s">
-        <v>129</v>
-      </c>
-      <c r="E67" t="s">
-        <v>132</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
-      </c>
-      <c r="G67" t="s">
-        <v>136</v>
-      </c>
-      <c r="H67" t="s">
-        <v>138</v>
-      </c>
-      <c r="J67" t="s">
-        <v>140</v>
-      </c>
-      <c r="K67" t="s">
-        <v>144</v>
-      </c>
-      <c r="L67" t="s">
-        <v>148</v>
-      </c>
-      <c r="M67" t="s">
-        <v>146</v>
-      </c>
-      <c r="N67" t="s">
-        <v>150</v>
-      </c>
-      <c r="O67" t="s">
-        <v>152</v>
-      </c>
-      <c r="P67" t="s">
-        <v>154</v>
-      </c>
-      <c r="R67" t="s">
-        <v>156</v>
-      </c>
-      <c r="S67" t="s">
-        <v>161</v>
-      </c>
-      <c r="T67" t="s">
-        <v>164</v>
-      </c>
-      <c r="U67" t="s">
-        <v>166</v>
-      </c>
-      <c r="V67" t="s">
-        <v>168</v>
-      </c>
-      <c r="W67" t="s">
-        <v>170</v>
-      </c>
-      <c r="X67" t="s">
-        <v>172</v>
-      </c>
-      <c r="Z67" t="s">
-        <v>174</v>
-      </c>
-      <c r="AA67" t="s">
-        <v>177</v>
-      </c>
-      <c r="AB67" t="s">
-        <v>179</v>
-      </c>
-      <c r="AC67" t="s">
-        <v>181</v>
-      </c>
-      <c r="AD67" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE67" t="s">
-        <v>185</v>
-      </c>
-      <c r="AF67" t="s">
-        <v>187</v>
-      </c>
-      <c r="AG67" t="s">
-        <v>190</v>
-      </c>
-      <c r="AH67" t="s">
-        <v>192</v>
-      </c>
-      <c r="AI67" t="s">
-        <v>195</v>
-      </c>
-      <c r="AJ67" t="s">
-        <v>197</v>
-      </c>
-      <c r="AL67" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="68" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
+        <v>126</v>
+      </c>
+      <c r="C68" t="s">
+        <v>125</v>
+      </c>
+      <c r="D68" t="s">
         <v>128</v>
       </c>
-      <c r="C68" t="s">
-        <v>127</v>
-      </c>
-      <c r="D68" t="s">
-        <v>130</v>
-      </c>
       <c r="E68" t="s">
+        <v>131</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>135</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>137</v>
       </c>
-      <c r="H68" t="s">
+      <c r="I68" t="s">
+        <v>272</v>
+      </c>
+      <c r="J68" t="s">
         <v>139</v>
       </c>
-      <c r="J68" t="s">
-        <v>141</v>
-      </c>
       <c r="K68" t="s">
+        <v>143</v>
+      </c>
+      <c r="L68" t="s">
         <v>145</v>
       </c>
-      <c r="L68" t="s">
+      <c r="M68" t="s">
         <v>147</v>
       </c>
-      <c r="M68" t="s">
+      <c r="N68" t="s">
         <v>149</v>
       </c>
-      <c r="N68" t="s">
+      <c r="O68" t="s">
         <v>151</v>
       </c>
-      <c r="O68" t="s">
+      <c r="P68" t="s">
         <v>153</v>
       </c>
-      <c r="P68" t="s">
+      <c r="R68" t="s">
         <v>155</v>
       </c>
-      <c r="R68" t="s">
-        <v>157</v>
-      </c>
       <c r="S68" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="T68" t="s">
+        <v>163</v>
+      </c>
+      <c r="U68" t="s">
         <v>165</v>
       </c>
-      <c r="U68" t="s">
-        <v>167</v>
-      </c>
       <c r="V68" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="W68" t="s">
+        <v>169</v>
+      </c>
+      <c r="X68" t="s">
         <v>171</v>
       </c>
-      <c r="X68" t="s">
+      <c r="Z68" t="s">
         <v>173</v>
       </c>
-      <c r="Z68" t="s">
-        <v>175</v>
-      </c>
       <c r="AA68" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB68" t="s">
         <v>178</v>
       </c>
-      <c r="AB68" t="s">
+      <c r="AC68" t="s">
         <v>180</v>
       </c>
-      <c r="AC68" t="s">
+      <c r="AD68" t="s">
         <v>182</v>
       </c>
-      <c r="AD68" t="s">
+      <c r="AE68" t="s">
         <v>184</v>
       </c>
-      <c r="AE68" t="s">
+      <c r="AF68" t="s">
         <v>186</v>
       </c>
-      <c r="AF68" t="s">
-        <v>188</v>
-      </c>
       <c r="AG68" t="s">
+        <v>189</v>
+      </c>
+      <c r="AH68" t="s">
         <v>191</v>
       </c>
-      <c r="AH68" t="s">
-        <v>193</v>
-      </c>
       <c r="AI68" t="s">
+        <v>194</v>
+      </c>
+      <c r="AJ68" t="s">
         <v>196</v>
       </c>
-      <c r="AJ68" t="s">
-        <v>198</v>
-      </c>
       <c r="AL68" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="70" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B70">
         <v>8000</v>
@@ -3818,19 +3920,19 @@
         <v>7000</v>
       </c>
       <c r="AF70" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AG70" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AH70" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AI70">
         <v>3800</v>
       </c>
       <c r="AJ70" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AL70">
         <v>500</v>
@@ -3838,7 +3940,7 @@
     </row>
     <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B71">
         <v>13300</v>
@@ -3921,7 +4023,7 @@
     </row>
     <row r="72" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B72">
         <v>1520</v>
@@ -4004,7 +4106,7 @@
     </row>
     <row r="73" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B73">
         <v>2600</v>
@@ -4087,7 +4189,7 @@
     </row>
     <row r="74" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B74">
         <v>40</v>
@@ -4131,7 +4233,7 @@
     </row>
     <row r="75" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J75">
         <v>150</v>
@@ -4163,7 +4265,7 @@
     </row>
     <row r="76" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J76">
         <v>1</v>
@@ -4171,7 +4273,7 @@
     </row>
     <row r="77" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="R77">
         <v>35</v>
@@ -4212,7 +4314,7 @@
     </row>
     <row r="78" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="R78">
         <v>44</v>
@@ -4253,7 +4355,7 @@
     </row>
     <row r="79" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="S79">
         <v>1.5</v>
@@ -4288,7 +4390,7 @@
     </row>
     <row r="80" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="R80">
         <v>2</v>
@@ -4317,7 +4419,7 @@
     </row>
     <row r="81" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="V81">
         <v>5</v>
@@ -4328,135 +4430,135 @@
     </row>
     <row r="82" spans="1:30" x14ac:dyDescent="0.25">
       <c r="Z82" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AA82" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB82" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AC82" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="87" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B87" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C87" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D87" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E87" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F87" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G87" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H87" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I87" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J87" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K87" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L87" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="88" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B88" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C88" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D88" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E88" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F88" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G88" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H88" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I88" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J88" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K88" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L88" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="89" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B89" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C89" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D89" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E89" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F89" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G89" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H89" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I89" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J89" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K89" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L89" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="90" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B90">
         <v>500</v>
@@ -4485,7 +4587,7 @@
     </row>
     <row r="92" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B92">
         <v>2880</v>
@@ -4514,7 +4616,7 @@
     </row>
     <row r="93" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B93">
         <v>360</v>
@@ -4543,7 +4645,7 @@
     </row>
     <row r="94" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B94">
         <v>1440</v>
@@ -4572,7 +4674,7 @@
     </row>
     <row r="96" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B96">
         <v>6</v>
@@ -4601,45 +4703,45 @@
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D97" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E97" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F97" t="s">
+        <v>222</v>
+      </c>
+      <c r="G97" t="s">
+        <v>228</v>
+      </c>
+      <c r="H97" t="s">
+        <v>229</v>
+      </c>
+      <c r="I97" t="s">
+        <v>233</v>
+      </c>
+      <c r="J97" t="s">
+        <v>234</v>
+      </c>
+      <c r="K97" t="s">
+        <v>222</v>
+      </c>
+      <c r="L97" t="s">
         <v>224</v>
       </c>
-      <c r="G97" t="s">
-        <v>230</v>
-      </c>
-      <c r="H97" t="s">
-        <v>231</v>
-      </c>
-      <c r="I97" t="s">
-        <v>235</v>
-      </c>
-      <c r="J97" t="s">
-        <v>236</v>
-      </c>
-      <c r="K97" t="s">
-        <v>224</v>
-      </c>
-      <c r="L97" t="s">
-        <v>226</v>
-      </c>
       <c r="M97" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N97" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O97" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B98">
         <v>25</v>
@@ -4686,7 +4788,7 @@
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -4730,7 +4832,7 @@
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B100">
         <v>2</v>
@@ -4777,7 +4879,7 @@
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B101">
         <v>32</v>
@@ -4824,7 +4926,7 @@
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B102">
         <v>0.83299999999999996</v>
@@ -4871,7 +4973,7 @@
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B103">
         <v>41.6</v>
@@ -4880,7 +4982,7 @@
         <v>60</v>
       </c>
       <c r="D103" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E103">
         <v>50</v>
@@ -4918,16 +5020,16 @@
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D105" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J105" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L105" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
